--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B2FFAF-9ED9-4C11-9B2D-BDC978A2D90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2B751-075C-4DA9-923F-EBEA1ED36D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
   <si>
     <t>Switch Name</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Naevies</t>
+  </si>
+  <si>
+    <t>Kailh Box Silent Brown</t>
+  </si>
+  <si>
+    <t>Kailh Silent Box Brown</t>
   </si>
 </sst>
 </file>
@@ -366,6 +372,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,24 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,51 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +800,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,1358 +812,1390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20">
-        <v>9</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="14">
+        <v>10</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="14">
         <v>755</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="15"/>
       <c r="O2"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="22"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="16"/>
       <c r="O3"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="3">
         <v>28</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="3">
         <v>24</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="3">
         <v>9</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="3">
         <v>15</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="3">
         <v>9</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <f>A6+1</f>
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="3">
         <v>27</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="3">
         <v>15</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="3">
         <v>6</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="3">
         <v>16</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <f>A7+1</f>
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D9" s="3">
         <v>25</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G9" s="3">
         <v>12</v>
       </c>
-      <c r="H8" s="24">
-        <v>5</v>
-      </c>
-      <c r="I8" s="25">
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <f>A8+1</f>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="I10" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D12" s="3">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="24">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5">
+        <f>AVERAGE(D6:D16)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17:I17" si="1">AVERAGE(E6:E16)</f>
+        <v>14.7</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="24">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="24">
-        <v>11</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4</v>
-      </c>
-      <c r="I9" s="25">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <f>A9+1</f>
-        <v>5</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="I19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="24">
-        <v>26</v>
-      </c>
-      <c r="E10" s="24">
-        <v>12</v>
-      </c>
-      <c r="F10" s="24">
-        <v>5</v>
-      </c>
-      <c r="G10" s="24">
-        <v>12</v>
-      </c>
-      <c r="H10" s="24">
+      <c r="D20" s="3">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="I10" s="25">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <f>A10+1</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="24">
-        <v>25</v>
-      </c>
-      <c r="E11" s="24">
-        <v>15</v>
-      </c>
-      <c r="F11" s="24">
-        <v>5</v>
-      </c>
-      <c r="G11" s="24">
-        <v>9</v>
-      </c>
-      <c r="H11" s="24">
-        <v>6</v>
-      </c>
-      <c r="I11" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <f>A11+1</f>
-        <v>7</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="24">
-        <v>24</v>
-      </c>
-      <c r="E12" s="24">
-        <v>12</v>
-      </c>
-      <c r="F12" s="24">
-        <v>6</v>
-      </c>
-      <c r="G12" s="24">
-        <v>10</v>
-      </c>
-      <c r="H12" s="24">
-        <v>6</v>
-      </c>
-      <c r="I12" s="25">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <f>A12+1</f>
+      <c r="G20" s="3">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="24">
-        <v>23</v>
-      </c>
-      <c r="E13" s="24">
-        <v>12</v>
-      </c>
-      <c r="F13" s="24">
-        <v>5</v>
-      </c>
-      <c r="G13" s="24">
-        <v>10</v>
-      </c>
-      <c r="H13" s="24">
-        <v>5</v>
-      </c>
-      <c r="I13" s="25">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <f>A13+1</f>
-        <v>9</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="24">
-        <v>15</v>
-      </c>
-      <c r="E14" s="24">
-        <v>12</v>
-      </c>
-      <c r="F14" s="24">
-        <v>6</v>
-      </c>
-      <c r="G14" s="24">
-        <v>10</v>
-      </c>
-      <c r="H14" s="24">
-        <v>4</v>
-      </c>
-      <c r="I14" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <f>A14+1</f>
-        <v>10</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="26">
-        <f>AVERAGE(D6:D16)</f>
-        <v>24.555555555555557</v>
-      </c>
-      <c r="E17" s="26">
-        <f t="shared" ref="E17:I17" si="0">AVERAGE(E6:E16)</f>
-        <v>14.444444444444445</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="0"/>
-        <v>6.2222222222222223</v>
-      </c>
-      <c r="G17" s="26">
-        <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H17" s="26">
-        <f t="shared" si="0"/>
-        <v>5.8888888888888893</v>
-      </c>
-      <c r="I17" s="27">
-        <f t="shared" si="0"/>
-        <v>62.777777777777779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>1</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="24">
-        <v>27</v>
-      </c>
-      <c r="E20" s="24">
-        <v>15</v>
-      </c>
-      <c r="F20" s="24">
-        <v>6</v>
-      </c>
-      <c r="G20" s="24">
-        <v>16</v>
-      </c>
-      <c r="H20" s="24">
-        <v>8</v>
-      </c>
-      <c r="I20" s="25">
+      <c r="I20" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="2">
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="3">
         <v>26</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="3">
         <v>12</v>
       </c>
-      <c r="F21" s="24">
-        <v>5</v>
-      </c>
-      <c r="G21" s="24">
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>12</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="3">
         <v>6</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="4">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <f t="shared" ref="A22:A24" si="1">A21+1</f>
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:A24" si="2">A21+1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="3">
         <v>24</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="3">
         <v>12</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="3">
         <v>10</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="3">
         <v>6</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="4">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <f t="shared" si="1"/>
+      <c r="A23" s="2">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="3">
         <v>23</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="3">
         <v>12</v>
       </c>
-      <c r="F23" s="24">
-        <v>5</v>
-      </c>
-      <c r="G23" s="24">
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>10</v>
       </c>
-      <c r="H23" s="24">
-        <v>5</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
+      <c r="A24" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="5">
         <f>AVERAGE(D20:D25)</f>
         <v>25</v>
       </c>
-      <c r="E26" s="26">
-        <f t="shared" ref="E26:I26" si="2">AVERAGE(E20:E25)</f>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:I26" si="3">AVERAGE(E20:E25)</f>
         <v>12.75</v>
       </c>
-      <c r="F26" s="26">
-        <f t="shared" si="2"/>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="G26" s="26">
-        <f t="shared" si="2"/>
+      <c r="G26" s="5">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H26" s="26">
-        <f t="shared" si="2"/>
+      <c r="H26" s="5">
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-      <c r="I26" s="27">
-        <f t="shared" si="2"/>
+      <c r="I26" s="6">
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="3">
         <v>25</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="3">
         <v>15</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="3">
         <v>7</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="3">
         <v>12</v>
       </c>
-      <c r="H29" s="24">
-        <v>5</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="2">
         <f>A29+1</f>
         <v>2</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="3">
         <v>28</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="3">
         <v>13</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="3">
         <v>7</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="3">
         <v>11</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="3">
         <v>4</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="4">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <f t="shared" ref="A31:A33" si="3">A30+1</f>
+      <c r="A31" s="2">
+        <f t="shared" ref="A31:A33" si="4">A30+1</f>
         <v>3</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="3">
         <v>25</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="3">
         <v>15</v>
       </c>
-      <c r="F31" s="24">
-        <v>5</v>
-      </c>
-      <c r="G31" s="24">
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
         <v>9</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="3">
         <v>6</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <f t="shared" si="3"/>
+      <c r="A32" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="3">
         <v>15</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="3">
         <v>12</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="3">
         <v>6</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="3">
         <v>10</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="3">
         <v>4</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
+      <c r="A33" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="5">
         <f>AVERAGE(D29:D34)</f>
         <v>23.25</v>
       </c>
-      <c r="E35" s="26">
-        <f t="shared" ref="E35" si="4">AVERAGE(E29:E34)</f>
+      <c r="E35" s="5">
+        <f t="shared" ref="E35" si="5">AVERAGE(E29:E34)</f>
         <v>13.75</v>
       </c>
-      <c r="F35" s="26">
-        <f t="shared" ref="F35" si="5">AVERAGE(F29:F34)</f>
+      <c r="F35" s="5">
+        <f t="shared" ref="F35" si="6">AVERAGE(F29:F34)</f>
         <v>6.25</v>
       </c>
-      <c r="G35" s="26">
-        <f t="shared" ref="G35" si="6">AVERAGE(G29:G34)</f>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35" si="7">AVERAGE(G29:G34)</f>
         <v>10.5</v>
       </c>
-      <c r="H35" s="26">
-        <f t="shared" ref="H35" si="7">AVERAGE(H29:H34)</f>
+      <c r="H35" s="5">
+        <f t="shared" ref="H35" si="8">AVERAGE(H29:H34)</f>
         <v>4.75</v>
       </c>
-      <c r="I35" s="27">
-        <f t="shared" ref="I35" si="8">AVERAGE(I29:I34)</f>
+      <c r="I35" s="6">
+        <f t="shared" ref="I35" si="9">AVERAGE(I29:I34)</f>
         <v>58.5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="24" t="s">
+      <c r="F37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+      <c r="A38" s="2">
         <v>1</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="2">
         <f>A38+1</f>
         <v>2</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
-        <f t="shared" ref="A40:A42" si="9">A39+1</f>
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:A42" si="10">A39+1</f>
         <v>3</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
-        <f t="shared" si="9"/>
+      <c r="A41" s="2">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
+      <c r="A42" s="2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="e">
+      <c r="D44" s="5" t="e">
         <f>AVERAGE(D38:D43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="26" t="e">
-        <f t="shared" ref="E44" si="10">AVERAGE(E38:E43)</f>
+      <c r="E44" s="5" t="e">
+        <f t="shared" ref="E44" si="11">AVERAGE(E38:E43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="26" t="e">
-        <f t="shared" ref="F44" si="11">AVERAGE(F38:F43)</f>
+      <c r="F44" s="5" t="e">
+        <f t="shared" ref="F44" si="12">AVERAGE(F38:F43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="26" t="e">
-        <f t="shared" ref="G44" si="12">AVERAGE(G38:G43)</f>
+      <c r="G44" s="5" t="e">
+        <f t="shared" ref="G44" si="13">AVERAGE(G38:G43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="26" t="e">
-        <f t="shared" ref="H44" si="13">AVERAGE(H38:H43)</f>
+      <c r="H44" s="5" t="e">
+        <f t="shared" ref="H44" si="14">AVERAGE(H38:H43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="27" t="e">
-        <f t="shared" ref="I44" si="14">AVERAGE(I38:I43)</f>
+      <c r="I44" s="6" t="e">
+        <f t="shared" ref="I44" si="15">AVERAGE(I38:I43)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="24" t="s">
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="2">
         <v>1</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="3">
         <v>28</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="3">
         <v>24</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="3">
         <v>9</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="3">
         <v>15</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="3">
         <v>9</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="2">
         <f>A47+1</f>
         <v>2</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25"/>
+      <c r="B48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
-        <f t="shared" ref="A49:A51" si="15">A48+1</f>
+      <c r="A49" s="2">
+        <f t="shared" ref="A49:A51" si="16">A48+1</f>
         <v>3</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
-        <f t="shared" si="15"/>
+      <c r="A50" s="2">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
+      <c r="A51" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="5">
         <f>AVERAGE(D47:D52)</f>
-        <v>28</v>
-      </c>
-      <c r="E53" s="26">
-        <f t="shared" ref="E53" si="16">AVERAGE(E47:E52)</f>
-        <v>24</v>
-      </c>
-      <c r="F53" s="26">
-        <f t="shared" ref="F53" si="17">AVERAGE(F47:F52)</f>
-        <v>9</v>
-      </c>
-      <c r="G53" s="26">
-        <f t="shared" ref="G53" si="18">AVERAGE(G47:G52)</f>
-        <v>15</v>
-      </c>
-      <c r="H53" s="26">
-        <f t="shared" ref="H53" si="19">AVERAGE(H47:H52)</f>
-        <v>9</v>
-      </c>
-      <c r="I53" s="27">
-        <f t="shared" ref="I53" si="20">AVERAGE(I47:I52)</f>
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" ref="E53" si="17">AVERAGE(E47:E52)</f>
+        <v>20.5</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" ref="F53" si="18">AVERAGE(F47:F52)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" ref="G53" si="19">AVERAGE(G47:G52)</f>
+        <v>14</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" ref="H53" si="20">AVERAGE(H47:H52)</f>
+        <v>7</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" ref="I53" si="21">AVERAGE(I47:I52)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="24" t="s">
+      <c r="F55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="25" t="s">
+      <c r="I55" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="2">
         <v>1</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="23">
+      <c r="A57" s="2">
         <f>A56+1</f>
         <v>2</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
-        <f t="shared" ref="A58:A60" si="21">A57+1</f>
+      <c r="A58" s="2">
+        <f t="shared" ref="A58:A60" si="22">A57+1</f>
         <v>3</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
-        <f t="shared" si="21"/>
+      <c r="A59" s="2">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="23">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
+      <c r="A60" s="2">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="25"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="30" t="e">
+      <c r="D62" s="9" t="e">
         <f>AVERAGE(D56:D61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="30" t="e">
-        <f t="shared" ref="E62" si="22">AVERAGE(E56:E61)</f>
+      <c r="E62" s="9" t="e">
+        <f t="shared" ref="E62" si="23">AVERAGE(E56:E61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="30" t="e">
-        <f t="shared" ref="F62" si="23">AVERAGE(F56:F61)</f>
+      <c r="F62" s="9" t="e">
+        <f t="shared" ref="F62" si="24">AVERAGE(F56:F61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="30" t="e">
-        <f t="shared" ref="G62" si="24">AVERAGE(G56:G61)</f>
+      <c r="G62" s="9" t="e">
+        <f t="shared" ref="G62" si="25">AVERAGE(G56:G61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="30" t="e">
-        <f t="shared" ref="H62" si="25">AVERAGE(H56:H61)</f>
+      <c r="H62" s="9" t="e">
+        <f t="shared" ref="H62" si="26">AVERAGE(H56:H61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I62" s="31" t="e">
-        <f t="shared" ref="I62" si="26">AVERAGE(I56:I61)</f>
+      <c r="I62" s="10" t="e">
+        <f t="shared" ref="I62" si="27">AVERAGE(I56:I61)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I14">
-    <sortCondition descending="1" ref="I6:I14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I15">
+    <sortCondition descending="1" ref="I6:I15"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A36:I36"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2B751-075C-4DA9-923F-EBEA1ED36D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDAA6B-0858-46E9-8C40-840ABB8AA8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
   <si>
     <t>Switch Name</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Kailh Silent Box Brown</t>
+  </si>
+  <si>
+    <t>Glorious Panda</t>
   </si>
 </sst>
 </file>
@@ -797,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>11</v>
@@ -964,467 +967,483 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3">
         <v>13</v>
       </c>
       <c r="H8" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
       </c>
       <c r="I9" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3">
         <v>6</v>
       </c>
       <c r="I12" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3">
         <v>12</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>10</v>
       </c>
       <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5">
-        <f>AVERAGE(D6:D16)</f>
-        <v>24.5</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ref="E17:I17" si="1">AVERAGE(E6:E16)</f>
-        <v>14.7</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="D18" s="5">
+        <f>AVERAGE(D6:D17)</f>
+        <v>25</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:I18" si="1">AVERAGE(E6:E17)</f>
+        <v>14.818181818181818</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="G17" s="5">
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>11.8</v>
-      </c>
-      <c r="H17" s="5">
+        <v>11.909090909090908</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="1"/>
-        <v>5.8</v>
-      </c>
-      <c r="I17" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="3">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8</v>
-      </c>
-      <c r="I20" s="4">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f>A20+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I21" s="4">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" ref="A22:A24" si="2">A21+1</f>
-        <v>3</v>
+        <f>A21+1</f>
+        <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3">
         <v>12</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3">
         <v>6</v>
       </c>
       <c r="I22" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="A23:A25" si="2">A22+1</f>
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3">
         <v>12</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
         <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1435,148 +1454,128 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="5">
-        <f>AVERAGE(D20:D25)</f>
+      <c r="D27" s="5">
+        <f>AVERAGE(D21:D26)</f>
         <v>25</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" ref="E26:I26" si="3">AVERAGE(E20:E25)</f>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:I27" si="3">AVERAGE(E21:E26)</f>
         <v>12.75</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H27" s="5">
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f>A29+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
         <v>13</v>
       </c>
-      <c r="F30" s="3">
-        <v>7</v>
-      </c>
-      <c r="G30" s="3">
-        <v>11</v>
-      </c>
       <c r="H30" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I30" s="4">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" ref="A31:A33" si="4">A30+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>19</v>
@@ -1588,167 +1587,196 @@
         <v>15</v>
       </c>
       <c r="F31" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G31" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H31" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" s="3">
         <v>4</v>
       </c>
       <c r="I32" s="4">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="5">
-        <f>AVERAGE(D29:D34)</f>
-        <v>23.25</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" ref="E35" si="5">AVERAGE(E29:E34)</f>
-        <v>13.75</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" ref="F35" si="6">AVERAGE(F29:F34)</f>
-        <v>6.25</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" ref="G35" si="7">AVERAGE(G29:G34)</f>
-        <v>10.5</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" ref="H35" si="8">AVERAGE(H29:H34)</f>
-        <v>4.75</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" ref="I35" si="9">AVERAGE(I29:I34)</f>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="D36" s="5">
+        <f>AVERAGE(D30:D35)</f>
+        <v>24.6</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" ref="E36" si="4">AVERAGE(E30:E35)</f>
+        <v>14.2</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36" si="5">AVERAGE(F30:F35)</f>
+        <v>6</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" ref="G36" si="6">AVERAGE(G30:G35)</f>
+        <v>11</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" ref="H36" si="7">AVERAGE(H30:H35)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36" si="8">AVERAGE(I30:I35)</f>
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f>A38+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1761,8 +1789,8 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <f t="shared" ref="A40:A42" si="10">A39+1</f>
-        <v>3</v>
+        <f>A39+1</f>
+        <v>2</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1775,8 +1803,8 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" ref="A41:A43" si="9">A40+1</f>
+        <v>3</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1789,8 +1817,8 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1802,7 +1830,10 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1813,159 +1844,156 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="5" t="e">
-        <f>AVERAGE(D38:D43)</f>
+      <c r="D45" s="5" t="e">
+        <f>AVERAGE(D39:D44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="5" t="e">
-        <f t="shared" ref="E44" si="11">AVERAGE(E38:E43)</f>
+      <c r="E45" s="5" t="e">
+        <f t="shared" ref="E45" si="10">AVERAGE(E39:E44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="5" t="e">
-        <f t="shared" ref="F44" si="12">AVERAGE(F38:F43)</f>
+      <c r="F45" s="5" t="e">
+        <f t="shared" ref="F45" si="11">AVERAGE(F39:F44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="5" t="e">
-        <f t="shared" ref="G44" si="13">AVERAGE(G38:G43)</f>
+      <c r="G45" s="5" t="e">
+        <f t="shared" ref="G45" si="12">AVERAGE(G39:G44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="5" t="e">
-        <f t="shared" ref="H44" si="14">AVERAGE(H38:H43)</f>
+      <c r="H45" s="5" t="e">
+        <f t="shared" ref="H45" si="13">AVERAGE(H39:H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="6" t="e">
-        <f t="shared" ref="I44" si="15">AVERAGE(I38:I43)</f>
+      <c r="I45" s="6" t="e">
+        <f t="shared" ref="I45" si="14">AVERAGE(I39:I44)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="3">
-        <v>28</v>
-      </c>
-      <c r="E47" s="3">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3">
-        <v>9</v>
-      </c>
-      <c r="G47" s="3">
-        <v>15</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9</v>
-      </c>
-      <c r="I47" s="4">
-        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <f>A47+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="3">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3">
         <v>24</v>
       </c>
-      <c r="E48" s="3">
-        <v>17</v>
-      </c>
       <c r="F48" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H48" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I48" s="4">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <f t="shared" ref="A49:A51" si="16">A48+1</f>
-        <v>3</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
+        <f>A48+1</f>
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="3">
+        <v>24</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5</v>
+      </c>
+      <c r="I49" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" ref="A50:A52" si="15">A49+1</f>
+        <v>3</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1978,8 +2006,8 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1991,7 +2019,10 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2002,99 +2033,96 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="5">
-        <f>AVERAGE(D47:D52)</f>
+      <c r="D54" s="5">
+        <f>AVERAGE(D48:D53)</f>
         <v>26</v>
       </c>
-      <c r="E53" s="5">
-        <f t="shared" ref="E53" si="17">AVERAGE(E47:E52)</f>
+      <c r="E54" s="5">
+        <f t="shared" ref="E54" si="16">AVERAGE(E48:E53)</f>
         <v>20.5</v>
       </c>
-      <c r="F53" s="5">
-        <f t="shared" ref="F53" si="18">AVERAGE(F47:F52)</f>
+      <c r="F54" s="5">
+        <f t="shared" ref="F54" si="17">AVERAGE(F48:F53)</f>
         <v>8.5</v>
       </c>
-      <c r="G53" s="5">
-        <f t="shared" ref="G53" si="19">AVERAGE(G47:G52)</f>
+      <c r="G54" s="5">
+        <f t="shared" ref="G54" si="18">AVERAGE(G48:G53)</f>
         <v>14</v>
       </c>
-      <c r="H53" s="5">
-        <f t="shared" ref="H53" si="20">AVERAGE(H47:H52)</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54" si="19">AVERAGE(H48:H53)</f>
         <v>7</v>
       </c>
-      <c r="I53" s="6">
-        <f t="shared" ref="I53" si="21">AVERAGE(I47:I52)</f>
+      <c r="I54" s="6">
+        <f t="shared" ref="I54" si="20">AVERAGE(I48:I53)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <f>A56+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2107,8 +2135,8 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <f t="shared" ref="A58:A60" si="22">A57+1</f>
-        <v>3</v>
+        <f>A57+1</f>
+        <v>2</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2121,8 +2149,8 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" ref="A59:A61" si="21">A58+1</f>
+        <v>3</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2135,8 +2163,8 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2148,7 +2176,10 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2159,52 +2190,63 @@
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="9" t="e">
-        <f>AVERAGE(D56:D61)</f>
+      <c r="D63" s="9" t="e">
+        <f>AVERAGE(D57:D62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="9" t="e">
-        <f t="shared" ref="E62" si="23">AVERAGE(E56:E61)</f>
+      <c r="E63" s="9" t="e">
+        <f t="shared" ref="E63" si="22">AVERAGE(E57:E62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="9" t="e">
-        <f t="shared" ref="F62" si="24">AVERAGE(F56:F61)</f>
+      <c r="F63" s="9" t="e">
+        <f t="shared" ref="F63" si="23">AVERAGE(F57:F62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="9" t="e">
-        <f t="shared" ref="G62" si="25">AVERAGE(G56:G61)</f>
+      <c r="G63" s="9" t="e">
+        <f t="shared" ref="G63" si="24">AVERAGE(G57:G62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="9" t="e">
-        <f t="shared" ref="H62" si="26">AVERAGE(H56:H61)</f>
+      <c r="H63" s="9" t="e">
+        <f t="shared" ref="H63" si="25">AVERAGE(H57:H62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I62" s="10" t="e">
-        <f t="shared" ref="I62" si="27">AVERAGE(I56:I61)</f>
+      <c r="I63" s="10" t="e">
+        <f t="shared" ref="I63" si="26">AVERAGE(I57:I62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I15">
-    <sortCondition descending="1" ref="I6:I15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I16">
+    <sortCondition descending="1" ref="I6:I16"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A55:I55"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDAA6B-0858-46E9-8C40-840ABB8AA8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B0BB7-A69F-4E90-AA55-4CD71452B87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>Switch Name</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Glorious Panda</t>
+  </si>
+  <si>
+    <t>Kailh Box Silent Pink</t>
+  </si>
+  <si>
+    <t>Silent Linear</t>
   </si>
 </sst>
 </file>
@@ -800,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>11</v>
@@ -1145,316 +1151,332 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3">
         <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>12</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
         <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3">
         <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
       </c>
       <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="5">
-        <f>AVERAGE(D6:D17)</f>
-        <v>25</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:I18" si="1">AVERAGE(E6:E17)</f>
-        <v>14.818181818181818</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="D19" s="5">
+        <f>AVERAGE(D6:D18)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:I19" si="1">AVERAGE(E6:E18)</f>
+        <v>14.916666666666666</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>6.2727272727272725</v>
-      </c>
-      <c r="G18" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>11.909090909090908</v>
-      </c>
-      <c r="H18" s="5">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="1"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>63.666666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3">
-        <v>27</v>
-      </c>
-      <c r="E21" s="3">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
-        <v>8</v>
-      </c>
-      <c r="I21" s="4">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f>A21+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I22" s="4">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" ref="A23:A25" si="2">A22+1</f>
-        <v>3</v>
+        <f>A22+1</f>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3">
         <v>12</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3">
         <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="A24:A26" si="2">A23+1</f>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3">
         <v>12</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
         <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1465,346 +1487,359 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5">
-        <f>AVERAGE(D21:D26)</f>
+      <c r="D28" s="5">
+        <f>AVERAGE(D22:D27)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27:I27" si="3">AVERAGE(E21:E26)</f>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:I28" si="3">AVERAGE(E22:E27)</f>
         <v>12.75</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H28" s="5">
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="3">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3">
-        <v>13</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" s="4">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I31" s="4">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="3">
         <v>7</v>
       </c>
       <c r="G32" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E33" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3">
+        <v>6</v>
+      </c>
+      <c r="I34" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3">
         <v>12</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>6</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>10</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="3">
         <v>4</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-    </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="5">
-        <f>AVERAGE(D30:D35)</f>
+      <c r="D37" s="5">
+        <f>AVERAGE(D31:D36)</f>
         <v>24.6</v>
       </c>
-      <c r="E36" s="5">
-        <f t="shared" ref="E36" si="4">AVERAGE(E30:E35)</f>
+      <c r="E37" s="5">
+        <f t="shared" ref="E37" si="4">AVERAGE(E31:E36)</f>
         <v>14.2</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" ref="F36" si="5">AVERAGE(F30:F35)</f>
+      <c r="F37" s="5">
+        <f t="shared" ref="F37" si="5">AVERAGE(F31:F36)</f>
         <v>6</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" ref="G36" si="6">AVERAGE(G30:G35)</f>
+      <c r="G37" s="5">
+        <f t="shared" ref="G37" si="6">AVERAGE(G31:G36)</f>
         <v>11</v>
       </c>
-      <c r="H36" s="5">
-        <f t="shared" ref="H36" si="7">AVERAGE(H30:H35)</f>
+      <c r="H37" s="5">
+        <f t="shared" ref="H37" si="7">AVERAGE(H31:H36)</f>
         <v>5.4</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" ref="I36" si="8">AVERAGE(I30:I35)</f>
+      <c r="I37" s="6">
+        <f t="shared" ref="I37" si="8">AVERAGE(I31:I36)</f>
         <v>61.2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <f>A39+1</f>
-        <v>2</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3">
+        <v>21</v>
+      </c>
+      <c r="E40" s="3">
+        <v>16</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3">
+        <v>13</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
+      </c>
+      <c r="I40" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <f t="shared" ref="A41:A43" si="9">A40+1</f>
-        <v>3</v>
+        <f>A40+1</f>
+        <v>2</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1817,8 +1852,8 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" ref="A42:A44" si="9">A41+1</f>
+        <v>3</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1832,7 +1867,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1844,7 +1879,10 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1855,159 +1893,156 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="5" t="e">
-        <f>AVERAGE(D39:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="5" t="e">
-        <f t="shared" ref="E45" si="10">AVERAGE(E39:E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="5" t="e">
-        <f t="shared" ref="F45" si="11">AVERAGE(F39:F44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="5" t="e">
-        <f t="shared" ref="G45" si="12">AVERAGE(G39:G44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="5" t="e">
-        <f t="shared" ref="H45" si="13">AVERAGE(H39:H44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="6" t="e">
-        <f t="shared" ref="I45" si="14">AVERAGE(I39:I44)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="D46" s="5">
+        <f>AVERAGE(D40:D45)</f>
+        <v>21</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" ref="E46" si="10">AVERAGE(E40:E45)</f>
         <v>16</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
+      <c r="F46" s="5">
+        <f t="shared" ref="F46" si="11">AVERAGE(F40:F45)</f>
+        <v>6</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" ref="G46" si="12">AVERAGE(G40:G45)</f>
+        <v>13</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" ref="H46" si="13">AVERAGE(H40:H45)</f>
+        <v>4</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" ref="I46" si="14">AVERAGE(I40:I45)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="3">
-        <v>28</v>
-      </c>
-      <c r="E48" s="3">
-        <v>24</v>
-      </c>
-      <c r="F48" s="3">
-        <v>9</v>
-      </c>
-      <c r="G48" s="3">
-        <v>15</v>
-      </c>
-      <c r="H48" s="3">
-        <v>9</v>
-      </c>
-      <c r="I48" s="4">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <f>A48+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="3">
+        <v>28</v>
+      </c>
+      <c r="E49" s="3">
         <v>24</v>
       </c>
-      <c r="E49" s="3">
-        <v>17</v>
-      </c>
       <c r="F49" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H49" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I49" s="4">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <f t="shared" ref="A50:A52" si="15">A49+1</f>
-        <v>3</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+        <f>A49+1</f>
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3">
+        <v>24</v>
+      </c>
+      <c r="E50" s="3">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3">
+        <v>8</v>
+      </c>
+      <c r="G50" s="3">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3">
+        <v>5</v>
+      </c>
+      <c r="I50" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" ref="A51:A53" si="15">A50+1</f>
+        <v>3</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2021,7 +2056,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2033,7 +2068,10 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2044,99 +2082,96 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="5">
-        <f>AVERAGE(D48:D53)</f>
+      <c r="D55" s="5">
+        <f>AVERAGE(D49:D54)</f>
         <v>26</v>
       </c>
-      <c r="E54" s="5">
-        <f t="shared" ref="E54" si="16">AVERAGE(E48:E53)</f>
+      <c r="E55" s="5">
+        <f t="shared" ref="E55" si="16">AVERAGE(E49:E54)</f>
         <v>20.5</v>
       </c>
-      <c r="F54" s="5">
-        <f t="shared" ref="F54" si="17">AVERAGE(F48:F53)</f>
+      <c r="F55" s="5">
+        <f t="shared" ref="F55" si="17">AVERAGE(F49:F54)</f>
         <v>8.5</v>
       </c>
-      <c r="G54" s="5">
-        <f t="shared" ref="G54" si="18">AVERAGE(G48:G53)</f>
+      <c r="G55" s="5">
+        <f t="shared" ref="G55" si="18">AVERAGE(G49:G54)</f>
         <v>14</v>
       </c>
-      <c r="H54" s="5">
-        <f t="shared" ref="H54" si="19">AVERAGE(H48:H53)</f>
+      <c r="H55" s="5">
+        <f t="shared" ref="H55" si="19">AVERAGE(H49:H54)</f>
         <v>7</v>
       </c>
-      <c r="I54" s="6">
-        <f t="shared" ref="I54" si="20">AVERAGE(I48:I53)</f>
+      <c r="I55" s="6">
+        <f t="shared" ref="I55" si="20">AVERAGE(I49:I54)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <f>A57+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2149,8 +2184,8 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <f t="shared" ref="A59:A61" si="21">A58+1</f>
-        <v>3</v>
+        <f>A58+1</f>
+        <v>2</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2163,8 +2198,8 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" ref="A60:A62" si="21">A59+1</f>
+        <v>3</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2178,7 +2213,7 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2190,7 +2225,10 @@
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2201,52 +2239,63 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="9" t="e">
-        <f>AVERAGE(D57:D62)</f>
+      <c r="D64" s="9" t="e">
+        <f>AVERAGE(D58:D63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="9" t="e">
-        <f t="shared" ref="E63" si="22">AVERAGE(E57:E62)</f>
+      <c r="E64" s="9" t="e">
+        <f t="shared" ref="E64" si="22">AVERAGE(E58:E63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="9" t="e">
-        <f t="shared" ref="F63" si="23">AVERAGE(F57:F62)</f>
+      <c r="F64" s="9" t="e">
+        <f t="shared" ref="F64" si="23">AVERAGE(F58:F63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="9" t="e">
-        <f t="shared" ref="G63" si="24">AVERAGE(G57:G62)</f>
+      <c r="G64" s="9" t="e">
+        <f t="shared" ref="G64" si="24">AVERAGE(G58:G63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="9" t="e">
-        <f t="shared" ref="H63" si="25">AVERAGE(H57:H62)</f>
+      <c r="H64" s="9" t="e">
+        <f t="shared" ref="H64" si="25">AVERAGE(H58:H63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="10" t="e">
-        <f t="shared" ref="I63" si="26">AVERAGE(I57:I62)</f>
+      <c r="I64" s="10" t="e">
+        <f t="shared" ref="I64" si="26">AVERAGE(I58:I63)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I16">
-    <sortCondition descending="1" ref="I6:I16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I17">
+    <sortCondition descending="1" ref="I6:I17"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A56:I56"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B0BB7-A69F-4E90-AA55-4CD71452B87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC3077-7DD9-4679-A5C1-6C4C9E93E5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
   <si>
     <t>Switch Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve"> - SILENT TACTILE RANKINGS -</t>
   </si>
   <si>
-    <t xml:space="preserve"> - OTHER RANKINGS -</t>
-  </si>
-  <si>
     <t>Moyu Black</t>
   </si>
   <si>
@@ -149,6 +146,45 @@
   </si>
   <si>
     <t>Silent Linear</t>
+  </si>
+  <si>
+    <t>Gateron N1</t>
+  </si>
+  <si>
+    <t>KK Lightwave</t>
+  </si>
+  <si>
+    <t>Original Aspiration</t>
+  </si>
+  <si>
+    <t>Star Grey</t>
+  </si>
+  <si>
+    <t>Star Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - CLICKY RANKINGS -</t>
+  </si>
+  <si>
+    <t>Gateron Ink Blue V1</t>
+  </si>
+  <si>
+    <t>Clicky</t>
+  </si>
+  <si>
+    <t>Kailh Box Jade</t>
+  </si>
+  <si>
+    <t>Kailh Box Navy</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Healio</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -376,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +442,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,66 +860,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14">
-        <v>12</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="15">
+        <v>22</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="14">
-        <v>755</v>
+      <c r="I1" s="15">
+        <v>779</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="16"/>
       <c r="O2"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="16"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="17"/>
       <c r="O3"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -917,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>28</v>
@@ -943,1107 +982,1232 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
         <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>16</v>
       </c>
       <c r="H7" s="3">
         <v>8</v>
       </c>
       <c r="I7" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3">
         <v>16</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9" s="4">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
         <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
         <v>13</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>7</v>
       </c>
-      <c r="G11" s="3">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
       <c r="I11" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12" s="4">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" s="4">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="4">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3">
         <v>12</v>
       </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10</v>
-      </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3">
-        <v>23</v>
-      </c>
       <c r="E16" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3">
-        <v>15</v>
-      </c>
       <c r="E17" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="4">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
+      <c r="A19" s="3">
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="5">
-        <f>AVERAGE(D6:D18)</f>
-        <v>24.666666666666668</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" ref="E19:I19" si="1">AVERAGE(E6:E18)</f>
-        <v>14.916666666666666</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3">
         <v>12</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="1"/>
-        <v>63.666666666666664</v>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6</v>
-      </c>
-      <c r="G22" s="3">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8</v>
-      </c>
-      <c r="I22" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <f>A22+1</f>
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6</v>
-      </c>
-      <c r="I23" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <f t="shared" ref="A24:A26" si="2">A23+1</f>
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D24" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3">
         <v>12</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3">
         <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <f t="shared" si="2"/>
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="G25" s="3">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="3">
+      <c r="D26" s="3">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
         <v>12</v>
       </c>
-      <c r="F25" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
         <v>10</v>
       </c>
-      <c r="H25" s="3">
-        <v>5</v>
-      </c>
-      <c r="I25" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="5">
-        <f>AVERAGE(D22:D27)</f>
-        <v>25</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28:I28" si="3">AVERAGE(E22:E27)</f>
-        <v>12.75</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="3"/>
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
+      <c r="D29" s="5">
+        <f>AVERAGE(D6:D28)</f>
+        <v>25.454545454545453</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ref="E29:I29" si="0">AVERAGE(E6:E28)</f>
+        <v>15.681818181818182</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>11.863636363636363</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8636363636363633</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>65.13636363636364</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3">
-        <v>30</v>
-      </c>
-      <c r="E31" s="3">
-        <v>16</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>13</v>
-      </c>
-      <c r="H31" s="3">
-        <v>8</v>
-      </c>
-      <c r="I31" s="4">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="3">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3">
         <v>20</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="3">
-        <v>25</v>
-      </c>
-      <c r="E32" s="3">
-        <v>15</v>
       </c>
       <c r="F32" s="3">
         <v>7</v>
       </c>
       <c r="G32" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>3</v>
+        <f>A32+1</f>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G33" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H33" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I33" s="4">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <f t="shared" ref="A34:A36" si="1">A33+1</f>
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3">
         <v>4</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3">
-        <v>25</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
       <c r="G34" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3">
         <v>12</v>
       </c>
       <c r="F35" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6</v>
+      </c>
+      <c r="I35" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
         <v>10</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="3">
+        <v>6</v>
+      </c>
+      <c r="I36" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3">
+        <v>24</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:I41" si="2">AVERAGE(D32:D40)</f>
+        <v>25.25</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>5.375</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="2"/>
+        <v>10.75</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="2"/>
+        <v>5.75</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="2"/>
+        <v>61.375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="5">
-        <f>AVERAGE(D31:D36)</f>
-        <v>24.6</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" ref="E37" si="4">AVERAGE(E31:E36)</f>
-        <v>14.2</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" ref="F37" si="5">AVERAGE(F31:F36)</f>
-        <v>6</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" ref="G37" si="6">AVERAGE(G31:G36)</f>
-        <v>11</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" ref="H37" si="7">AVERAGE(H31:H36)</f>
-        <v>5.4</v>
-      </c>
-      <c r="I37" s="6">
-        <f t="shared" ref="I37" si="8">AVERAGE(I31:I36)</f>
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="3">
-        <v>21</v>
-      </c>
-      <c r="E40" s="3">
-        <v>16</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6</v>
-      </c>
-      <c r="G40" s="3">
-        <v>13</v>
-      </c>
-      <c r="H40" s="3">
-        <v>4</v>
-      </c>
-      <c r="I40" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <f>A40+1</f>
-        <v>2</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <f t="shared" ref="A42:A44" si="9">A41+1</f>
-        <v>3</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8</v>
+      </c>
+      <c r="I44" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3">
+        <v>29</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6</v>
+      </c>
+      <c r="G45" s="3">
+        <v>13</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>29</v>
+      <c r="A46" s="2">
+        <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3">
         <v>30</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="E46" s="3">
+        <v>16</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8</v>
+      </c>
+      <c r="I46" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="5">
-        <f>AVERAGE(D40:D45)</f>
-        <v>21</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" ref="E46" si="10">AVERAGE(E40:E45)</f>
-        <v>16</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" ref="F46" si="11">AVERAGE(F40:F45)</f>
-        <v>6</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" ref="G46" si="12">AVERAGE(G40:G45)</f>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3">
         <v>13</v>
       </c>
-      <c r="H46" s="5">
-        <f t="shared" ref="H46" si="13">AVERAGE(H40:H45)</f>
+      <c r="F48" s="3">
+        <v>7</v>
+      </c>
+      <c r="G48" s="3">
+        <v>11</v>
+      </c>
+      <c r="H48" s="3">
         <v>4</v>
       </c>
-      <c r="I46" s="6">
-        <f t="shared" ref="I46" si="14">AVERAGE(I40:I45)</f>
+      <c r="I48" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3">
+        <v>25</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6</v>
+      </c>
+      <c r="I49" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15</v>
+      </c>
+      <c r="E50" s="3">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3">
         <v>4</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="3">
-        <v>28</v>
-      </c>
-      <c r="E49" s="3">
-        <v>24</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9</v>
-      </c>
-      <c r="I49" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <f>A49+1</f>
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="3">
-        <v>24</v>
-      </c>
-      <c r="E50" s="3">
-        <v>17</v>
-      </c>
-      <c r="F50" s="3">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3">
-        <v>13</v>
-      </c>
-      <c r="H50" s="3">
-        <v>5</v>
-      </c>
       <c r="I50" s="4">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <f t="shared" ref="A51:A53" si="15">A50+1</f>
-        <v>3</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2054,124 +2218,159 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <f t="shared" si="15"/>
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" ref="D52:I52" si="3">AVERAGE(D44:D51)</f>
+        <v>25.857142857142858</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="3"/>
+        <v>15.857142857142858</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="3"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="3"/>
+        <v>65.857142857142861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>29</v>
+      <c r="A55" s="2">
+        <v>1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="5">
-        <f>AVERAGE(D49:D54)</f>
+        <v>36</v>
+      </c>
+      <c r="D55" s="3">
         <v>26</v>
       </c>
-      <c r="E55" s="5">
-        <f t="shared" ref="E55" si="16">AVERAGE(E49:E54)</f>
-        <v>20.5</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" ref="F55" si="17">AVERAGE(F49:F54)</f>
-        <v>8.5</v>
-      </c>
-      <c r="G55" s="5">
-        <f t="shared" ref="G55" si="18">AVERAGE(G49:G54)</f>
-        <v>14</v>
-      </c>
-      <c r="H55" s="5">
-        <f t="shared" ref="H55" si="19">AVERAGE(H49:H54)</f>
-        <v>7</v>
-      </c>
-      <c r="I55" s="6">
-        <f t="shared" ref="I55" si="20">AVERAGE(I49:I54)</f>
-        <v>76</v>
+      <c r="E55" s="3">
+        <v>16</v>
+      </c>
+      <c r="F55" s="3">
+        <v>6</v>
+      </c>
+      <c r="G55" s="3">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3">
+        <v>6</v>
+      </c>
+      <c r="I55" s="4">
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
+      <c r="A56" s="2">
+        <f>A55+1</f>
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="3">
+        <v>21</v>
+      </c>
+      <c r="E56" s="3">
+        <v>16</v>
+      </c>
+      <c r="F56" s="3">
+        <v>6</v>
+      </c>
+      <c r="G56" s="3">
+        <v>13</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4</v>
+      </c>
+      <c r="I56" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="A57" s="2">
+        <f t="shared" ref="A57:A59" si="4">A56+1</f>
         <v>3</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2184,8 +2383,8 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <f>A58+1</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2197,10 +2396,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <f t="shared" ref="A60:A62" si="21">A59+1</f>
-        <v>3</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2211,91 +2407,446 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <f t="shared" si="21"/>
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="5">
+        <f>AVERAGE(D55:D60)</f>
+        <v>23.5</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" ref="E61" si="5">AVERAGE(E55:E60)</f>
+        <v>16</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" ref="F61" si="6">AVERAGE(F55:F60)</f>
+        <v>6</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" ref="G61" si="7">AVERAGE(G55:G60)</f>
+        <v>11.5</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" ref="H61" si="8">AVERAGE(H55:H60)</f>
+        <v>5</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" ref="I61" si="9">AVERAGE(I55:I60)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
+      <c r="F63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="3">
+        <v>28</v>
+      </c>
+      <c r="E64" s="3">
+        <v>24</v>
+      </c>
+      <c r="F64" s="3">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3">
+        <v>9</v>
+      </c>
+      <c r="I64" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f>A64+1</f>
+        <v>2</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="3">
+        <v>24</v>
+      </c>
+      <c r="E65" s="3">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3">
+        <v>8</v>
+      </c>
+      <c r="G65" s="3">
+        <v>13</v>
+      </c>
+      <c r="H65" s="3">
+        <v>5</v>
+      </c>
+      <c r="I65" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" ref="A66:A68" si="10">A65+1</f>
+        <v>3</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="9" t="e">
-        <f>AVERAGE(D58:D63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" s="9" t="e">
-        <f t="shared" ref="E64" si="22">AVERAGE(E58:E63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="9" t="e">
-        <f t="shared" ref="F64" si="23">AVERAGE(F58:F63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="9" t="e">
-        <f t="shared" ref="G64" si="24">AVERAGE(G58:G63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="9" t="e">
-        <f t="shared" ref="H64" si="25">AVERAGE(H58:H63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="10" t="e">
-        <f t="shared" ref="I64" si="26">AVERAGE(I58:I63)</f>
-        <v>#DIV/0!</v>
+      <c r="D70" s="5">
+        <f>AVERAGE(D64:D69)</f>
+        <v>26</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" ref="E70" si="11">AVERAGE(E64:E69)</f>
+        <v>20.5</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" ref="F70" si="12">AVERAGE(F64:F69)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70" si="13">AVERAGE(G64:G69)</f>
+        <v>14</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" ref="H70" si="14">AVERAGE(H64:H69)</f>
+        <v>7</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" ref="I70" si="15">AVERAGE(I64:I69)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3">
+        <v>29</v>
+      </c>
+      <c r="E73" s="3">
+        <v>16</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9</v>
+      </c>
+      <c r="G73" s="3">
+        <v>16</v>
+      </c>
+      <c r="H73" s="3">
+        <v>7</v>
+      </c>
+      <c r="I73" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <f>A73+1</f>
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="3">
+        <v>28</v>
+      </c>
+      <c r="E74" s="3">
+        <v>16</v>
+      </c>
+      <c r="F74" s="3">
+        <v>9</v>
+      </c>
+      <c r="G74" s="3">
+        <v>16</v>
+      </c>
+      <c r="H74" s="3">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <f t="shared" ref="A75:A77" si="16">A74+1</f>
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="3">
+        <v>21</v>
+      </c>
+      <c r="E75" s="3">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3">
+        <v>4</v>
+      </c>
+      <c r="G75" s="3">
+        <v>9</v>
+      </c>
+      <c r="H75" s="3">
+        <v>3</v>
+      </c>
+      <c r="I75" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="9">
+        <f>AVERAGE(D73:D78)</f>
+        <v>26</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" ref="E79" si="17">AVERAGE(E73:E78)</f>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" ref="F79" si="18">AVERAGE(F73:F78)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G79" s="9">
+        <f t="shared" ref="G79" si="19">AVERAGE(G73:G78)</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" ref="H79" si="20">AVERAGE(H73:H78)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" ref="I79" si="21">AVERAGE(I73:I78)</f>
+        <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I17">
-    <sortCondition descending="1" ref="I6:I17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I27">
+    <sortCondition descending="1" ref="I6:I27"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A71:I71"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A42:I42"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC3077-7DD9-4679-A5C1-6C4C9E93E5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303167F8-01B4-4EAA-A7F6-93614A44C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
   <si>
     <t>Switch Name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>TTC Gold Pink</t>
   </si>
 </sst>
 </file>
@@ -845,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,13 +874,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="15">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
@@ -1188,28 +1191,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1217,54 +1220,54 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="4">
         <v>64</v>
@@ -1272,54 +1275,54 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <v>28</v>
       </c>
       <c r="E18" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3">
         <v>4</v>
@@ -1330,31 +1333,31 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1362,54 +1365,54 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3">
         <v>6</v>
       </c>
       <c r="I20" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="3">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3">
-        <v>16</v>
-      </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4">
         <v>60</v>
@@ -1417,31 +1420,31 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1449,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
@@ -1458,19 +1461,19 @@
         <v>24</v>
       </c>
       <c r="E23" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1478,28 +1481,28 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>5</v>
       </c>
       <c r="I24" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1507,28 +1510,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1536,28 +1539,28 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1565,595 +1568,595 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>15</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>12</v>
       </c>
-      <c r="F27" s="3">
-        <v>6</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
         <v>10</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>4</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5">
-        <f>AVERAGE(D6:D28)</f>
-        <v>25.454545454545453</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" ref="E29:I29" si="0">AVERAGE(E6:E28)</f>
-        <v>15.681818181818182</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="D30" s="5">
+        <f>AVERAGE(D6:D29)</f>
+        <v>25.521739130434781</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ref="E30:I30" si="0">AVERAGE(E6:E29)</f>
+        <v>15.652173913043478</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>6.2727272727272725</v>
-      </c>
-      <c r="G29" s="5">
+        <v>6.2608695652173916</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>11.863636363636363</v>
-      </c>
-      <c r="H29" s="5">
+        <v>11.956521739130435</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>5.8636363636363633</v>
-      </c>
-      <c r="I29" s="6">
+        <v>5.8695652173913047</v>
+      </c>
+      <c r="I30" s="6">
         <f t="shared" si="0"/>
-        <v>65.13636363636364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+        <v>65.260869565217391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3">
-        <v>28</v>
-      </c>
-      <c r="E32" s="3">
-        <v>20</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3">
-        <v>13</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="4">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f>A32+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" ref="A34:A36" si="1">A33+1</f>
-        <v>3</v>
+        <f>A33+1</f>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I34" s="4">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="A35:A37" si="1">A34+1</f>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H35" s="3">
         <v>6</v>
       </c>
       <c r="I35" s="4">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E36" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F36" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" s="3">
         <v>10</v>
       </c>
       <c r="H36" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F37" s="3">
         <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H37" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>7</v>
+      <c r="A38" s="2">
+        <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="3">
         <v>12</v>
       </c>
       <c r="F38" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
       </c>
       <c r="H38" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>8</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="3">
+        <v>23</v>
+      </c>
+      <c r="E40" s="3">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3">
         <v>22</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E41" s="3">
         <v>11</v>
       </c>
-      <c r="F39" s="3">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>7</v>
       </c>
-      <c r="H39" s="3">
-        <v>5</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" ref="D41:I41" si="2">AVERAGE(D32:D40)</f>
-        <v>25.25</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="2"/>
-        <v>14.25</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="2"/>
-        <v>5.375</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="2"/>
-        <v>10.75</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="2"/>
-        <v>5.75</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="2"/>
-        <v>61.375</v>
-      </c>
-    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" ref="D43:I43" si="2">AVERAGE(D33:D42)</f>
+        <v>25.444444444444443</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="2"/>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="2"/>
+        <v>62.111111111111114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="3">
-        <v>29</v>
-      </c>
-      <c r="E44" s="3">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>15</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8</v>
-      </c>
-      <c r="I44" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="3">
-        <v>29</v>
-      </c>
-      <c r="E45" s="3">
-        <v>20</v>
-      </c>
-      <c r="F45" s="3">
-        <v>6</v>
-      </c>
-      <c r="G45" s="3">
-        <v>13</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7</v>
-      </c>
-      <c r="I45" s="4">
-        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F46" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H46" s="3">
         <v>8</v>
       </c>
       <c r="I46" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F47" s="3">
+        <v>6</v>
+      </c>
+      <c r="G47" s="3">
+        <v>13</v>
+      </c>
+      <c r="H47" s="3">
         <v>7</v>
       </c>
-      <c r="G47" s="3">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5</v>
-      </c>
       <c r="I47" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3">
+        <v>16</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>13</v>
       </c>
-      <c r="F48" s="3">
-        <v>7</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11</v>
-      </c>
       <c r="H48" s="3">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>4</v>
       </c>
-      <c r="I48" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
       <c r="B49" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>18</v>
@@ -2165,226 +2168,256 @@
         <v>15</v>
       </c>
       <c r="F49" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H49" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I49" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>7</v>
+      <c r="A50" s="2">
+        <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E50" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H50" s="3">
         <v>4</v>
       </c>
       <c r="I50" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="3">
+        <v>15</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4</v>
+      </c>
+      <c r="I52" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="5">
-        <f t="shared" ref="D52:I52" si="3">AVERAGE(D44:D51)</f>
+      <c r="D54" s="5">
+        <f t="shared" ref="D54:I54" si="3">AVERAGE(D46:D53)</f>
         <v>25.857142857142858</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <f t="shared" si="3"/>
         <v>15.857142857142858</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F54" s="5">
         <f t="shared" si="3"/>
         <v>6.2857142857142856</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G54" s="5">
         <f t="shared" si="3"/>
         <v>11.857142857142858</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H54" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I54" s="6">
         <f t="shared" si="3"/>
         <v>65.857142857142861</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="F56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="3">
-        <v>26</v>
-      </c>
-      <c r="E55" s="3">
-        <v>16</v>
-      </c>
-      <c r="F55" s="3">
-        <v>6</v>
-      </c>
-      <c r="G55" s="3">
-        <v>10</v>
-      </c>
-      <c r="H55" s="3">
-        <v>6</v>
-      </c>
-      <c r="I55" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <f>A55+1</f>
-        <v>2</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="3">
-        <v>21</v>
-      </c>
-      <c r="E56" s="3">
-        <v>16</v>
-      </c>
-      <c r="F56" s="3">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3">
-        <v>13</v>
-      </c>
-      <c r="H56" s="3">
-        <v>4</v>
-      </c>
-      <c r="I56" s="4">
-        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <f t="shared" ref="A57:A59" si="4">A56+1</f>
-        <v>3</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="3">
+        <v>26</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>6</v>
+      </c>
+      <c r="I57" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <f t="shared" si="4"/>
+        <f>A57+1</f>
+        <v>2</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="3">
+        <v>21</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13</v>
+      </c>
+      <c r="H58" s="3">
         <v>4</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" ref="A59:A61" si="4">A58+1</f>
+        <v>3</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2396,7 +2429,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2407,173 +2443,170 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="5">
-        <f>AVERAGE(D55:D60)</f>
-        <v>23.5</v>
-      </c>
-      <c r="E61" s="5">
-        <f t="shared" ref="E61" si="5">AVERAGE(E55:E60)</f>
-        <v>16</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" ref="F61" si="6">AVERAGE(F55:F60)</f>
-        <v>6</v>
-      </c>
-      <c r="G61" s="5">
-        <f t="shared" ref="G61" si="7">AVERAGE(G55:G60)</f>
-        <v>11.5</v>
-      </c>
-      <c r="H61" s="5">
-        <f t="shared" ref="H61" si="8">AVERAGE(H55:H60)</f>
-        <v>5</v>
-      </c>
-      <c r="I61" s="6">
-        <f t="shared" ref="I61" si="9">AVERAGE(I55:I60)</f>
-        <v>62</v>
-      </c>
+      <c r="A61" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5">
+        <f>AVERAGE(D57:D62)</f>
+        <v>23.5</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" ref="E63" si="5">AVERAGE(E57:E62)</f>
+        <v>16</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" ref="F63" si="6">AVERAGE(F57:F62)</f>
+        <v>6</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" ref="G63" si="7">AVERAGE(G57:G62)</f>
+        <v>11.5</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" ref="H63" si="8">AVERAGE(H57:H62)</f>
+        <v>5</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" ref="I63" si="9">AVERAGE(I57:I62)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="F65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="3">
-        <v>28</v>
-      </c>
-      <c r="E64" s="3">
-        <v>24</v>
-      </c>
-      <c r="F64" s="3">
-        <v>9</v>
-      </c>
-      <c r="G64" s="3">
-        <v>15</v>
-      </c>
-      <c r="H64" s="3">
-        <v>9</v>
-      </c>
-      <c r="I64" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <f>A64+1</f>
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="3">
-        <v>24</v>
-      </c>
-      <c r="E65" s="3">
-        <v>17</v>
-      </c>
-      <c r="F65" s="3">
-        <v>8</v>
-      </c>
-      <c r="G65" s="3">
-        <v>13</v>
-      </c>
-      <c r="H65" s="3">
-        <v>5</v>
-      </c>
-      <c r="I65" s="4">
-        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <f t="shared" ref="A66:A68" si="10">A65+1</f>
-        <v>3</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="3">
+        <v>28</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9</v>
+      </c>
+      <c r="G66" s="3">
+        <v>15</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9</v>
+      </c>
+      <c r="I66" s="4">
+        <v>85</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
+        <f>A66+1</f>
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="3">
+        <v>24</v>
+      </c>
+      <c r="E67" s="3">
+        <v>17</v>
+      </c>
+      <c r="F67" s="3">
+        <v>8</v>
+      </c>
+      <c r="G67" s="3">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3">
+        <v>5</v>
+      </c>
+      <c r="I67" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" ref="A68:A70" si="10">A67+1</f>
+        <v>3</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2585,7 +2618,10 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2596,201 +2632,201 @@
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="5">
-        <f>AVERAGE(D64:D69)</f>
-        <v>26</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" ref="E70" si="11">AVERAGE(E64:E69)</f>
-        <v>20.5</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" ref="F70" si="12">AVERAGE(F64:F69)</f>
-        <v>8.5</v>
-      </c>
-      <c r="G70" s="5">
-        <f t="shared" ref="G70" si="13">AVERAGE(G64:G69)</f>
-        <v>14</v>
-      </c>
-      <c r="H70" s="5">
-        <f t="shared" ref="H70" si="14">AVERAGE(H64:H69)</f>
-        <v>7</v>
-      </c>
-      <c r="I70" s="6">
-        <f t="shared" ref="I70" si="15">AVERAGE(I64:I69)</f>
-        <v>76</v>
-      </c>
+      <c r="A70" s="2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="5">
+        <f>AVERAGE(D66:D71)</f>
+        <v>26</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" ref="E72" si="11">AVERAGE(E66:E71)</f>
+        <v>20.5</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" ref="F72" si="12">AVERAGE(F66:F71)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" ref="G72" si="13">AVERAGE(G66:G71)</f>
+        <v>14</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" ref="H72" si="14">AVERAGE(H66:H71)</f>
+        <v>7</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" ref="I72" si="15">AVERAGE(I66:I71)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="F74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="3">
-        <v>29</v>
-      </c>
-      <c r="E73" s="3">
-        <v>16</v>
-      </c>
-      <c r="F73" s="3">
-        <v>9</v>
-      </c>
-      <c r="G73" s="3">
-        <v>16</v>
-      </c>
-      <c r="H73" s="3">
-        <v>7</v>
-      </c>
-      <c r="I73" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <f>A73+1</f>
-        <v>2</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="3">
-        <v>28</v>
-      </c>
-      <c r="E74" s="3">
-        <v>16</v>
-      </c>
-      <c r="F74" s="3">
-        <v>9</v>
-      </c>
-      <c r="G74" s="3">
-        <v>16</v>
-      </c>
-      <c r="H74" s="3">
-        <v>7</v>
-      </c>
-      <c r="I74" s="4">
-        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <f t="shared" ref="A75:A77" si="16">A74+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D75" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E75" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G75" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H75" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I75" s="4">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
+        <f>A75+1</f>
+        <v>2</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="3">
+        <v>28</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16</v>
+      </c>
+      <c r="F76" s="3">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3">
+        <v>16</v>
+      </c>
+      <c r="H76" s="3">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f t="shared" ref="A77:A79" si="16">A76+1</f>
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="3">
+        <v>21</v>
+      </c>
+      <c r="E77" s="3">
+        <v>15</v>
+      </c>
+      <c r="F77" s="3">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>9</v>
+      </c>
+      <c r="H77" s="3">
+        <v>3</v>
+      </c>
+      <c r="I77" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2801,52 +2837,77 @@
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="9">
-        <f>AVERAGE(D73:D78)</f>
+      <c r="D81" s="9">
+        <f>AVERAGE(D75:D80)</f>
         <v>26</v>
       </c>
-      <c r="E79" s="9">
-        <f t="shared" ref="E79" si="17">AVERAGE(E73:E78)</f>
+      <c r="E81" s="9">
+        <f t="shared" ref="E81" si="17">AVERAGE(E75:E80)</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="F79" s="9">
-        <f t="shared" ref="F79" si="18">AVERAGE(F73:F78)</f>
+      <c r="F81" s="9">
+        <f t="shared" ref="F81" si="18">AVERAGE(F75:F80)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G79" s="9">
-        <f t="shared" ref="G79" si="19">AVERAGE(G73:G78)</f>
+      <c r="G81" s="9">
+        <f t="shared" ref="G81" si="19">AVERAGE(G75:G80)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="H79" s="9">
-        <f t="shared" ref="H79" si="20">AVERAGE(H73:H78)</f>
+      <c r="H81" s="9">
+        <f t="shared" ref="H81" si="20">AVERAGE(H75:H80)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="I79" s="10">
-        <f t="shared" ref="I79" si="21">AVERAGE(I73:I78)</f>
+      <c r="I81" s="10">
+        <f t="shared" ref="I81" si="21">AVERAGE(I75:I80)</f>
         <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I27">
-    <sortCondition descending="1" ref="I6:I27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I28">
+    <sortCondition descending="1" ref="I6:I28"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A73:I73"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brudz\Desktop\Scores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303167F8-01B4-4EAA-A7F6-93614A44C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D594B-C6AC-4894-9808-309E8256AA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
   <si>
     <t>Switch Name</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>TTC Gold Pink</t>
+  </si>
+  <si>
+    <t>C3 Macho</t>
+  </si>
+  <si>
+    <t>Seriko</t>
+  </si>
+  <si>
+    <t>Aliaz (80g)</t>
   </si>
 </sst>
 </file>
@@ -848,21 +857,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="18" t="s">
         <v>9</v>
@@ -874,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
@@ -885,7 +896,7 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -898,7 +909,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -911,7 +922,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -924,7 +935,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -954,7 +965,7 @@
       </c>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -983,7 +994,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1070,53 +1081,53 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3">
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
       </c>
       <c r="I10" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
         <v>13</v>
@@ -1128,56 +1139,56 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="I12" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>27</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
         <v>16</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8</v>
-      </c>
-      <c r="I12" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>13</v>
       </c>
       <c r="H13" s="3">
         <v>8</v>
@@ -1186,172 +1197,172 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>25</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>15</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>12</v>
       </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10</v>
-      </c>
       <c r="H17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>28</v>
       </c>
       <c r="E19" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3">
         <v>4</v>
@@ -1360,453 +1371,450 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I20" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3">
         <v>6</v>
       </c>
       <c r="I21" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="3">
         <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" s="3">
         <v>5</v>
       </c>
       <c r="I27" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E28" s="3">
         <v>12</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="3">
         <v>10</v>
       </c>
       <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="I28" s="4">
+      <c r="G29" s="3">
+        <v>9</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="11" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="5">
-        <f>AVERAGE(D6:D29)</f>
-        <v>25.521739130434781</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30:I30" si="0">AVERAGE(E6:E29)</f>
-        <v>15.652173913043478</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="D33" s="5">
+        <f>AVERAGE(D6:D32)</f>
+        <v>25.615384615384617</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33:I33" si="0">AVERAGE(E6:E32)</f>
+        <v>15.73076923076923</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>6.2608695652173916</v>
-      </c>
-      <c r="G30" s="5">
+        <v>6.1923076923076925</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="0"/>
-        <v>11.956521739130435</v>
-      </c>
-      <c r="H30" s="5">
+        <v>11.846153846153847</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>5.8695652173913047</v>
-      </c>
-      <c r="I30" s="6">
+        <v>5.884615384615385</v>
+      </c>
+      <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>65.260869565217391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+        <v>65.269230769230774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="3">
-        <v>28</v>
-      </c>
-      <c r="E33" s="3">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3">
-        <v>7</v>
-      </c>
-      <c r="G33" s="3">
-        <v>13</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7</v>
-      </c>
-      <c r="I33" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <f>A33+1</f>
-        <v>2</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3">
-        <v>27</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3">
-        <v>6</v>
-      </c>
-      <c r="G34" s="3">
-        <v>16</v>
-      </c>
-      <c r="H34" s="3">
-        <v>8</v>
-      </c>
-      <c r="I34" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <f t="shared" ref="A35:A37" si="1">A34+1</f>
-        <v>3</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3">
-        <v>27</v>
-      </c>
-      <c r="E35" s="3">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3">
-        <v>6</v>
-      </c>
-      <c r="G35" s="3">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3">
-        <v>6</v>
-      </c>
-      <c r="I35" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -1815,121 +1823,120 @@
         <v>28</v>
       </c>
       <c r="E36" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I36" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H37" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I37" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E38" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" s="3">
         <v>6</v>
       </c>
       <c r="G38" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H38" s="3">
         <v>6</v>
       </c>
       <c r="I38" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>7</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4</v>
+      </c>
+      <c r="I39" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E39" s="3">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3">
-        <v>8</v>
-      </c>
-      <c r="H39" s="3">
-        <v>5</v>
-      </c>
-      <c r="I39" s="4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E40" s="3">
         <v>12</v>
@@ -1938,976 +1945,1124 @@
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H40" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>9</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
+        <v>26</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="3">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3">
+        <v>23</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
         <v>22</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E45" s="3">
         <v>11</v>
       </c>
-      <c r="F41" s="3">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>7</v>
       </c>
-      <c r="H41" s="3">
-        <v>5</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="5">
-        <f t="shared" ref="D43:I43" si="2">AVERAGE(D33:D42)</f>
-        <v>25.444444444444443</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="2"/>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="2"/>
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="2"/>
-        <v>5.7777777777777777</v>
-      </c>
-      <c r="I43" s="6">
-        <f t="shared" si="2"/>
-        <v>62.111111111111114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="D47" s="5">
+        <f t="shared" ref="D47:I47" si="1">AVERAGE(D36:D46)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>14.3</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>1</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="3">
-        <v>29</v>
-      </c>
-      <c r="E46" s="3">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>15</v>
-      </c>
-      <c r="H46" s="3">
-        <v>8</v>
-      </c>
-      <c r="I46" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="3">
-        <v>29</v>
-      </c>
-      <c r="E47" s="3">
-        <v>20</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6</v>
-      </c>
-      <c r="G47" s="3">
-        <v>13</v>
-      </c>
-      <c r="H47" s="3">
-        <v>7</v>
-      </c>
-      <c r="I47" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="3">
-        <v>30</v>
-      </c>
-      <c r="E48" s="3">
-        <v>16</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13</v>
-      </c>
-      <c r="H48" s="3">
-        <v>8</v>
-      </c>
-      <c r="I48" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="3">
-        <v>25</v>
-      </c>
-      <c r="E49" s="3">
-        <v>15</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7</v>
-      </c>
-      <c r="G49" s="3">
-        <v>12</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5</v>
-      </c>
-      <c r="I49" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>5</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E50" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H50" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I50" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>6</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E51" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F51" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H51" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>7</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="3">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8</v>
+      </c>
+      <c r="I52" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="3">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3">
         <v>15</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F53" s="3">
+        <v>7</v>
+      </c>
+      <c r="G53" s="3">
         <v>12</v>
       </c>
-      <c r="F52" s="3">
-        <v>6</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H53" s="3">
+        <v>5</v>
+      </c>
+      <c r="I53" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3">
+        <v>28</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4</v>
+      </c>
+      <c r="I54" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
+        <v>15</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3">
+        <v>6</v>
+      </c>
+      <c r="I55" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="3">
+        <v>15</v>
+      </c>
+      <c r="E56" s="3">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3">
+        <v>6</v>
+      </c>
+      <c r="G56" s="3">
         <v>10</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H56" s="3">
         <v>4</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I56" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" ref="D54:I54" si="3">AVERAGE(D46:D53)</f>
+      <c r="D58" s="5">
+        <f t="shared" ref="D58:I58" si="2">AVERAGE(D50:D57)</f>
         <v>25.857142857142858</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E58" s="5">
+        <f t="shared" si="2"/>
+        <v>15.857142857142858</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="2"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="2"/>
+        <v>65.857142857142861</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="3">
+        <v>29</v>
+      </c>
+      <c r="E61" s="3">
+        <v>21</v>
+      </c>
+      <c r="F61" s="3">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3">
+        <v>12</v>
+      </c>
+      <c r="H61" s="3">
+        <v>7</v>
+      </c>
+      <c r="I61" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f>A61+1</f>
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="3">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6</v>
+      </c>
+      <c r="I62" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f t="shared" ref="A63:A65" si="3">A62+1</f>
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="3">
+        <v>21</v>
+      </c>
+      <c r="E63" s="3">
+        <v>16</v>
+      </c>
+      <c r="F63" s="3">
+        <v>6</v>
+      </c>
+      <c r="G63" s="3">
+        <v>13</v>
+      </c>
+      <c r="H63" s="3">
+        <v>4</v>
+      </c>
+      <c r="I63" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <f t="shared" si="3"/>
-        <v>15.857142857142858</v>
-      </c>
-      <c r="F54" s="5">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <f t="shared" si="3"/>
-        <v>6.2857142857142856</v>
-      </c>
-      <c r="G54" s="5">
-        <f t="shared" si="3"/>
-        <v>11.857142857142858</v>
-      </c>
-      <c r="H54" s="5">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I54" s="6">
-        <f t="shared" si="3"/>
-        <v>65.857142857142861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5">
+        <f>AVERAGE(D61:D66)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" ref="E67" si="4">AVERAGE(E61:E66)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" ref="F67" si="5">AVERAGE(F61:F66)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" ref="G67" si="6">AVERAGE(G61:G66)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" ref="H67" si="7">AVERAGE(H61:H66)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" ref="I67" si="8">AVERAGE(I61:I66)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="3">
+        <v>28</v>
+      </c>
+      <c r="E70" s="3">
+        <v>24</v>
+      </c>
+      <c r="F70" s="3">
+        <v>9</v>
+      </c>
+      <c r="G70" s="3">
         <v>15</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="H70" s="3">
+        <v>9</v>
+      </c>
+      <c r="I70" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <f>A70+1</f>
+        <v>2</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="3">
+        <v>24</v>
+      </c>
+      <c r="E71" s="3">
+        <v>17</v>
+      </c>
+      <c r="F71" s="3">
+        <v>8</v>
+      </c>
+      <c r="G71" s="3">
+        <v>13</v>
+      </c>
+      <c r="H71" s="3">
+        <v>5</v>
+      </c>
+      <c r="I71" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <f t="shared" ref="A72:A74" si="9">A71+1</f>
+        <v>3</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="3">
+        <v>24</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>11</v>
+      </c>
+      <c r="H72" s="3">
+        <v>6</v>
+      </c>
+      <c r="I72" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="5">
+        <f>AVERAGE(D70:D75)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" ref="E76" si="10">AVERAGE(E70:E75)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" ref="F76" si="11">AVERAGE(F70:F75)</f>
+        <v>7</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" ref="G76" si="12">AVERAGE(G70:G75)</f>
+        <v>13</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" ref="H76" si="13">AVERAGE(H70:H75)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" ref="I76" si="14">AVERAGE(I70:I75)</f>
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="F78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>1</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="B79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="3">
+        <v>29</v>
+      </c>
+      <c r="E79" s="3">
+        <v>16</v>
+      </c>
+      <c r="F79" s="3">
+        <v>9</v>
+      </c>
+      <c r="G79" s="3">
+        <v>16</v>
+      </c>
+      <c r="H79" s="3">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <f>A79+1</f>
+        <v>2</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="3">
+        <v>28</v>
+      </c>
+      <c r="E80" s="3">
+        <v>16</v>
+      </c>
+      <c r="F80" s="3">
+        <v>9</v>
+      </c>
+      <c r="G80" s="3">
+        <v>16</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <f t="shared" ref="A81:A83" si="15">A80+1</f>
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="3">
+        <v>21</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>9</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3</v>
+      </c>
+      <c r="I81" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="9">
+        <f>AVERAGE(D79:D84)</f>
         <v>26</v>
       </c>
-      <c r="E57" s="3">
-        <v>16</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6</v>
-      </c>
-      <c r="I57" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <f>A57+1</f>
-        <v>2</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="3">
-        <v>21</v>
-      </c>
-      <c r="E58" s="3">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6</v>
-      </c>
-      <c r="G58" s="3">
-        <v>13</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4</v>
-      </c>
-      <c r="I58" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <f t="shared" ref="A59:A61" si="4">A58+1</f>
-        <v>3</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="5">
-        <f>AVERAGE(D57:D62)</f>
-        <v>23.5</v>
-      </c>
-      <c r="E63" s="5">
-        <f t="shared" ref="E63" si="5">AVERAGE(E57:E62)</f>
-        <v>16</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" ref="F63" si="6">AVERAGE(F57:F62)</f>
-        <v>6</v>
-      </c>
-      <c r="G63" s="5">
-        <f t="shared" ref="G63" si="7">AVERAGE(G57:G62)</f>
-        <v>11.5</v>
-      </c>
-      <c r="H63" s="5">
-        <f t="shared" ref="H63" si="8">AVERAGE(H57:H62)</f>
-        <v>5</v>
-      </c>
-      <c r="I63" s="6">
-        <f t="shared" ref="I63" si="9">AVERAGE(I57:I62)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="3">
-        <v>28</v>
-      </c>
-      <c r="E66" s="3">
-        <v>24</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9</v>
-      </c>
-      <c r="G66" s="3">
-        <v>15</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9</v>
-      </c>
-      <c r="I66" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <f>A66+1</f>
-        <v>2</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="3">
-        <v>24</v>
-      </c>
-      <c r="E67" s="3">
-        <v>17</v>
-      </c>
-      <c r="F67" s="3">
-        <v>8</v>
-      </c>
-      <c r="G67" s="3">
-        <v>13</v>
-      </c>
-      <c r="H67" s="3">
-        <v>5</v>
-      </c>
-      <c r="I67" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <f t="shared" ref="A68:A70" si="10">A67+1</f>
-        <v>3</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="5">
-        <f>AVERAGE(D66:D71)</f>
-        <v>26</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" ref="E72" si="11">AVERAGE(E66:E71)</f>
-        <v>20.5</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" ref="F72" si="12">AVERAGE(F66:F71)</f>
-        <v>8.5</v>
-      </c>
-      <c r="G72" s="5">
-        <f t="shared" ref="G72" si="13">AVERAGE(G66:G71)</f>
-        <v>14</v>
-      </c>
-      <c r="H72" s="5">
-        <f t="shared" ref="H72" si="14">AVERAGE(H66:H71)</f>
-        <v>7</v>
-      </c>
-      <c r="I72" s="6">
-        <f t="shared" ref="I72" si="15">AVERAGE(I66:I71)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>1</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="3">
-        <v>29</v>
-      </c>
-      <c r="E75" s="3">
-        <v>16</v>
-      </c>
-      <c r="F75" s="3">
-        <v>9</v>
-      </c>
-      <c r="G75" s="3">
-        <v>16</v>
-      </c>
-      <c r="H75" s="3">
-        <v>7</v>
-      </c>
-      <c r="I75" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <f>A75+1</f>
-        <v>2</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="3">
-        <v>28</v>
-      </c>
-      <c r="E76" s="3">
-        <v>16</v>
-      </c>
-      <c r="F76" s="3">
-        <v>9</v>
-      </c>
-      <c r="G76" s="3">
-        <v>16</v>
-      </c>
-      <c r="H76" s="3">
-        <v>7</v>
-      </c>
-      <c r="I76" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <f t="shared" ref="A77:A79" si="16">A76+1</f>
-        <v>3</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="3">
-        <v>21</v>
-      </c>
-      <c r="E77" s="3">
-        <v>15</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4</v>
-      </c>
-      <c r="G77" s="3">
-        <v>9</v>
-      </c>
-      <c r="H77" s="3">
-        <v>3</v>
-      </c>
-      <c r="I77" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="9">
-        <f>AVERAGE(D75:D80)</f>
-        <v>26</v>
-      </c>
-      <c r="E81" s="9">
-        <f t="shared" ref="E81" si="17">AVERAGE(E75:E80)</f>
+      <c r="E85" s="9">
+        <f t="shared" ref="E85" si="16">AVERAGE(E79:E84)</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="F81" s="9">
-        <f t="shared" ref="F81" si="18">AVERAGE(F75:F80)</f>
+      <c r="F85" s="9">
+        <f t="shared" ref="F85" si="17">AVERAGE(F79:F84)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G81" s="9">
-        <f t="shared" ref="G81" si="19">AVERAGE(G75:G80)</f>
+      <c r="G85" s="9">
+        <f t="shared" ref="G85" si="18">AVERAGE(G79:G84)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="H81" s="9">
-        <f t="shared" ref="H81" si="20">AVERAGE(H75:H80)</f>
+      <c r="H85" s="9">
+        <f t="shared" ref="H85" si="19">AVERAGE(H79:H84)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="I81" s="10">
-        <f t="shared" ref="I81" si="21">AVERAGE(I75:I80)</f>
+      <c r="I85" s="10">
+        <f t="shared" ref="I85" si="20">AVERAGE(I79:I84)</f>
         <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I28">
-    <sortCondition descending="1" ref="I6:I28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I31">
+    <sortCondition descending="1" ref="I6:I31"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A77:I77"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A48:I48"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D594B-C6AC-4894-9808-309E8256AA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BC705-4DAC-49F5-9D99-2F22C017F86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
   <si>
     <t>Switch Name</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>Aliaz (80g)</t>
+  </si>
+  <si>
+    <t>Varmilo EC V2 Rose</t>
+  </si>
+  <si>
+    <t>Varmilo EC V2 Sakura</t>
+  </si>
+  <si>
+    <t>Varmilo EC V2 Daisy</t>
   </si>
 </sst>
 </file>
@@ -857,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="15">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
@@ -1547,60 +1556,60 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
         <v>12</v>
       </c>
-      <c r="F26" s="3">
-        <v>6</v>
-      </c>
-      <c r="G26" s="3">
-        <v>10</v>
-      </c>
       <c r="H26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3">
         <v>5</v>
       </c>
       <c r="I27" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1608,57 +1617,57 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3">
         <v>12</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
         <v>10</v>
       </c>
       <c r="H28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,28 +1675,28 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F30" s="3">
         <v>5</v>
       </c>
       <c r="G30" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" s="3">
         <v>5</v>
       </c>
       <c r="I30" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1695,213 +1704,213 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E31" s="3">
         <v>12</v>
       </c>
       <c r="F31" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3">
         <v>10</v>
       </c>
       <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
         <v>4</v>
       </c>
-      <c r="I31" s="4">
+      <c r="G32" s="3">
+        <v>9</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="11" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="5">
-        <f>AVERAGE(D6:D32)</f>
-        <v>25.615384615384617</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" ref="E33:I33" si="0">AVERAGE(E6:E32)</f>
-        <v>15.73076923076923</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="D36" s="5">
+        <f>AVERAGE(D6:D35)</f>
+        <v>25.344827586206897</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" ref="E36:I36" si="0">AVERAGE(E6:E35)</f>
+        <v>15.482758620689655</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="0"/>
-        <v>6.1923076923076925</v>
-      </c>
-      <c r="G33" s="5">
+        <v>6.068965517241379</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="0"/>
-        <v>11.846153846153847</v>
-      </c>
-      <c r="H33" s="5">
+        <v>11.896551724137931</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" si="0"/>
-        <v>5.884615384615385</v>
-      </c>
-      <c r="I33" s="6">
+        <v>5.7931034482758621</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="0"/>
-        <v>65.269230769230774</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+        <v>64.58620689655173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3">
-        <v>28</v>
-      </c>
-      <c r="E36" s="3">
-        <v>20</v>
-      </c>
-      <c r="F36" s="3">
-        <v>7</v>
-      </c>
-      <c r="G36" s="3">
-        <v>13</v>
-      </c>
-      <c r="H36" s="3">
-        <v>7</v>
-      </c>
-      <c r="I36" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="3">
-        <v>27</v>
-      </c>
-      <c r="E37" s="3">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>6</v>
-      </c>
-      <c r="G37" s="3">
-        <v>16</v>
-      </c>
-      <c r="H37" s="3">
-        <v>8</v>
-      </c>
-      <c r="I37" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="3">
-        <v>27</v>
-      </c>
-      <c r="E38" s="3">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3">
-        <v>14</v>
-      </c>
-      <c r="H38" s="3">
-        <v>6</v>
-      </c>
-      <c r="I38" s="4">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
@@ -1910,155 +1919,155 @@
         <v>28</v>
       </c>
       <c r="E39" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F39" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G39" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H39" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I39" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I40" s="4">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" s="3">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6</v>
+      </c>
+      <c r="G41" s="3">
         <v>14</v>
       </c>
-      <c r="F41" s="3">
-        <v>6</v>
-      </c>
-      <c r="G41" s="3">
-        <v>10</v>
-      </c>
       <c r="H41" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>7</v>
+      <c r="A42" s="2">
+        <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E42" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F42" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>10</v>
       </c>
       <c r="H42" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>8</v>
+      <c r="A43" s="2">
+        <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E43" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" s="3">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>9</v>
+      <c r="A44" s="2">
+        <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E44" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="3">
         <v>10</v>
@@ -2067,462 +2076,489 @@
         <v>5</v>
       </c>
       <c r="I44" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
+        <v>23</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3">
+        <v>23</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6</v>
+      </c>
+      <c r="G47" s="3">
         <v>10</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="H47" s="3">
+        <v>6</v>
+      </c>
+      <c r="I47" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>9</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3">
+        <v>23</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>11</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3">
+        <v>24</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5</v>
+      </c>
+      <c r="I49" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="3">
+        <v>23</v>
+      </c>
+      <c r="E50" s="3">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3">
+        <v>5</v>
+      </c>
+      <c r="I50" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="3">
         <v>22</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E51" s="3">
         <v>11</v>
       </c>
-      <c r="F45" s="3">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F51" s="3">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3">
         <v>7</v>
       </c>
-      <c r="H45" s="3">
-        <v>5</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="H51" s="3">
+        <v>5</v>
+      </c>
+      <c r="I51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" ref="D47:I47" si="1">AVERAGE(D36:D46)</f>
-        <v>25.5</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="1"/>
-        <v>14.3</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7</v>
-      </c>
-      <c r="I47" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="D53" s="5">
+        <f>AVERAGE(D39:D52)</f>
+        <v>24.923076923076923</v>
+      </c>
+      <c r="E53" s="5">
+        <f>AVERAGE(E39:E52)</f>
+        <v>14.076923076923077</v>
+      </c>
+      <c r="F53" s="5">
+        <f>AVERAGE(F39:F52)</f>
+        <v>5.384615384615385</v>
+      </c>
+      <c r="G53" s="5">
+        <f>AVERAGE(G39:G52)</f>
+        <v>11.307692307692308</v>
+      </c>
+      <c r="H53" s="5">
+        <f>AVERAGE(H39:H52)</f>
+        <v>5.5384615384615383</v>
+      </c>
+      <c r="I53" s="6">
+        <f>AVERAGE(I39:I52)</f>
+        <v>61.230769230769234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>1</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="3">
-        <v>29</v>
-      </c>
-      <c r="E50" s="3">
-        <v>20</v>
-      </c>
-      <c r="F50" s="3">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3">
-        <v>15</v>
-      </c>
-      <c r="H50" s="3">
-        <v>8</v>
-      </c>
-      <c r="I50" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="3">
-        <v>29</v>
-      </c>
-      <c r="E51" s="3">
-        <v>20</v>
-      </c>
-      <c r="F51" s="3">
-        <v>6</v>
-      </c>
-      <c r="G51" s="3">
-        <v>13</v>
-      </c>
-      <c r="H51" s="3">
-        <v>7</v>
-      </c>
-      <c r="I51" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="3">
-        <v>30</v>
-      </c>
-      <c r="E52" s="3">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>13</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8</v>
-      </c>
-      <c r="I52" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="3">
-        <v>25</v>
-      </c>
-      <c r="E53" s="3">
-        <v>15</v>
-      </c>
-      <c r="F53" s="3">
-        <v>7</v>
-      </c>
-      <c r="G53" s="3">
-        <v>12</v>
-      </c>
-      <c r="H53" s="3">
-        <v>5</v>
-      </c>
-      <c r="I53" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>5</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="3">
-        <v>28</v>
-      </c>
-      <c r="E54" s="3">
-        <v>13</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7</v>
-      </c>
-      <c r="G54" s="3">
-        <v>11</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4</v>
-      </c>
-      <c r="I54" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>6</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="3">
-        <v>25</v>
-      </c>
-      <c r="E55" s="3">
-        <v>15</v>
-      </c>
-      <c r="F55" s="3">
-        <v>5</v>
-      </c>
-      <c r="G55" s="3">
-        <v>9</v>
-      </c>
-      <c r="H55" s="3">
-        <v>6</v>
-      </c>
-      <c r="I55" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>7</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="3">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3">
+        <v>8</v>
+      </c>
+      <c r="G56" s="3">
         <v>15</v>
       </c>
-      <c r="E56" s="3">
+      <c r="H56" s="3">
+        <v>8</v>
+      </c>
+      <c r="I56" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="3">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7</v>
+      </c>
+      <c r="I57" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="3">
+        <v>30</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8</v>
+      </c>
+      <c r="I58" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="3">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7</v>
+      </c>
+      <c r="G59" s="3">
         <v>12</v>
       </c>
-      <c r="F56" s="3">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3">
-        <v>10</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="H59" s="3">
+        <v>5</v>
+      </c>
+      <c r="I59" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="3">
+        <v>28</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13</v>
+      </c>
+      <c r="F60" s="3">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3">
+        <v>11</v>
+      </c>
+      <c r="H60" s="3">
         <v>4</v>
       </c>
-      <c r="I56" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" ref="D58:I58" si="2">AVERAGE(D50:D57)</f>
-        <v>25.857142857142858</v>
-      </c>
-      <c r="E58" s="5">
-        <f t="shared" si="2"/>
-        <v>15.857142857142858</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="2"/>
-        <v>6.2857142857142856</v>
-      </c>
-      <c r="G58" s="5">
-        <f t="shared" si="2"/>
-        <v>11.857142857142858</v>
-      </c>
-      <c r="H58" s="5">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I58" s="6">
-        <f t="shared" si="2"/>
-        <v>65.857142857142861</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="I60" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="3">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3">
         <v>15</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="3" t="s">
+      <c r="F61" s="3">
+        <v>5</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9</v>
+      </c>
+      <c r="H61" s="3">
+        <v>6</v>
+      </c>
+      <c r="I61" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>7</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="3">
-        <v>29</v>
-      </c>
-      <c r="E61" s="3">
-        <v>21</v>
-      </c>
-      <c r="F61" s="3">
-        <v>7</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="B62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3">
+        <v>15</v>
+      </c>
+      <c r="E62" s="3">
         <v>12</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7</v>
-      </c>
-      <c r="I61" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <f>A61+1</f>
-        <v>2</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="3">
-        <v>26</v>
-      </c>
-      <c r="E62" s="3">
-        <v>16</v>
       </c>
       <c r="F62" s="3">
         <v>6</v>
@@ -2531,538 +2567,685 @@
         <v>10</v>
       </c>
       <c r="H62" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I62" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" ref="D64:I64" si="1">AVERAGE(D56:D63)</f>
+        <v>25.857142857142858</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="1"/>
+        <v>15.857142857142858</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="1"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="1"/>
+        <v>65.857142857142861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="3">
+        <v>29</v>
+      </c>
+      <c r="E67" s="3">
+        <v>21</v>
+      </c>
+      <c r="F67" s="3">
+        <v>7</v>
+      </c>
+      <c r="G67" s="3">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7</v>
+      </c>
+      <c r="I67" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f>A67+1</f>
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="3">
+        <v>26</v>
+      </c>
+      <c r="E68" s="3">
+        <v>16</v>
+      </c>
+      <c r="F68" s="3">
+        <v>6</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3">
+        <v>6</v>
+      </c>
+      <c r="I68" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <f t="shared" ref="A63:A65" si="3">A62+1</f>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f t="shared" ref="A69:A71" si="2">A68+1</f>
         <v>3</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D69" s="3">
         <v>21</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E69" s="3">
         <v>16</v>
       </c>
-      <c r="F63" s="3">
-        <v>6</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="F69" s="3">
+        <v>6</v>
+      </c>
+      <c r="G69" s="3">
         <v>13</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H69" s="3">
         <v>4</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I69" s="4">
         <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="5">
-        <f>AVERAGE(D61:D66)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E67" s="5">
-        <f t="shared" ref="E67" si="4">AVERAGE(E61:E66)</f>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="F67" s="5">
-        <f t="shared" ref="F67" si="5">AVERAGE(F61:F66)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G67" s="5">
-        <f t="shared" ref="G67" si="6">AVERAGE(G61:G66)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H67" s="5">
-        <f t="shared" ref="H67" si="7">AVERAGE(H61:H66)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="I67" s="6">
-        <f t="shared" ref="I67" si="8">AVERAGE(I61:I66)</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="3">
-        <v>28</v>
-      </c>
-      <c r="E70" s="3">
-        <v>24</v>
-      </c>
-      <c r="F70" s="3">
-        <v>9</v>
-      </c>
-      <c r="G70" s="3">
-        <v>15</v>
-      </c>
-      <c r="H70" s="3">
-        <v>9</v>
-      </c>
-      <c r="I70" s="4">
-        <v>85</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <f>A70+1</f>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="5">
+        <f>AVERAGE(D67:D72)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" ref="E73" si="3">AVERAGE(E67:E72)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" ref="F73" si="4">AVERAGE(F67:F72)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" ref="G73" si="5">AVERAGE(G67:G72)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" ref="H73" si="6">AVERAGE(H67:H72)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" ref="I73" si="7">AVERAGE(I67:I72)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="3">
+        <v>28</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24</v>
+      </c>
+      <c r="F76" s="3">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3">
+        <v>9</v>
+      </c>
+      <c r="I76" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <f>A76+1</f>
+        <v>2</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D77" s="3">
         <v>24</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E77" s="3">
         <v>17</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F77" s="3">
         <v>8</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G77" s="3">
         <v>13</v>
       </c>
-      <c r="H71" s="3">
-        <v>5</v>
-      </c>
-      <c r="I71" s="4">
+      <c r="H77" s="3">
+        <v>5</v>
+      </c>
+      <c r="I77" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <f t="shared" ref="A72:A74" si="9">A71+1</f>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <f t="shared" ref="A78:A80" si="8">A77+1</f>
         <v>3</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D78" s="3">
         <v>24</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E78" s="3">
         <v>14</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F78" s="3">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G78" s="3">
         <v>11</v>
       </c>
-      <c r="H72" s="3">
-        <v>6</v>
-      </c>
-      <c r="I72" s="4">
+      <c r="H78" s="3">
+        <v>6</v>
+      </c>
+      <c r="I78" s="4">
         <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="5">
-        <f>AVERAGE(D70:D75)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E76" s="5">
-        <f t="shared" ref="E76" si="10">AVERAGE(E70:E75)</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="F76" s="5">
-        <f t="shared" ref="F76" si="11">AVERAGE(F70:F75)</f>
-        <v>7</v>
-      </c>
-      <c r="G76" s="5">
-        <f t="shared" ref="G76" si="12">AVERAGE(G70:G75)</f>
-        <v>13</v>
-      </c>
-      <c r="H76" s="5">
-        <f t="shared" ref="H76" si="13">AVERAGE(H70:H75)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="I76" s="6">
-        <f t="shared" ref="I76" si="14">AVERAGE(I70:I75)</f>
-        <v>70.333333333333329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="14"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>1</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="3">
-        <v>29</v>
-      </c>
-      <c r="E79" s="3">
-        <v>16</v>
-      </c>
-      <c r="F79" s="3">
-        <v>9</v>
-      </c>
-      <c r="G79" s="3">
-        <v>16</v>
-      </c>
-      <c r="H79" s="3">
-        <v>7</v>
-      </c>
-      <c r="I79" s="4">
-        <v>77</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <f>A79+1</f>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="5">
+        <f>AVERAGE(D76:D81)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" ref="E82" si="9">AVERAGE(E76:E81)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" ref="F82" si="10">AVERAGE(F76:F81)</f>
+        <v>7</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" ref="G82" si="11">AVERAGE(G76:G81)</f>
+        <v>13</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" ref="H82" si="12">AVERAGE(H76:H81)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" ref="I82" si="13">AVERAGE(I76:I81)</f>
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3">
+        <v>29</v>
+      </c>
+      <c r="E85" s="3">
+        <v>16</v>
+      </c>
+      <c r="F85" s="3">
+        <v>9</v>
+      </c>
+      <c r="G85" s="3">
+        <v>16</v>
+      </c>
+      <c r="H85" s="3">
+        <v>7</v>
+      </c>
+      <c r="I85" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <f>A85+1</f>
+        <v>2</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D86" s="3">
         <v>28</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E86" s="3">
         <v>16</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F86" s="3">
         <v>9</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G86" s="3">
         <v>16</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H86" s="3">
         <v>7</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I86" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <f t="shared" ref="A81:A83" si="15">A80+1</f>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <f t="shared" ref="A87:A89" si="14">A86+1</f>
         <v>3</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D87" s="3">
         <v>21</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E87" s="3">
         <v>15</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F87" s="3">
         <v>4</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G87" s="3">
         <v>9</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H87" s="3">
         <v>3</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I87" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <f t="shared" si="15"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D85" s="9">
-        <f>AVERAGE(D79:D84)</f>
+      <c r="D91" s="9">
+        <f>AVERAGE(D85:D90)</f>
         <v>26</v>
       </c>
-      <c r="E85" s="9">
-        <f t="shared" ref="E85" si="16">AVERAGE(E79:E84)</f>
+      <c r="E91" s="9">
+        <f t="shared" ref="E91" si="15">AVERAGE(E85:E90)</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="F85" s="9">
-        <f t="shared" ref="F85" si="17">AVERAGE(F79:F84)</f>
+      <c r="F91" s="9">
+        <f t="shared" ref="F91" si="16">AVERAGE(F85:F90)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G85" s="9">
-        <f t="shared" ref="G85" si="18">AVERAGE(G79:G84)</f>
+      <c r="G91" s="9">
+        <f t="shared" ref="G91" si="17">AVERAGE(G85:G90)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="H85" s="9">
-        <f t="shared" ref="H85" si="19">AVERAGE(H79:H84)</f>
+      <c r="H91" s="9">
+        <f t="shared" ref="H91" si="18">AVERAGE(H85:H90)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="I85" s="10">
-        <f t="shared" ref="I85" si="20">AVERAGE(I79:I84)</f>
+      <c r="I91" s="10">
+        <f t="shared" ref="I91" si="19">AVERAGE(I85:I90)</f>
         <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I31">
-    <sortCondition descending="1" ref="I6:I31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B39:I51">
+    <sortCondition descending="1" ref="I39:I51"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A83:I83"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A54:I54"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BC705-4DAC-49F5-9D99-2F22C017F86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB168E06-B934-4AE9-96E9-5E0E22F32D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
   <si>
     <t>Switch Name</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Varmilo EC V2 Daisy</t>
+  </si>
+  <si>
+    <t>Gateron Keyfirst Cream</t>
+  </si>
+  <si>
+    <t>Crane</t>
+  </si>
+  <si>
+    <t>KTT Cloud Blue</t>
+  </si>
+  <si>
+    <t>KTT Sea Salt</t>
   </si>
 </sst>
 </file>
@@ -866,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,13 +906,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="15">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
@@ -1295,57 +1307,57 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3">
         <v>7</v>
       </c>
       <c r="G17" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10</v>
-      </c>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="4">
         <v>64</v>
@@ -1353,54 +1365,54 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>28</v>
       </c>
       <c r="E20" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3">
         <v>4</v>
@@ -1411,39 +1423,39 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -1458,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3">
         <v>5</v>
       </c>
       <c r="I22" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,28 +1484,28 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3">
         <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1501,28 +1513,28 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3">
         <v>6</v>
       </c>
       <c r="G24" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1530,28 +1542,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25" s="3">
         <v>6</v>
       </c>
       <c r="I25" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1559,54 +1571,54 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4">
         <v>59</v>
@@ -1614,39 +1626,39 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="3">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
         <v>12</v>
       </c>
-      <c r="F28" s="3">
-        <v>6</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10</v>
-      </c>
       <c r="H28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
@@ -1661,13 +1673,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3">
         <v>5</v>
       </c>
       <c r="I29" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1675,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -1684,27 +1696,27 @@
         <v>24</v>
       </c>
       <c r="E30" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
@@ -1713,77 +1725,77 @@
         <v>23</v>
       </c>
       <c r="E31" s="3">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
         <v>12</v>
       </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>10</v>
-      </c>
       <c r="H31" s="3">
         <v>5</v>
       </c>
       <c r="I31" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="3">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
         <v>11</v>
       </c>
-      <c r="F33" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>7</v>
-      </c>
       <c r="H33" s="3">
         <v>5</v>
       </c>
       <c r="I33" s="4">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1791,399 +1803,399 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3">
+        <v>23</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22</v>
+      </c>
+      <c r="E37" s="3">
+        <v>11</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D38" s="3">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E38" s="3">
         <v>12</v>
       </c>
-      <c r="F34" s="3">
-        <v>6</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
         <v>10</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H38" s="3">
         <v>4</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I38" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="11" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="5">
-        <f>AVERAGE(D6:D35)</f>
-        <v>25.344827586206897</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" ref="E36:I36" si="0">AVERAGE(E6:E35)</f>
-        <v>15.482758620689655</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="D40" s="5">
+        <f>AVERAGE(D6:D39)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" ref="E40:I40" si="0">AVERAGE(E6:E39)</f>
+        <v>15.363636363636363</v>
+      </c>
+      <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>6.068965517241379</v>
-      </c>
-      <c r="G36" s="5">
+        <v>5.9393939393939394</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="0"/>
-        <v>11.896551724137931</v>
-      </c>
-      <c r="H36" s="5">
+        <v>11.848484848484848</v>
+      </c>
+      <c r="H40" s="5">
         <f t="shared" si="0"/>
-        <v>5.7931034482758621</v>
-      </c>
-      <c r="I36" s="6">
+        <v>5.7272727272727275</v>
+      </c>
+      <c r="I40" s="6">
         <f t="shared" si="0"/>
-        <v>64.58620689655173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+        <v>64.212121212121218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="3">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3">
-        <v>20</v>
-      </c>
-      <c r="F39" s="3">
-        <v>7</v>
-      </c>
-      <c r="G39" s="3">
-        <v>13</v>
-      </c>
-      <c r="H39" s="3">
-        <v>7</v>
-      </c>
-      <c r="I39" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="3">
-        <v>27</v>
-      </c>
-      <c r="E40" s="3">
-        <v>15</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6</v>
-      </c>
-      <c r="G40" s="3">
-        <v>16</v>
-      </c>
-      <c r="H40" s="3">
-        <v>8</v>
-      </c>
-      <c r="I40" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="3">
-        <v>27</v>
-      </c>
-      <c r="E41" s="3">
-        <v>15</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6</v>
-      </c>
-      <c r="G41" s="3">
-        <v>14</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6</v>
-      </c>
-      <c r="I41" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="3">
-        <v>28</v>
-      </c>
-      <c r="E42" s="3">
-        <v>17</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3">
-        <v>4</v>
-      </c>
-      <c r="I42" s="4">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F43" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I43" s="4">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" s="3">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6</v>
+      </c>
+      <c r="G44" s="3">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8</v>
+      </c>
+      <c r="I44" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
+        <v>27</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6</v>
+      </c>
+      <c r="G45" s="3">
         <v>14</v>
       </c>
-      <c r="F44" s="3">
-        <v>6</v>
-      </c>
-      <c r="G44" s="3">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5</v>
-      </c>
-      <c r="I44" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="H45" s="3">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3">
+        <v>27</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3">
         <v>7</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="3">
-        <v>23</v>
-      </c>
-      <c r="E45" s="3">
-        <v>14</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5</v>
-      </c>
-      <c r="I45" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>7</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="3">
-        <v>23</v>
-      </c>
-      <c r="E46" s="3">
-        <v>13</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5</v>
       </c>
       <c r="G46" s="3">
         <v>13</v>
       </c>
       <c r="H46" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I46" s="4">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>9</v>
+      <c r="A47" s="2">
+        <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F47" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>10</v>
       </c>
       <c r="H47" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>9</v>
+      <c r="A48" s="2">
+        <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E48" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3">
         <v>12</v>
@@ -2192,56 +2204,56 @@
         <v>5</v>
       </c>
       <c r="I48" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E49" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F49" s="3">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H49" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I49" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E50" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F50" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50" s="3">
         <v>10</v>
@@ -2250,525 +2262,547 @@
         <v>5</v>
       </c>
       <c r="I50" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="3">
+        <v>23</v>
+      </c>
+      <c r="E51" s="3">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="3">
+        <v>23</v>
+      </c>
+      <c r="E52" s="3">
         <v>13</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="F52" s="3">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5</v>
+      </c>
+      <c r="I52" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="3">
+        <v>24</v>
+      </c>
+      <c r="E53" s="3">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3">
+        <v>6</v>
+      </c>
+      <c r="G53" s="3">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3">
+        <v>6</v>
+      </c>
+      <c r="I53" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="3">
+        <v>23</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
+        <v>14</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>14</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="3">
+        <v>24</v>
+      </c>
+      <c r="E56" s="3">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>15</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="3">
+        <v>23</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5</v>
+      </c>
+      <c r="I57" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3">
         <v>22</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E58" s="3">
         <v>11</v>
       </c>
-      <c r="F51" s="3">
-        <v>5</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="F58" s="3">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
         <v>7</v>
       </c>
-      <c r="H51" s="3">
-        <v>5</v>
-      </c>
-      <c r="I51" s="4">
+      <c r="H58" s="3">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="5">
-        <f>AVERAGE(D39:D52)</f>
-        <v>24.923076923076923</v>
-      </c>
-      <c r="E53" s="5">
-        <f>AVERAGE(E39:E52)</f>
-        <v>14.076923076923077</v>
-      </c>
-      <c r="F53" s="5">
-        <f>AVERAGE(F39:F52)</f>
-        <v>5.384615384615385</v>
-      </c>
-      <c r="G53" s="5">
-        <f>AVERAGE(G39:G52)</f>
-        <v>11.307692307692308</v>
-      </c>
-      <c r="H53" s="5">
-        <f>AVERAGE(H39:H52)</f>
-        <v>5.5384615384615383</v>
-      </c>
-      <c r="I53" s="6">
-        <f>AVERAGE(I39:I52)</f>
-        <v>61.230769230769234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="D60" s="5">
+        <f>AVERAGE(D43:D59)</f>
+        <v>25.125</v>
+      </c>
+      <c r="E60" s="5">
+        <f>AVERAGE(E43:E59)</f>
+        <v>14.0625</v>
+      </c>
+      <c r="F60" s="5">
+        <f>AVERAGE(F43:F59)</f>
+        <v>5.4375</v>
+      </c>
+      <c r="G60" s="5">
+        <f>AVERAGE(G43:G59)</f>
+        <v>11.375</v>
+      </c>
+      <c r="H60" s="5">
+        <f>AVERAGE(H43:H59)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I60" s="6">
+        <f>AVERAGE(I43:I59)</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="3" t="s">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="3">
-        <v>29</v>
-      </c>
-      <c r="E56" s="3">
-        <v>20</v>
-      </c>
-      <c r="F56" s="3">
-        <v>8</v>
-      </c>
-      <c r="G56" s="3">
-        <v>15</v>
-      </c>
-      <c r="H56" s="3">
-        <v>8</v>
-      </c>
-      <c r="I56" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>2</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="3">
-        <v>29</v>
-      </c>
-      <c r="E57" s="3">
-        <v>20</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3">
-        <v>13</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7</v>
-      </c>
-      <c r="I57" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>3</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="3">
-        <v>30</v>
-      </c>
-      <c r="E58" s="3">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>13</v>
-      </c>
-      <c r="H58" s="3">
-        <v>8</v>
-      </c>
-      <c r="I58" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>4</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="3">
-        <v>25</v>
-      </c>
-      <c r="E59" s="3">
-        <v>15</v>
-      </c>
-      <c r="F59" s="3">
-        <v>7</v>
-      </c>
-      <c r="G59" s="3">
-        <v>12</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5</v>
-      </c>
-      <c r="I59" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>5</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="3">
-        <v>28</v>
-      </c>
-      <c r="E60" s="3">
-        <v>13</v>
-      </c>
-      <c r="F60" s="3">
-        <v>7</v>
-      </c>
-      <c r="G60" s="3">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4</v>
-      </c>
-      <c r="I60" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>6</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="3">
-        <v>25</v>
-      </c>
-      <c r="E61" s="3">
-        <v>15</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5</v>
-      </c>
-      <c r="G61" s="3">
-        <v>9</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6</v>
-      </c>
-      <c r="I61" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="3">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3">
-        <v>12</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4</v>
-      </c>
-      <c r="I62" s="4">
-        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3">
+        <v>8</v>
+      </c>
+      <c r="G63" s="3">
+        <v>15</v>
+      </c>
+      <c r="H63" s="3">
+        <v>8</v>
+      </c>
+      <c r="I63" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3">
+        <v>6</v>
+      </c>
+      <c r="G64" s="3">
+        <v>13</v>
+      </c>
+      <c r="H64" s="3">
+        <v>7</v>
+      </c>
+      <c r="I64" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3">
+        <v>30</v>
+      </c>
+      <c r="E65" s="3">
+        <v>16</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3">
+        <v>13</v>
+      </c>
+      <c r="H65" s="3">
+        <v>8</v>
+      </c>
+      <c r="I65" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="3">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7</v>
+      </c>
+      <c r="G66" s="3">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5</v>
+      </c>
+      <c r="I66" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="3">
         <v>28</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="5">
-        <f t="shared" ref="D64:I64" si="1">AVERAGE(D56:D63)</f>
-        <v>25.857142857142858</v>
-      </c>
-      <c r="E64" s="5">
-        <f t="shared" si="1"/>
-        <v>15.857142857142858</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" si="1"/>
-        <v>6.2857142857142856</v>
-      </c>
-      <c r="G64" s="5">
-        <f t="shared" si="1"/>
-        <v>11.857142857142858</v>
-      </c>
-      <c r="H64" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I64" s="6">
-        <f t="shared" si="1"/>
-        <v>65.857142857142861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="3">
-        <v>29</v>
-      </c>
       <c r="E67" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F67" s="3">
         <v>7</v>
       </c>
       <c r="G67" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I67" s="4">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <f>A67+1</f>
-        <v>2</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D68" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G68" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H68" s="3">
         <v>6</v>
       </c>
       <c r="I68" s="4">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <f t="shared" ref="A69:A71" si="2">A68+1</f>
-        <v>3</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D69" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E69" s="3">
         <v>16</v>
       </c>
       <c r="F69" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G69" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H69" s="3">
+        <v>5</v>
+      </c>
+      <c r="I69" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="3">
+        <v>15</v>
+      </c>
+      <c r="E70" s="3">
+        <v>12</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6</v>
+      </c>
+      <c r="G70" s="3">
+        <v>10</v>
+      </c>
+      <c r="H70" s="3">
         <v>4</v>
       </c>
-      <c r="I69" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
+      <c r="I70" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2779,186 +2813,189 @@
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
+      <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="5">
+        <f>AVERAGE(D63:D71)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E72" s="5">
+        <f>AVERAGE(E63:E71)</f>
+        <v>15.875</v>
+      </c>
+      <c r="F72" s="5">
+        <f>AVERAGE(F63:F71)</f>
+        <v>5.875</v>
+      </c>
+      <c r="G72" s="5">
+        <f>AVERAGE(G63:G71)</f>
+        <v>11.75</v>
+      </c>
+      <c r="H72" s="5">
+        <f>AVERAGE(H63:H71)</f>
+        <v>5.875</v>
+      </c>
+      <c r="I72" s="6">
+        <f>AVERAGE(I63:I71)</f>
+        <v>64.875</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="3">
         <v>29</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="5">
-        <f>AVERAGE(D67:D72)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" ref="E73" si="3">AVERAGE(E67:E72)</f>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" ref="F73" si="4">AVERAGE(F67:F72)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G73" s="5">
-        <f t="shared" ref="G73" si="5">AVERAGE(G67:G72)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H73" s="5">
-        <f t="shared" ref="H73" si="6">AVERAGE(H67:H72)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="I73" s="6">
-        <f t="shared" ref="I73" si="7">AVERAGE(I67:I72)</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="3" t="s">
+      <c r="E75" s="3">
+        <v>21</v>
+      </c>
+      <c r="F75" s="3">
         <v>7</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>8</v>
+      <c r="G75" s="3">
+        <v>12</v>
+      </c>
+      <c r="H75" s="3">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1</v>
+        <f>A75+1</f>
+        <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D76" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E76" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F76" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G76" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H76" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I76" s="4">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <f>A76+1</f>
-        <v>2</v>
+        <f t="shared" ref="A77:A79" si="1">A76+1</f>
+        <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="3">
         <v>21</v>
       </c>
-      <c r="D77" s="3">
-        <v>24</v>
-      </c>
       <c r="E77" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G77" s="3">
         <v>13</v>
       </c>
       <c r="H77" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77" s="4">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <f t="shared" ref="A78:A80" si="8">A77+1</f>
-        <v>3</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="3">
-        <v>24</v>
-      </c>
-      <c r="E78" s="3">
-        <v>14</v>
-      </c>
-      <c r="F78" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G78" s="3">
-        <v>11</v>
-      </c>
-      <c r="H78" s="3">
-        <v>6</v>
-      </c>
-      <c r="I78" s="4">
-        <v>59</v>
-      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2970,10 +3007,7 @@
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2984,186 +3018,189 @@
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="5">
+        <f>AVERAGE(D75:D80)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" ref="E81" si="2">AVERAGE(E75:E80)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" ref="F81" si="3">AVERAGE(F75:F80)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" ref="G81" si="4">AVERAGE(G75:G80)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" ref="H81" si="5">AVERAGE(H75:H80)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" ref="I81" si="6">AVERAGE(I75:I80)</f>
+        <v>66.666666666666671</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>1</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="3">
         <v>28</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="5">
-        <f>AVERAGE(D76:D81)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E82" s="5">
-        <f t="shared" ref="E82" si="9">AVERAGE(E76:E81)</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="F82" s="5">
-        <f t="shared" ref="F82" si="10">AVERAGE(F76:F81)</f>
-        <v>7</v>
-      </c>
-      <c r="G82" s="5">
-        <f t="shared" ref="G82" si="11">AVERAGE(G76:G81)</f>
-        <v>13</v>
-      </c>
-      <c r="H82" s="5">
-        <f t="shared" ref="H82" si="12">AVERAGE(H76:H81)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="I82" s="6">
-        <f t="shared" ref="I82" si="13">AVERAGE(I76:I81)</f>
-        <v>70.333333333333329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>8</v>
+      <c r="E84" s="3">
+        <v>24</v>
+      </c>
+      <c r="F84" s="3">
+        <v>9</v>
+      </c>
+      <c r="G84" s="3">
+        <v>15</v>
+      </c>
+      <c r="H84" s="3">
+        <v>9</v>
+      </c>
+      <c r="I84" s="4">
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>1</v>
+        <f>A84+1</f>
+        <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D85" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E85" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F85" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H85" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I85" s="4">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <f>A85+1</f>
-        <v>2</v>
+        <f t="shared" ref="A86:A88" si="7">A85+1</f>
+        <v>3</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D86" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E86" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F86" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G86" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H86" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I86" s="4">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <f t="shared" ref="A87:A89" si="14">A86+1</f>
-        <v>3</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="3">
-        <v>21</v>
-      </c>
-      <c r="E87" s="3">
-        <v>15</v>
-      </c>
-      <c r="F87" s="3">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G87" s="3">
-        <v>9</v>
-      </c>
-      <c r="H87" s="3">
-        <v>3</v>
-      </c>
-      <c r="I87" s="4">
-        <v>52</v>
-      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3175,10 +3212,7 @@
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3189,63 +3223,257 @@
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
+      <c r="A90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5">
+        <f>AVERAGE(D84:D89)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" ref="E90" si="8">AVERAGE(E84:E89)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" ref="F90" si="9">AVERAGE(F84:F89)</f>
+        <v>7</v>
+      </c>
+      <c r="G90" s="5">
+        <f t="shared" ref="G90" si="10">AVERAGE(G84:G89)</f>
+        <v>13</v>
+      </c>
+      <c r="H90" s="5">
+        <f t="shared" ref="H90" si="11">AVERAGE(H84:H89)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" ref="I90" si="12">AVERAGE(I84:I89)</f>
+        <v>70.333333333333329</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="3">
+        <v>29</v>
+      </c>
+      <c r="E93" s="3">
+        <v>16</v>
+      </c>
+      <c r="F93" s="3">
+        <v>9</v>
+      </c>
+      <c r="G93" s="3">
+        <v>16</v>
+      </c>
+      <c r="H93" s="3">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <f>A93+1</f>
+        <v>2</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="3">
         <v>28</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="E94" s="3">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3">
+        <v>9</v>
+      </c>
+      <c r="G94" s="3">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3">
+        <v>7</v>
+      </c>
+      <c r="I94" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <f t="shared" ref="A95:A97" si="13">A94+1</f>
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="3">
+        <v>21</v>
+      </c>
+      <c r="E95" s="3">
+        <v>15</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4</v>
+      </c>
+      <c r="G95" s="3">
+        <v>9</v>
+      </c>
+      <c r="H95" s="3">
+        <v>3</v>
+      </c>
+      <c r="I95" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="9">
-        <f>AVERAGE(D85:D90)</f>
+      <c r="D99" s="9">
+        <f>AVERAGE(D93:D98)</f>
         <v>26</v>
       </c>
-      <c r="E91" s="9">
-        <f t="shared" ref="E91" si="15">AVERAGE(E85:E90)</f>
+      <c r="E99" s="9">
+        <f t="shared" ref="E99" si="14">AVERAGE(E93:E98)</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="F91" s="9">
-        <f t="shared" ref="F91" si="16">AVERAGE(F85:F90)</f>
+      <c r="F99" s="9">
+        <f t="shared" ref="F99" si="15">AVERAGE(F93:F98)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G91" s="9">
-        <f t="shared" ref="G91" si="17">AVERAGE(G85:G90)</f>
+      <c r="G99" s="9">
+        <f t="shared" ref="G99" si="16">AVERAGE(G93:G98)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="H91" s="9">
-        <f t="shared" ref="H91" si="18">AVERAGE(H85:H90)</f>
+      <c r="H99" s="9">
+        <f t="shared" ref="H99" si="17">AVERAGE(H93:H98)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="I91" s="10">
-        <f t="shared" ref="I91" si="19">AVERAGE(I85:I90)</f>
+      <c r="I99" s="10">
+        <f t="shared" ref="I99" si="18">AVERAGE(I93:I98)</f>
         <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B39:I51">
-    <sortCondition descending="1" ref="I39:I51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:I58">
+    <sortCondition descending="1" ref="I43:I58"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A91:I91"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A61:I61"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB168E06-B934-4AE9-96E9-5E0E22F32D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43856340-3432-4258-81DB-B1C0C8BEDF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
   <si>
     <t>Switch Name</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>KTT Sea Salt</t>
+  </si>
+  <si>
+    <t>Nixie Black</t>
   </si>
 </sst>
 </file>
@@ -878,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
@@ -1020,28 +1023,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3">
         <v>8</v>
       </c>
       <c r="G7" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1049,28 +1052,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>29</v>
       </c>
       <c r="E8" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1078,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>16</v>
@@ -1099,30 +1102,30 @@
         <v>7</v>
       </c>
       <c r="I9" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
@@ -1133,51 +1136,51 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3">
         <v>7</v>
       </c>
       <c r="G11" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="3">
         <v>7</v>
       </c>
       <c r="I11" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
         <v>13</v>
@@ -1191,54 +1194,54 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
         <v>16</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>13</v>
       </c>
       <c r="H14" s="3">
         <v>8</v>
@@ -1249,31 +1252,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1281,54 +1284,54 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3">
         <v>13</v>
       </c>
       <c r="H17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="4">
         <v>67</v>
@@ -1336,57 +1339,57 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3">
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="4">
         <v>64</v>
@@ -1394,54 +1397,54 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3">
         <v>28</v>
       </c>
       <c r="E21" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3">
         <v>4</v>
@@ -1452,28 +1455,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
         <v>63</v>
@@ -1481,10 +1484,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
@@ -1493,27 +1496,27 @@
         <v>26</v>
       </c>
       <c r="E23" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
         <v>12</v>
       </c>
       <c r="H23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -1522,16 +1525,16 @@
         <v>26</v>
       </c>
       <c r="E24" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4">
         <v>61</v>
@@ -1539,57 +1542,57 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E26" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4">
         <v>60</v>
@@ -1597,57 +1600,57 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>24</v>
-      </c>
       <c r="E27" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
-        <v>11</v>
-      </c>
-      <c r="H27" s="3">
-        <v>6</v>
-      </c>
       <c r="I27" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3">
         <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4">
         <v>59</v>
@@ -1655,10 +1658,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
@@ -1667,13 +1670,13 @@
         <v>23</v>
       </c>
       <c r="E29" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="3">
         <v>5</v>
@@ -1684,57 +1687,57 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4">
         <v>58</v>
@@ -1742,25 +1745,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H32" s="3">
         <v>5</v>
@@ -1771,25 +1774,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3">
         <v>25</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3">
-        <v>23</v>
-      </c>
       <c r="E33" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>5</v>
@@ -1800,31 +1803,31 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H34" s="3">
         <v>5</v>
       </c>
       <c r="I34" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1832,28 +1835,28 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="3">
         <v>5</v>
       </c>
       <c r="I35" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1861,28 +1864,28 @@
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1890,28 +1893,28 @@
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H37" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1919,213 +1922,213 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="3">
         <v>15</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <v>12</v>
       </c>
-      <c r="F38" s="3">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F39" s="3">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3">
         <v>10</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H39" s="3">
         <v>4</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I39" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="11" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="5">
-        <f>AVERAGE(D6:D39)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" ref="E40:I40" si="0">AVERAGE(E6:E39)</f>
-        <v>15.363636363636363</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="D41" s="5">
+        <f>AVERAGE(D6:D40)</f>
+        <v>25.441176470588236</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" ref="E41:I41" si="0">AVERAGE(E6:E40)</f>
+        <v>15.529411764705882</v>
+      </c>
+      <c r="F41" s="5">
         <f t="shared" si="0"/>
-        <v>5.9393939393939394</v>
-      </c>
-      <c r="G40" s="5">
+        <v>6</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="0"/>
-        <v>11.848484848484848</v>
-      </c>
-      <c r="H40" s="5">
+        <v>11.911764705882353</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="0"/>
-        <v>5.7272727272727275</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="0"/>
-        <v>64.212121212121218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+        <v>5.8235294117647056</v>
+      </c>
+      <c r="I41" s="6">
+        <f>SUM(D41:H41)</f>
+        <v>64.705882352941174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="3">
-        <v>28</v>
-      </c>
-      <c r="E43" s="3">
-        <v>20</v>
-      </c>
-      <c r="F43" s="3">
-        <v>7</v>
-      </c>
-      <c r="G43" s="3">
-        <v>13</v>
-      </c>
-      <c r="H43" s="3">
-        <v>7</v>
-      </c>
-      <c r="I43" s="4">
-        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E44" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H44" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I44" s="4">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F45" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I45" s="4">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
@@ -2134,48 +2137,48 @@
         <v>27</v>
       </c>
       <c r="E46" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I46" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F47" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H47" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I47" s="4">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,65 +2186,65 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" s="3">
         <v>14</v>
       </c>
       <c r="F48" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3">
+        <v>28</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4</v>
+      </c>
+      <c r="I49" s="4">
         <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>7</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="3">
-        <v>26</v>
-      </c>
-      <c r="E49" s="3">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>12</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6</v>
-      </c>
-      <c r="I49" s="4">
-        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
@@ -2256,30 +2259,30 @@
         <v>6</v>
       </c>
       <c r="G50" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H50" s="3">
         <v>5</v>
       </c>
       <c r="I50" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E51" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F51" s="3">
         <v>5</v>
@@ -2288,76 +2291,76 @@
         <v>12</v>
       </c>
       <c r="H51" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I51" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E52" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G52" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" s="3">
         <v>5</v>
       </c>
       <c r="I52" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="3">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
+      <c r="G53" s="3">
         <v>12</v>
       </c>
-      <c r="F53" s="3">
-        <v>6</v>
-      </c>
-      <c r="G53" s="3">
-        <v>10</v>
-      </c>
       <c r="H53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
@@ -2372,39 +2375,39 @@
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" s="3">
         <v>5</v>
       </c>
       <c r="I54" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" s="3">
         <v>10</v>
       </c>
       <c r="H55" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" s="4">
         <v>58</v>
@@ -2412,51 +2415,51 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F56" s="3">
         <v>5</v>
       </c>
       <c r="G56" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H56" s="3">
         <v>5</v>
       </c>
       <c r="I56" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="3">
         <v>25</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="3">
-        <v>23</v>
-      </c>
       <c r="E57" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>10</v>
@@ -2465,265 +2468,269 @@
         <v>5</v>
       </c>
       <c r="I57" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
+        <v>15</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3">
+        <v>24</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>16</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="3">
+        <v>23</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5</v>
+      </c>
+      <c r="I59" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="3">
         <v>22</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E60" s="3">
         <v>11</v>
       </c>
-      <c r="F58" s="3">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
         <v>7</v>
       </c>
-      <c r="H58" s="3">
-        <v>5</v>
-      </c>
-      <c r="I58" s="4">
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="5">
-        <f>AVERAGE(D43:D59)</f>
-        <v>25.125</v>
-      </c>
-      <c r="E60" s="5">
-        <f>AVERAGE(E43:E59)</f>
-        <v>14.0625</v>
-      </c>
-      <c r="F60" s="5">
-        <f>AVERAGE(F43:F59)</f>
-        <v>5.4375</v>
-      </c>
-      <c r="G60" s="5">
-        <f>AVERAGE(G43:G59)</f>
-        <v>11.375</v>
-      </c>
-      <c r="H60" s="5">
-        <f>AVERAGE(H43:H59)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I60" s="6">
-        <f>AVERAGE(I43:I59)</f>
-        <v>61.5</v>
-      </c>
-    </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" ref="D62:I62" si="1">AVERAGE(D44:D61)</f>
+        <v>25.352941176470587</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="1"/>
+        <v>14.470588235294118</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5882352941176467</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="1"/>
+        <v>11.529411764705882</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7058823529411766</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="1"/>
+        <v>62.647058823529413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="F64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="3">
-        <v>29</v>
-      </c>
-      <c r="E63" s="3">
-        <v>20</v>
-      </c>
-      <c r="F63" s="3">
-        <v>8</v>
-      </c>
-      <c r="G63" s="3">
-        <v>15</v>
-      </c>
-      <c r="H63" s="3">
-        <v>8</v>
-      </c>
-      <c r="I63" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="3">
-        <v>29</v>
-      </c>
-      <c r="E64" s="3">
-        <v>20</v>
-      </c>
-      <c r="F64" s="3">
-        <v>6</v>
-      </c>
-      <c r="G64" s="3">
-        <v>13</v>
-      </c>
-      <c r="H64" s="3">
-        <v>7</v>
-      </c>
-      <c r="I64" s="4">
-        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F65" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G65" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H65" s="3">
         <v>8</v>
       </c>
       <c r="I65" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E66" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F66" s="3">
+        <v>6</v>
+      </c>
+      <c r="G66" s="3">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3">
         <v>7</v>
       </c>
-      <c r="G66" s="3">
-        <v>12</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5</v>
-      </c>
       <c r="I66" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E67" s="3">
+        <v>16</v>
+      </c>
+      <c r="F67" s="3">
+        <v>5</v>
+      </c>
+      <c r="G67" s="3">
         <v>13</v>
       </c>
-      <c r="F67" s="3">
-        <v>7</v>
-      </c>
-      <c r="G67" s="3">
-        <v>11</v>
-      </c>
       <c r="H67" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I67" s="4">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="2"/>
       <c r="B68" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>18</v>
@@ -2735,279 +2742,308 @@
         <v>15</v>
       </c>
       <c r="F68" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G68" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H68" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I68" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E69" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F69" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G69" s="3">
         <v>11</v>
       </c>
       <c r="H69" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I69" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="3">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3">
         <v>15</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
+        <v>5</v>
+      </c>
+      <c r="G70" s="3">
+        <v>9</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6</v>
+      </c>
+      <c r="I70" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="3">
+        <v>23</v>
+      </c>
+      <c r="E71" s="3">
+        <v>16</v>
+      </c>
+      <c r="F71" s="3">
+        <v>3</v>
+      </c>
+      <c r="G71" s="3">
+        <v>11</v>
+      </c>
+      <c r="H71" s="3">
+        <v>5</v>
+      </c>
+      <c r="I71" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="3">
+        <v>15</v>
+      </c>
+      <c r="E72" s="3">
         <v>12</v>
       </c>
-      <c r="F70" s="3">
-        <v>6</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="F72" s="3">
+        <v>6</v>
+      </c>
+      <c r="G72" s="3">
         <v>10</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H72" s="3">
         <v>4</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I72" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="5">
-        <f>AVERAGE(D63:D71)</f>
-        <v>25.5</v>
-      </c>
-      <c r="E72" s="5">
-        <f>AVERAGE(E63:E71)</f>
-        <v>15.875</v>
-      </c>
-      <c r="F72" s="5">
-        <f>AVERAGE(F63:F71)</f>
-        <v>5.875</v>
-      </c>
-      <c r="G72" s="5">
-        <f>AVERAGE(G63:G71)</f>
-        <v>11.75</v>
-      </c>
-      <c r="H72" s="5">
-        <f>AVERAGE(H63:H71)</f>
-        <v>5.875</v>
-      </c>
-      <c r="I72" s="6">
-        <f>AVERAGE(I63:I71)</f>
-        <v>64.875</v>
-      </c>
-    </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" ref="D74:I74" si="2">AVERAGE(D65:D73)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="2"/>
+        <v>15.875</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="2"/>
+        <v>64.875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>1</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="3">
-        <v>29</v>
-      </c>
-      <c r="E75" s="3">
-        <v>21</v>
-      </c>
-      <c r="F75" s="3">
-        <v>7</v>
-      </c>
-      <c r="G75" s="3">
-        <v>12</v>
-      </c>
-      <c r="H75" s="3">
-        <v>7</v>
-      </c>
-      <c r="I75" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <f>A75+1</f>
-        <v>2</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="3">
-        <v>26</v>
-      </c>
-      <c r="E76" s="3">
-        <v>16</v>
-      </c>
-      <c r="F76" s="3">
-        <v>6</v>
-      </c>
-      <c r="G76" s="3">
-        <v>10</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6</v>
-      </c>
-      <c r="I76" s="4">
-        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <f t="shared" ref="A77:A79" si="1">A76+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="3">
+        <v>29</v>
+      </c>
+      <c r="E77" s="3">
         <v>21</v>
       </c>
-      <c r="E77" s="3">
-        <v>16</v>
-      </c>
       <c r="F77" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I77" s="4">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
+        <f>A77+1</f>
+        <v>2</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="3">
+        <v>26</v>
+      </c>
+      <c r="E78" s="3">
+        <v>16</v>
+      </c>
+      <c r="F78" s="3">
+        <v>6</v>
+      </c>
+      <c r="G78" s="3">
+        <v>10</v>
+      </c>
+      <c r="H78" s="3">
+        <v>6</v>
+      </c>
+      <c r="I78" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
+        <f t="shared" ref="A79:A81" si="3">A78+1</f>
+        <v>3</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="3">
+        <v>21</v>
+      </c>
+      <c r="E79" s="3">
+        <v>16</v>
+      </c>
+      <c r="F79" s="3">
+        <v>6</v>
+      </c>
+      <c r="G79" s="3">
+        <v>13</v>
+      </c>
+      <c r="H79" s="3">
+        <v>4</v>
+      </c>
+      <c r="I79" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3018,201 +3054,201 @@
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="5">
-        <f>AVERAGE(D75:D80)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" ref="E81" si="2">AVERAGE(E75:E80)</f>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="F81" s="5">
-        <f t="shared" ref="F81" si="3">AVERAGE(F75:F80)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G81" s="5">
-        <f t="shared" ref="G81" si="4">AVERAGE(G75:G80)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H81" s="5">
-        <f t="shared" ref="H81" si="5">AVERAGE(H75:H80)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="I81" s="6">
-        <f t="shared" ref="I81" si="6">AVERAGE(I75:I80)</f>
-        <v>66.666666666666671</v>
-      </c>
+      <c r="A81" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="14"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="5">
+        <f>AVERAGE(D77:D82)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" ref="E83" si="4">AVERAGE(E77:E82)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" ref="F83" si="5">AVERAGE(F77:F82)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G83" s="5">
+        <f t="shared" ref="G83" si="6">AVERAGE(G77:G82)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" ref="H83" si="7">AVERAGE(H77:H82)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I83" s="6">
+        <f t="shared" ref="I83" si="8">AVERAGE(I77:I82)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="3" t="s">
+      <c r="F85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="3">
-        <v>28</v>
-      </c>
-      <c r="E84" s="3">
-        <v>24</v>
-      </c>
-      <c r="F84" s="3">
-        <v>9</v>
-      </c>
-      <c r="G84" s="3">
-        <v>15</v>
-      </c>
-      <c r="H84" s="3">
-        <v>9</v>
-      </c>
-      <c r="I84" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <f>A84+1</f>
-        <v>2</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="3">
-        <v>24</v>
-      </c>
-      <c r="E85" s="3">
-        <v>17</v>
-      </c>
-      <c r="F85" s="3">
-        <v>8</v>
-      </c>
-      <c r="G85" s="3">
-        <v>13</v>
-      </c>
-      <c r="H85" s="3">
-        <v>5</v>
-      </c>
-      <c r="I85" s="4">
-        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <f t="shared" ref="A86:A88" si="7">A85+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="3">
+        <v>28</v>
+      </c>
+      <c r="E86" s="3">
         <v>24</v>
       </c>
-      <c r="E86" s="3">
-        <v>14</v>
-      </c>
       <c r="F86" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G86" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H86" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I86" s="4">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
+        <f>A86+1</f>
+        <v>2</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="3">
+        <v>24</v>
+      </c>
+      <c r="E87" s="3">
+        <v>17</v>
+      </c>
+      <c r="F87" s="3">
+        <v>8</v>
+      </c>
+      <c r="G87" s="3">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3">
+        <v>5</v>
+      </c>
+      <c r="I87" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
+        <f t="shared" ref="A88:A90" si="9">A87+1</f>
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="3">
+        <v>24</v>
+      </c>
+      <c r="E88" s="3">
+        <v>14</v>
+      </c>
+      <c r="F88" s="3">
+        <v>4</v>
+      </c>
+      <c r="G88" s="3">
+        <v>11</v>
+      </c>
+      <c r="H88" s="3">
+        <v>6</v>
+      </c>
+      <c r="I88" s="4">
+        <v>59</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3223,201 +3259,201 @@
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="5">
-        <f>AVERAGE(D84:D89)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E90" s="5">
-        <f t="shared" ref="E90" si="8">AVERAGE(E84:E89)</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="F90" s="5">
-        <f t="shared" ref="F90" si="9">AVERAGE(F84:F89)</f>
-        <v>7</v>
-      </c>
-      <c r="G90" s="5">
-        <f t="shared" ref="G90" si="10">AVERAGE(G84:G89)</f>
-        <v>13</v>
-      </c>
-      <c r="H90" s="5">
-        <f t="shared" ref="H90" si="11">AVERAGE(H84:H89)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="I90" s="6">
-        <f t="shared" ref="I90" si="12">AVERAGE(I84:I89)</f>
-        <v>70.333333333333329</v>
-      </c>
+      <c r="A90" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="5">
+        <f>AVERAGE(D86:D91)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" ref="E92" si="10">AVERAGE(E86:E91)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" ref="F92" si="11">AVERAGE(F86:F91)</f>
+        <v>7</v>
+      </c>
+      <c r="G92" s="5">
+        <f t="shared" ref="G92" si="12">AVERAGE(G86:G91)</f>
+        <v>13</v>
+      </c>
+      <c r="H92" s="5">
+        <f t="shared" ref="H92" si="13">AVERAGE(H86:H91)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" ref="I92" si="14">AVERAGE(I86:I91)</f>
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="3" t="s">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>1</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D93" s="3">
-        <v>29</v>
-      </c>
-      <c r="E93" s="3">
-        <v>16</v>
-      </c>
-      <c r="F93" s="3">
-        <v>9</v>
-      </c>
-      <c r="G93" s="3">
-        <v>16</v>
-      </c>
-      <c r="H93" s="3">
-        <v>7</v>
-      </c>
-      <c r="I93" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <f>A93+1</f>
-        <v>2</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D94" s="3">
-        <v>28</v>
-      </c>
-      <c r="E94" s="3">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3">
-        <v>9</v>
-      </c>
-      <c r="G94" s="3">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3">
-        <v>7</v>
-      </c>
-      <c r="I94" s="4">
-        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <f t="shared" ref="A95:A97" si="13">A94+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D95" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E95" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F95" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G95" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H95" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I95" s="4">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
+        <f>A95+1</f>
+        <v>2</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="3">
+        <v>28</v>
+      </c>
+      <c r="E96" s="3">
+        <v>16</v>
+      </c>
+      <c r="F96" s="3">
+        <v>9</v>
+      </c>
+      <c r="G96" s="3">
+        <v>16</v>
+      </c>
+      <c r="H96" s="3">
+        <v>7</v>
+      </c>
+      <c r="I96" s="4">
+        <v>76</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="4"/>
+        <f t="shared" ref="A97:A99" si="15">A96+1</f>
+        <v>3</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="3">
+        <v>21</v>
+      </c>
+      <c r="E97" s="3">
+        <v>15</v>
+      </c>
+      <c r="F97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3">
+        <v>9</v>
+      </c>
+      <c r="H97" s="3">
+        <v>3</v>
+      </c>
+      <c r="I97" s="4">
+        <v>52</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3428,52 +3464,77 @@
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="9">
-        <f>AVERAGE(D93:D98)</f>
+      <c r="D101" s="9">
+        <f>AVERAGE(D95:D100)</f>
         <v>26</v>
       </c>
-      <c r="E99" s="9">
-        <f t="shared" ref="E99" si="14">AVERAGE(E93:E98)</f>
+      <c r="E101" s="9">
+        <f t="shared" ref="E101" si="16">AVERAGE(E95:E100)</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="F99" s="9">
-        <f t="shared" ref="F99" si="15">AVERAGE(F93:F98)</f>
+      <c r="F101" s="9">
+        <f t="shared" ref="F101" si="17">AVERAGE(F95:F100)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G99" s="9">
-        <f t="shared" ref="G99" si="16">AVERAGE(G93:G98)</f>
+      <c r="G101" s="9">
+        <f t="shared" ref="G101" si="18">AVERAGE(G95:G100)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="H99" s="9">
-        <f t="shared" ref="H99" si="17">AVERAGE(H93:H98)</f>
+      <c r="H101" s="9">
+        <f t="shared" ref="H101" si="19">AVERAGE(H95:H100)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="I99" s="10">
-        <f t="shared" ref="I99" si="18">AVERAGE(I93:I98)</f>
+      <c r="I101" s="10">
+        <f t="shared" ref="I101" si="20">AVERAGE(I95:I100)</f>
         <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:I58">
-    <sortCondition descending="1" ref="I43:I58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I39">
+    <sortCondition descending="1" ref="I6:I39"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A93:I93"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A63:I63"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43856340-3432-4258-81DB-B1C0C8BEDF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192236F-A91C-4F89-A460-25E704399E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
   <si>
     <t>Switch Name</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Nixie Black</t>
+  </si>
+  <si>
+    <t>NK x Kailh Speed Heavy Burnt Orange</t>
+  </si>
+  <si>
+    <t>NK x Kailh Speed Heavy Dark Yellow</t>
+  </si>
+  <si>
+    <t>NK x Kailh Speed Heavy Pale Blue</t>
   </si>
 </sst>
 </file>
@@ -881,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
@@ -1371,13 +1380,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
         <v>15</v>
@@ -1386,13 +1395,13 @@
         <v>7</v>
       </c>
       <c r="G19" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I19" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,19 +1409,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3">
         <v>10</v>
@@ -1421,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,28 +1438,28 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>7</v>
       </c>
       <c r="G21" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1458,54 +1467,54 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
         <v>10</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="4">
         <v>63</v>
@@ -1513,39 +1522,39 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
@@ -1560,13 +1569,13 @@
         <v>6</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3">
         <v>5</v>
       </c>
       <c r="I25" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,28 +1583,28 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H26" s="3">
         <v>6</v>
       </c>
       <c r="I26" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1603,28 +1612,28 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3">
         <v>6</v>
       </c>
       <c r="G27" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1632,28 +1641,28 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H28" s="3">
         <v>6</v>
       </c>
       <c r="I28" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1661,54 +1670,54 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4">
         <v>59</v>
@@ -1716,39 +1725,39 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="3">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
         <v>12</v>
       </c>
-      <c r="F31" s="3">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3">
-        <v>10</v>
-      </c>
       <c r="H31" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -1763,30 +1772,30 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3">
         <v>5</v>
       </c>
       <c r="I32" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
@@ -1795,36 +1804,36 @@
         <v>10</v>
       </c>
       <c r="H33" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" s="4">
         <v>58</v>
@@ -1832,51 +1841,51 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35" s="3">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H35" s="3">
         <v>5</v>
       </c>
       <c r="I35" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3">
         <v>25</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3">
-        <v>23</v>
-      </c>
       <c r="E36" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="3">
         <v>10</v>
@@ -1885,36 +1894,36 @@
         <v>5</v>
       </c>
       <c r="I36" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1922,28 +1931,28 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F38" s="3">
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H38" s="3">
         <v>5</v>
       </c>
       <c r="I38" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1951,251 +1960,251 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E39" s="3">
         <v>12</v>
       </c>
       <c r="F39" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3">
         <v>10</v>
       </c>
       <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3">
+        <v>21</v>
+      </c>
+      <c r="E40" s="3">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="I39" s="4">
+      <c r="G40" s="3">
+        <v>9</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3">
+        <v>22</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4</v>
+      </c>
+      <c r="I42" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="5">
-        <f>AVERAGE(D6:D40)</f>
-        <v>25.441176470588236</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" ref="E41:I41" si="0">AVERAGE(E6:E40)</f>
-        <v>15.529411764705882</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="D44" s="5">
+        <f>AVERAGE(D6:D43)</f>
+        <v>25.45945945945946</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:H44" si="0">AVERAGE(E6:E43)</f>
+        <v>15.486486486486486</v>
+      </c>
+      <c r="F44" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>11.911764705882353</v>
-      </c>
-      <c r="H41" s="5">
+        <v>11.756756756756756</v>
+      </c>
+      <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>5.8235294117647056</v>
-      </c>
-      <c r="I41" s="6">
-        <f>SUM(D41:H41)</f>
-        <v>64.705882352941174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+        <v>5.8648648648648649</v>
+      </c>
+      <c r="I44" s="6">
+        <f>SUM(D44:H44)</f>
+        <v>64.567567567567565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="3">
-        <v>29</v>
-      </c>
-      <c r="E44" s="3">
-        <v>21</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3">
-        <v>9</v>
-      </c>
-      <c r="I44" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="3">
-        <v>28</v>
-      </c>
-      <c r="E45" s="3">
-        <v>20</v>
-      </c>
-      <c r="F45" s="3">
-        <v>7</v>
-      </c>
-      <c r="G45" s="3">
-        <v>13</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7</v>
-      </c>
-      <c r="I45" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="3">
-        <v>27</v>
-      </c>
-      <c r="E46" s="3">
-        <v>15</v>
-      </c>
-      <c r="F46" s="3">
-        <v>6</v>
-      </c>
-      <c r="G46" s="3">
-        <v>16</v>
-      </c>
-      <c r="H46" s="3">
-        <v>8</v>
-      </c>
-      <c r="I46" s="4">
-        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F47" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>14</v>
       </c>
       <c r="H47" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I47" s="4">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F48" s="3">
         <v>7</v>
@@ -2204,105 +2213,105 @@
         <v>13</v>
       </c>
       <c r="H48" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I48" s="4">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F49" s="3">
+        <v>6</v>
+      </c>
+      <c r="G49" s="3">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4</v>
-      </c>
-      <c r="I49" s="4">
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="3">
+        <v>27</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="3">
+        <v>27</v>
+      </c>
+      <c r="E51" s="3">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3">
+        <v>7</v>
+      </c>
+      <c r="G51" s="3">
+        <v>13</v>
+      </c>
+      <c r="H51" s="3">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>6</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="3">
-        <v>26</v>
-      </c>
-      <c r="E50" s="3">
-        <v>14</v>
-      </c>
-      <c r="F50" s="3">
-        <v>6</v>
-      </c>
-      <c r="G50" s="3">
-        <v>12</v>
-      </c>
-      <c r="H50" s="3">
-        <v>5</v>
-      </c>
-      <c r="I50" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>8</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="3">
-        <v>26</v>
-      </c>
-      <c r="E51" s="3">
-        <v>12</v>
-      </c>
-      <c r="F51" s="3">
-        <v>5</v>
-      </c>
-      <c r="G51" s="3">
-        <v>12</v>
-      </c>
-      <c r="H51" s="3">
-        <v>6</v>
-      </c>
-      <c r="I51" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>8</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
@@ -2311,1230 +2320,1407 @@
         <v>26</v>
       </c>
       <c r="E52" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="3">
         <v>10</v>
       </c>
       <c r="H52" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I52" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="3">
+        <v>28</v>
+      </c>
+      <c r="E53" s="3">
+        <v>17</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3">
         <v>10</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="3">
-        <v>23</v>
-      </c>
-      <c r="E53" s="3">
-        <v>14</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5</v>
-      </c>
-      <c r="G53" s="3">
-        <v>12</v>
-      </c>
       <c r="H53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E54" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="3">
         <v>5</v>
       </c>
       <c r="I54" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3">
         <v>26</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="3">
-        <v>24</v>
       </c>
       <c r="E55" s="3">
         <v>12</v>
       </c>
       <c r="F55" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H55" s="3">
         <v>6</v>
       </c>
       <c r="I55" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E56" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="3">
         <v>5</v>
       </c>
       <c r="I56" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E57" s="3">
         <v>14</v>
       </c>
       <c r="F57" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H57" s="3">
         <v>5</v>
       </c>
       <c r="I57" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F58" s="3">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H58" s="3">
         <v>5</v>
       </c>
       <c r="I58" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59" s="3">
         <v>12</v>
       </c>
       <c r="F59" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" s="3">
         <v>10</v>
       </c>
       <c r="H59" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I59" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
+        <v>13</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="3">
+        <v>23</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>12</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>13</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="3">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4</v>
+      </c>
+      <c r="G61" s="3">
+        <v>10</v>
+      </c>
+      <c r="H61" s="3">
+        <v>5</v>
+      </c>
+      <c r="I61" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>16</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="3">
+        <v>24</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5</v>
+      </c>
+      <c r="I62" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>17</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="3">
+        <v>23</v>
+      </c>
+      <c r="E63" s="3">
+        <v>12</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3">
+        <v>10</v>
+      </c>
+      <c r="H63" s="3">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="3">
         <v>22</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E64" s="3">
         <v>11</v>
       </c>
-      <c r="F60" s="3">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>7</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5</v>
-      </c>
-      <c r="I60" s="4">
+      <c r="F64" s="3">
+        <v>5</v>
+      </c>
+      <c r="G64" s="3">
+        <v>7</v>
+      </c>
+      <c r="H64" s="3">
+        <v>5</v>
+      </c>
+      <c r="I64" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" ref="D62:I62" si="1">AVERAGE(D44:D61)</f>
-        <v>25.352941176470587</v>
-      </c>
-      <c r="E62" s="5">
-        <f t="shared" si="1"/>
-        <v>14.470588235294118</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5882352941176467</v>
-      </c>
-      <c r="G62" s="5">
-        <f t="shared" si="1"/>
-        <v>11.529411764705882</v>
-      </c>
-      <c r="H62" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7058823529411766</v>
-      </c>
-      <c r="I62" s="6">
-        <f t="shared" si="1"/>
-        <v>62.647058823529413</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" ref="D66:I66" si="1">AVERAGE(D47:D65)</f>
+        <v>25.388888888888889</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="1"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="1"/>
+        <v>11.444444444444445</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="1"/>
+        <v>62.777777777777779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="3">
-        <v>29</v>
-      </c>
-      <c r="E65" s="3">
-        <v>20</v>
-      </c>
-      <c r="F65" s="3">
-        <v>8</v>
-      </c>
-      <c r="G65" s="3">
-        <v>15</v>
-      </c>
-      <c r="H65" s="3">
-        <v>8</v>
-      </c>
-      <c r="I65" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="3">
-        <v>29</v>
-      </c>
-      <c r="E66" s="3">
-        <v>20</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6</v>
-      </c>
-      <c r="G66" s="3">
-        <v>13</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7</v>
-      </c>
-      <c r="I66" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="3">
-        <v>30</v>
-      </c>
-      <c r="E67" s="3">
-        <v>16</v>
-      </c>
-      <c r="F67" s="3">
-        <v>5</v>
-      </c>
-      <c r="G67" s="3">
-        <v>13</v>
-      </c>
-      <c r="H67" s="3">
-        <v>8</v>
-      </c>
-      <c r="I67" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="3">
-        <v>25</v>
-      </c>
-      <c r="E68" s="3">
-        <v>15</v>
-      </c>
-      <c r="F68" s="3">
-        <v>7</v>
-      </c>
-      <c r="G68" s="3">
-        <v>12</v>
-      </c>
-      <c r="H68" s="3">
-        <v>5</v>
-      </c>
-      <c r="I68" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E69" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F69" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H69" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I69" s="4">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="2">
+        <v>2</v>
+      </c>
       <c r="B70" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E70" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F70" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G70" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I70" s="4">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="2">
+        <v>3</v>
+      </c>
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E71" s="3">
         <v>16</v>
       </c>
       <c r="F71" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G71" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H71" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I71" s="4">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="2">
+        <v>4</v>
+      </c>
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="3">
+        <v>25</v>
+      </c>
+      <c r="E72" s="3">
         <v>15</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>7</v>
+      </c>
+      <c r="G72" s="3">
         <v>12</v>
       </c>
-      <c r="F72" s="3">
-        <v>6</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>5</v>
+      </c>
+      <c r="I72" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="3">
+        <v>28</v>
+      </c>
+      <c r="E73" s="3">
+        <v>13</v>
+      </c>
+      <c r="F73" s="3">
+        <v>7</v>
+      </c>
+      <c r="G73" s="3">
+        <v>11</v>
+      </c>
+      <c r="H73" s="3">
+        <v>4</v>
+      </c>
+      <c r="I73" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="3">
+        <v>25</v>
+      </c>
+      <c r="E74" s="3">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3">
+        <v>9</v>
+      </c>
+      <c r="H74" s="3">
+        <v>6</v>
+      </c>
+      <c r="I74" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="3">
+        <v>24</v>
+      </c>
+      <c r="E75" s="3">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3">
+        <v>4</v>
+      </c>
+      <c r="G75" s="3">
         <v>10</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H75" s="3">
+        <v>6</v>
+      </c>
+      <c r="I75" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="3">
+        <v>23</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3">
+        <v>11</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5</v>
+      </c>
+      <c r="I76" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="3">
+        <v>15</v>
+      </c>
+      <c r="E77" s="3">
+        <v>12</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6</v>
+      </c>
+      <c r="G77" s="3">
+        <v>10</v>
+      </c>
+      <c r="H77" s="3">
         <v>4</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I77" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="5">
-        <f t="shared" ref="D74:I74" si="2">AVERAGE(D65:D73)</f>
-        <v>25.5</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="D79" s="5">
+        <f t="shared" ref="D79:I79" si="2">AVERAGE(D69:D78)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E79" s="5">
         <f t="shared" si="2"/>
-        <v>15.875</v>
-      </c>
-      <c r="F74" s="5">
+        <v>15.777777777777779</v>
+      </c>
+      <c r="F79" s="5">
         <f t="shared" si="2"/>
-        <v>5.875</v>
-      </c>
-      <c r="G74" s="5">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="G79" s="5">
         <f t="shared" si="2"/>
-        <v>11.75</v>
-      </c>
-      <c r="H74" s="5">
+        <v>11.555555555555555</v>
+      </c>
+      <c r="H79" s="5">
         <f t="shared" si="2"/>
-        <v>5.875</v>
-      </c>
-      <c r="I74" s="6">
+        <v>5.8888888888888893</v>
+      </c>
+      <c r="I79" s="6">
         <f t="shared" si="2"/>
-        <v>64.875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+        <v>64.222222222222229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>1</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D82" s="3">
         <v>29</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E82" s="3">
         <v>21</v>
       </c>
-      <c r="F77" s="3">
-        <v>7</v>
-      </c>
-      <c r="G77" s="3">
+      <c r="F82" s="3">
+        <v>7</v>
+      </c>
+      <c r="G82" s="3">
         <v>12</v>
       </c>
-      <c r="H77" s="3">
-        <v>7</v>
-      </c>
-      <c r="I77" s="4">
+      <c r="H82" s="3">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <f>A77+1</f>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <f>A82+1</f>
         <v>2</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D83" s="3">
         <v>26</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E83" s="3">
         <v>16</v>
       </c>
-      <c r="F78" s="3">
-        <v>6</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="F83" s="3">
+        <v>6</v>
+      </c>
+      <c r="G83" s="3">
         <v>10</v>
       </c>
-      <c r="H78" s="3">
-        <v>6</v>
-      </c>
-      <c r="I78" s="4">
+      <c r="H83" s="3">
+        <v>6</v>
+      </c>
+      <c r="I83" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <f t="shared" ref="A79:A81" si="3">A78+1</f>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <f t="shared" ref="A84:A86" si="3">A83+1</f>
         <v>3</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D84" s="3">
         <v>21</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E84" s="3">
         <v>16</v>
       </c>
-      <c r="F79" s="3">
-        <v>6</v>
-      </c>
-      <c r="G79" s="3">
+      <c r="F84" s="3">
+        <v>6</v>
+      </c>
+      <c r="G84" s="3">
         <v>13</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H84" s="3">
         <v>4</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I84" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="5">
-        <f>AVERAGE(D77:D82)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E83" s="5">
-        <f t="shared" ref="E83" si="4">AVERAGE(E77:E82)</f>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="F83" s="5">
-        <f t="shared" ref="F83" si="5">AVERAGE(F77:F82)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G83" s="5">
-        <f t="shared" ref="G83" si="6">AVERAGE(G77:G82)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H83" s="5">
-        <f t="shared" ref="H83" si="7">AVERAGE(H77:H82)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="I83" s="6">
-        <f t="shared" ref="I83" si="8">AVERAGE(I77:I82)</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="14"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="5">
+        <f>AVERAGE(D82:D87)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" ref="E88" si="4">AVERAGE(E82:E87)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F88" s="5">
+        <f t="shared" ref="F88" si="5">AVERAGE(F82:F87)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G88" s="5">
+        <f t="shared" ref="G88" si="6">AVERAGE(G82:G87)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H88" s="5">
+        <f t="shared" ref="H88" si="7">AVERAGE(H82:H87)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I88" s="6">
+        <f t="shared" ref="I88" si="8">AVERAGE(I82:I87)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D91" s="3">
         <v>28</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E91" s="3">
         <v>24</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F91" s="3">
         <v>9</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G91" s="3">
         <v>15</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H91" s="3">
         <v>9</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I91" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <f>A86+1</f>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <f>A91+1</f>
         <v>2</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D92" s="3">
         <v>24</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E92" s="3">
         <v>17</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F92" s="3">
         <v>8</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G92" s="3">
         <v>13</v>
       </c>
-      <c r="H87" s="3">
-        <v>5</v>
-      </c>
-      <c r="I87" s="4">
+      <c r="H92" s="3">
+        <v>5</v>
+      </c>
+      <c r="I92" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <f t="shared" ref="A88:A90" si="9">A87+1</f>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f t="shared" ref="A93:A95" si="9">A92+1</f>
         <v>3</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D93" s="3">
         <v>24</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E93" s="3">
         <v>14</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F93" s="3">
         <v>4</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G93" s="3">
         <v>11</v>
       </c>
-      <c r="H88" s="3">
-        <v>6</v>
-      </c>
-      <c r="I88" s="4">
+      <c r="H93" s="3">
+        <v>6</v>
+      </c>
+      <c r="I93" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="5">
-        <f>AVERAGE(D86:D91)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E92" s="5">
-        <f t="shared" ref="E92" si="10">AVERAGE(E86:E91)</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="F92" s="5">
-        <f t="shared" ref="F92" si="11">AVERAGE(F86:F91)</f>
-        <v>7</v>
-      </c>
-      <c r="G92" s="5">
-        <f t="shared" ref="G92" si="12">AVERAGE(G86:G91)</f>
-        <v>13</v>
-      </c>
-      <c r="H92" s="5">
-        <f t="shared" ref="H92" si="13">AVERAGE(H86:H91)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="I92" s="6">
-        <f t="shared" ref="I92" si="14">AVERAGE(I86:I91)</f>
-        <v>70.333333333333329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="5">
+        <f>AVERAGE(D91:D96)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" ref="E97" si="10">AVERAGE(E91:E96)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" ref="F97" si="11">AVERAGE(F91:F96)</f>
+        <v>7</v>
+      </c>
+      <c r="G97" s="5">
+        <f t="shared" ref="G97" si="12">AVERAGE(G91:G96)</f>
+        <v>13</v>
+      </c>
+      <c r="H97" s="5">
+        <f t="shared" ref="H97" si="13">AVERAGE(H91:H96)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" ref="I97" si="14">AVERAGE(I91:I96)</f>
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>1</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D100" s="3">
         <v>29</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E100" s="3">
         <v>16</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F100" s="3">
         <v>9</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G100" s="3">
         <v>16</v>
       </c>
-      <c r="H95" s="3">
-        <v>7</v>
-      </c>
-      <c r="I95" s="4">
+      <c r="H100" s="3">
+        <v>7</v>
+      </c>
+      <c r="I100" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <f>A95+1</f>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <f>A100+1</f>
         <v>2</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D101" s="3">
         <v>28</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E101" s="3">
         <v>16</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F101" s="3">
         <v>9</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G101" s="3">
         <v>16</v>
       </c>
-      <c r="H96" s="3">
-        <v>7</v>
-      </c>
-      <c r="I96" s="4">
+      <c r="H101" s="3">
+        <v>7</v>
+      </c>
+      <c r="I101" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <f t="shared" ref="A97:A99" si="15">A96+1</f>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <f t="shared" ref="A102:A104" si="15">A101+1</f>
         <v>3</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="3">
-        <v>21</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="D102" s="3">
+        <v>27</v>
+      </c>
+      <c r="E102" s="3">
         <v>15</v>
       </c>
-      <c r="F97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3">
-        <v>9</v>
-      </c>
-      <c r="H97" s="3">
-        <v>3</v>
-      </c>
-      <c r="I97" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="F102" s="3">
+        <v>7</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6</v>
+      </c>
+      <c r="I102" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="B103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="3">
+        <v>21</v>
+      </c>
+      <c r="E103" s="3">
+        <v>15</v>
+      </c>
+      <c r="F103" s="3">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3">
+        <v>9</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3</v>
+      </c>
+      <c r="I103" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="9">
-        <f>AVERAGE(D95:D100)</f>
-        <v>26</v>
-      </c>
-      <c r="E101" s="9">
-        <f t="shared" ref="E101" si="16">AVERAGE(E95:E100)</f>
-        <v>15.666666666666666</v>
-      </c>
-      <c r="F101" s="9">
-        <f t="shared" ref="F101" si="17">AVERAGE(F95:F100)</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="G101" s="9">
-        <f t="shared" ref="G101" si="18">AVERAGE(G95:G100)</f>
-        <v>13.666666666666666</v>
-      </c>
-      <c r="H101" s="9">
-        <f t="shared" ref="H101" si="19">AVERAGE(H95:H100)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="I101" s="10">
-        <f t="shared" ref="I101" si="20">AVERAGE(I95:I100)</f>
-        <v>68.333333333333329</v>
+      <c r="D106" s="9">
+        <f>AVERAGE(D100:D105)</f>
+        <v>26.25</v>
+      </c>
+      <c r="E106" s="9">
+        <f t="shared" ref="E106" si="16">AVERAGE(E100:E105)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F106" s="9">
+        <f t="shared" ref="F106" si="17">AVERAGE(F100:F105)</f>
+        <v>7.25</v>
+      </c>
+      <c r="G106" s="9">
+        <f t="shared" ref="G106" si="18">AVERAGE(G100:G105)</f>
+        <v>12.75</v>
+      </c>
+      <c r="H106" s="9">
+        <f t="shared" ref="H106" si="19">AVERAGE(H100:H105)</f>
+        <v>5.75</v>
+      </c>
+      <c r="I106" s="10">
+        <f t="shared" ref="I106" si="20">AVERAGE(I100:I105)</f>
+        <v>67.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I39">
-    <sortCondition descending="1" ref="I6:I39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I42">
+    <sortCondition descending="1" ref="I6:I42"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A98:I98"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A67:I67"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192236F-A91C-4F89-A460-25E704399E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6E9E23-C263-4275-BC65-B9160A7B8748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
   <si>
     <t>Switch Name</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>NK x Kailh Speed Heavy Pale Blue</t>
+  </si>
+  <si>
+    <t>Gateron Kangaroo Inks</t>
   </si>
 </sst>
 </file>
@@ -890,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+      <selection activeCell="A6" sqref="A6:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="15">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
@@ -1293,28 +1296,28 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,54 +1325,54 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3">
         <v>13</v>
       </c>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="4">
         <v>67</v>
@@ -1377,45 +1380,45 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3">
-        <v>15</v>
-      </c>
       <c r="F19" s="3">
         <v>7</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
         <v>15</v>
@@ -1427,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" s="4">
         <v>65</v>
@@ -1435,16 +1438,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3">
         <v>15</v>
@@ -1453,39 +1456,39 @@
         <v>7</v>
       </c>
       <c r="G21" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="4">
         <v>64</v>
@@ -1493,54 +1496,54 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D23" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>28</v>
       </c>
       <c r="E24" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
@@ -1551,28 +1554,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="4">
         <v>63</v>
@@ -1580,10 +1583,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -1592,27 +1595,27 @@
         <v>26</v>
       </c>
       <c r="E26" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
         <v>12</v>
       </c>
       <c r="H26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
@@ -1621,16 +1624,16 @@
         <v>26</v>
       </c>
       <c r="E27" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4">
         <v>61</v>
@@ -1638,57 +1641,57 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E29" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29" s="4">
         <v>60</v>
@@ -1696,57 +1699,57 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3">
         <v>21</v>
       </c>
-      <c r="D30" s="3">
-        <v>24</v>
-      </c>
       <c r="E30" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3">
         <v>4</v>
       </c>
-      <c r="G30" s="3">
-        <v>11</v>
-      </c>
-      <c r="H30" s="3">
-        <v>6</v>
-      </c>
       <c r="I30" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="3">
         <v>14</v>
       </c>
       <c r="F31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4">
         <v>59</v>
@@ -1754,10 +1757,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -1766,13 +1769,13 @@
         <v>23</v>
       </c>
       <c r="E32" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="3">
         <v>5</v>
@@ -1783,28 +1786,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" s="4">
         <v>59</v>
@@ -1812,22 +1815,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3">
         <v>24</v>
       </c>
       <c r="E34" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34" s="3">
         <v>10</v>
@@ -1836,33 +1839,33 @@
         <v>6</v>
       </c>
       <c r="I34" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="4">
         <v>58</v>
@@ -1870,25 +1873,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H36" s="3">
         <v>5</v>
@@ -1899,25 +1902,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
         <v>5</v>
@@ -1928,31 +1931,31 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H38" s="3">
         <v>5</v>
       </c>
       <c r="I38" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1960,28 +1963,28 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F39" s="3">
         <v>5</v>
       </c>
       <c r="G39" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3">
         <v>5</v>
       </c>
       <c r="I39" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,28 +1992,28 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,28 +2021,28 @@
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H41" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2047,213 +2050,213 @@
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>15</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <v>12</v>
       </c>
-      <c r="F42" s="3">
-        <v>6</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F43" s="3">
+        <v>6</v>
+      </c>
+      <c r="G43" s="3">
         <v>10</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="3">
         <v>4</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I43" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="11" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="5">
-        <f>AVERAGE(D6:D43)</f>
-        <v>25.45945945945946</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" ref="E44:H44" si="0">AVERAGE(E6:E43)</f>
-        <v>15.486486486486486</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="D45" s="5">
+        <f>AVERAGE(D6:D44)</f>
+        <v>25.526315789473685</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" ref="E45:H45" si="0">AVERAGE(E6:E44)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F45" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G44" s="5">
+        <v>6.0263157894736841</v>
+      </c>
+      <c r="G45" s="5">
         <f t="shared" si="0"/>
-        <v>11.756756756756756</v>
-      </c>
-      <c r="H44" s="5">
+        <v>11.736842105263158</v>
+      </c>
+      <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>5.8648648648648649</v>
-      </c>
-      <c r="I44" s="6">
-        <f>SUM(D44:H44)</f>
-        <v>64.567567567567565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+        <v>5.8947368421052628</v>
+      </c>
+      <c r="I45" s="6">
+        <f>SUM(D45:H45)</f>
+        <v>64.684210526315795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="3">
-        <v>29</v>
-      </c>
-      <c r="E47" s="3">
-        <v>21</v>
-      </c>
-      <c r="F47" s="3">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>14</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9</v>
-      </c>
-      <c r="I47" s="4">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E48" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I48" s="4">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F49" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H49" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I49" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
@@ -2268,21 +2271,21 @@
         <v>6</v>
       </c>
       <c r="G50" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I50" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
@@ -2291,77 +2294,77 @@
         <v>27</v>
       </c>
       <c r="E51" s="3">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3">
+        <v>6</v>
+      </c>
+      <c r="G51" s="3">
         <v>14</v>
       </c>
-      <c r="F51" s="3">
-        <v>7</v>
-      </c>
-      <c r="G51" s="3">
-        <v>13</v>
-      </c>
       <c r="H51" s="3">
         <v>6</v>
       </c>
       <c r="I51" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="3">
+        <v>27</v>
+      </c>
+      <c r="E52" s="3">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7</v>
+      </c>
+      <c r="G52" s="3">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6</v>
+      </c>
+      <c r="I52" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="3">
         <v>26</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>15</v>
       </c>
-      <c r="F52" s="3">
-        <v>7</v>
-      </c>
-      <c r="G52" s="3">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7</v>
-      </c>
-      <c r="I52" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>7</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="3">
-        <v>28</v>
-      </c>
-      <c r="E53" s="3">
-        <v>17</v>
-      </c>
       <c r="F53" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G53" s="3">
         <v>10</v>
       </c>
       <c r="H53" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I53" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,25 +2372,25 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E54" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F54" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I54" s="4">
         <v>63</v>
@@ -2395,10 +2398,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
@@ -2407,19 +2410,19 @@
         <v>26</v>
       </c>
       <c r="E55" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="3">
         <v>12</v>
       </c>
       <c r="H55" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2427,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -2436,16 +2439,16 @@
         <v>26</v>
       </c>
       <c r="E56" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G56" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H56" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="4">
         <v>61</v>
@@ -2453,31 +2456,31 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E57" s="3">
         <v>14</v>
       </c>
       <c r="F57" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="3">
         <v>5</v>
       </c>
       <c r="I57" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2485,7 +2488,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
@@ -2494,13 +2497,13 @@
         <v>23</v>
       </c>
       <c r="E58" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" s="3">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="3">
         <v>5</v>
@@ -2511,31 +2514,31 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
+        <v>11</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="3">
+        <v>23</v>
+      </c>
+      <c r="E59" s="3">
         <v>13</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="3">
-        <v>24</v>
-      </c>
-      <c r="E59" s="3">
-        <v>12</v>
-      </c>
       <c r="F59" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H59" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,25 +2546,25 @@
         <v>13</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E60" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H60" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I60" s="4">
         <v>58</v>
@@ -2572,22 +2575,22 @@
         <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E61" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H61" s="3">
         <v>5</v>
@@ -2598,214 +2601,214 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E62" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H62" s="3">
         <v>5</v>
       </c>
       <c r="I62" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E63" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F63" s="3">
         <v>5</v>
       </c>
       <c r="G63" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H63" s="3">
         <v>5</v>
       </c>
       <c r="I63" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
+        <v>17</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="3">
+        <v>23</v>
+      </c>
+      <c r="E64" s="3">
+        <v>12</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3">
+        <v>5</v>
+      </c>
+      <c r="I64" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>18</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="3">
         <v>22</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="3">
         <v>11</v>
       </c>
-      <c r="F64" s="3">
-        <v>5</v>
-      </c>
-      <c r="G64" s="3">
-        <v>7</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5</v>
-      </c>
-      <c r="I64" s="4">
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3">
+        <v>7</v>
+      </c>
+      <c r="H65" s="3">
+        <v>5</v>
+      </c>
+      <c r="I65" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-    </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" ref="D66:I66" si="1">AVERAGE(D47:D65)</f>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:I67" si="1">AVERAGE(D48:D66)</f>
         <v>25.388888888888889</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="5">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="5">
         <f t="shared" si="1"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G67" s="5">
         <f t="shared" si="1"/>
         <v>11.444444444444445</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H67" s="5">
         <f t="shared" si="1"/>
         <v>5.7777777777777777</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I67" s="6">
         <f t="shared" si="1"/>
         <v>62.777777777777779</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="F69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="3">
-        <v>29</v>
-      </c>
-      <c r="E69" s="3">
-        <v>20</v>
-      </c>
-      <c r="F69" s="3">
-        <v>8</v>
-      </c>
-      <c r="G69" s="3">
-        <v>15</v>
-      </c>
-      <c r="H69" s="3">
-        <v>8</v>
-      </c>
-      <c r="I69" s="4">
-        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>18</v>
@@ -2817,21 +2820,21 @@
         <v>20</v>
       </c>
       <c r="F70" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G70" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H70" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I70" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>34</v>
@@ -2860,39 +2863,39 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E72" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F72" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I72" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>18</v>
@@ -2901,7 +2904,7 @@
         <v>28</v>
       </c>
       <c r="E73" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F73" s="3">
         <v>7</v>
@@ -2910,15 +2913,15 @@
         <v>11</v>
       </c>
       <c r="H73" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I73" s="4">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>6</v>
+      <c r="A74" s="2">
+        <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>62</v>
@@ -2976,269 +2979,302 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E76" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F76" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G76" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" s="3">
         <v>5</v>
       </c>
       <c r="I76" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="3">
+        <v>23</v>
+      </c>
+      <c r="E77" s="3">
+        <v>16</v>
+      </c>
+      <c r="F77" s="3">
+        <v>3</v>
+      </c>
+      <c r="G77" s="3">
+        <v>11</v>
+      </c>
+      <c r="H77" s="3">
+        <v>5</v>
+      </c>
+      <c r="I77" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="3">
+        <v>28</v>
+      </c>
+      <c r="E78" s="3">
+        <v>13</v>
+      </c>
+      <c r="F78" s="3">
+        <v>7</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4</v>
+      </c>
+      <c r="I78" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="3">
         <v>15</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E79" s="3">
         <v>12</v>
       </c>
-      <c r="F77" s="3">
-        <v>6</v>
-      </c>
-      <c r="G77" s="3">
+      <c r="F79" s="3">
+        <v>6</v>
+      </c>
+      <c r="G79" s="3">
         <v>10</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H79" s="3">
         <v>4</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I79" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="5">
-        <f t="shared" ref="D79:I79" si="2">AVERAGE(D69:D78)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E79" s="5">
-        <f t="shared" si="2"/>
-        <v>15.777777777777779</v>
-      </c>
-      <c r="F79" s="5">
-        <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="G79" s="5">
-        <f t="shared" si="2"/>
-        <v>11.555555555555555</v>
-      </c>
-      <c r="H79" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8888888888888893</v>
-      </c>
-      <c r="I79" s="6">
-        <f t="shared" si="2"/>
-        <v>64.222222222222229</v>
-      </c>
-    </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="14"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" ref="D81:I81" si="2">AVERAGE(D70:D80)</f>
+        <v>25.6</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="2"/>
+        <v>15.8</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" si="2"/>
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="3">
-        <v>29</v>
-      </c>
-      <c r="E82" s="3">
-        <v>21</v>
-      </c>
-      <c r="F82" s="3">
-        <v>7</v>
-      </c>
-      <c r="G82" s="3">
-        <v>12</v>
-      </c>
-      <c r="H82" s="3">
-        <v>7</v>
-      </c>
-      <c r="I82" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <f>A82+1</f>
-        <v>2</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="3">
-        <v>26</v>
-      </c>
-      <c r="E83" s="3">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6</v>
-      </c>
-      <c r="G83" s="3">
-        <v>10</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6</v>
-      </c>
-      <c r="I83" s="4">
-        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <f t="shared" ref="A84:A86" si="3">A83+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D84" s="3">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3">
         <v>21</v>
       </c>
-      <c r="E84" s="3">
-        <v>16</v>
-      </c>
       <c r="F84" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I84" s="4">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
+        <f>A84+1</f>
+        <v>2</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="3">
+        <v>26</v>
+      </c>
+      <c r="E85" s="3">
+        <v>16</v>
+      </c>
+      <c r="F85" s="3">
+        <v>6</v>
+      </c>
+      <c r="G85" s="3">
+        <v>10</v>
+      </c>
+      <c r="H85" s="3">
+        <v>6</v>
+      </c>
+      <c r="I85" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <f t="shared" ref="A86:A88" si="3">A85+1</f>
+        <v>3</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="3">
+        <v>21</v>
+      </c>
+      <c r="E86" s="3">
+        <v>16</v>
+      </c>
+      <c r="F86" s="3">
+        <v>6</v>
+      </c>
+      <c r="G86" s="3">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4</v>
+      </c>
+      <c r="I86" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3249,201 +3285,201 @@
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="5">
-        <f>AVERAGE(D82:D87)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E88" s="5">
-        <f t="shared" ref="E88" si="4">AVERAGE(E82:E87)</f>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" ref="F88" si="5">AVERAGE(F82:F87)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G88" s="5">
-        <f t="shared" ref="G88" si="6">AVERAGE(G82:G87)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H88" s="5">
-        <f t="shared" ref="H88" si="7">AVERAGE(H82:H87)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="I88" s="6">
-        <f t="shared" ref="I88" si="8">AVERAGE(I82:I87)</f>
-        <v>66.666666666666671</v>
-      </c>
+      <c r="A88" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5">
+        <f>AVERAGE(D84:D89)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" ref="E90" si="4">AVERAGE(E84:E89)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" ref="F90" si="5">AVERAGE(F84:F89)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G90" s="5">
+        <f t="shared" ref="G90" si="6">AVERAGE(G84:G89)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H90" s="5">
+        <f t="shared" ref="H90" si="7">AVERAGE(H84:H89)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" ref="I90" si="8">AVERAGE(I84:I89)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="4" t="s">
+      <c r="F92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="3">
-        <v>28</v>
-      </c>
-      <c r="E91" s="3">
-        <v>24</v>
-      </c>
-      <c r="F91" s="3">
-        <v>9</v>
-      </c>
-      <c r="G91" s="3">
-        <v>15</v>
-      </c>
-      <c r="H91" s="3">
-        <v>9</v>
-      </c>
-      <c r="I91" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <f>A91+1</f>
-        <v>2</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="3">
-        <v>24</v>
-      </c>
-      <c r="E92" s="3">
-        <v>17</v>
-      </c>
-      <c r="F92" s="3">
-        <v>8</v>
-      </c>
-      <c r="G92" s="3">
-        <v>13</v>
-      </c>
-      <c r="H92" s="3">
-        <v>5</v>
-      </c>
-      <c r="I92" s="4">
-        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <f t="shared" ref="A93:A95" si="9">A92+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="3">
+        <v>28</v>
+      </c>
+      <c r="E93" s="3">
         <v>24</v>
       </c>
-      <c r="E93" s="3">
-        <v>14</v>
-      </c>
       <c r="F93" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G93" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H93" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I93" s="4">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
+        <f>A93+1</f>
+        <v>2</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="3">
+        <v>24</v>
+      </c>
+      <c r="E94" s="3">
+        <v>17</v>
+      </c>
+      <c r="F94" s="3">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3">
+        <v>5</v>
+      </c>
+      <c r="I94" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <f t="shared" ref="A95:A97" si="9">A94+1</f>
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="3">
+        <v>24</v>
+      </c>
+      <c r="E95" s="3">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4</v>
+      </c>
+      <c r="G95" s="3">
+        <v>11</v>
+      </c>
+      <c r="H95" s="3">
+        <v>6</v>
+      </c>
+      <c r="I95" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3454,273 +3490,298 @@
       <c r="I96" s="4"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="5">
-        <f>AVERAGE(D91:D96)</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E97" s="5">
-        <f t="shared" ref="E97" si="10">AVERAGE(E91:E96)</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="F97" s="5">
-        <f t="shared" ref="F97" si="11">AVERAGE(F91:F96)</f>
-        <v>7</v>
-      </c>
-      <c r="G97" s="5">
-        <f t="shared" ref="G97" si="12">AVERAGE(G91:G96)</f>
-        <v>13</v>
-      </c>
-      <c r="H97" s="5">
-        <f t="shared" ref="H97" si="13">AVERAGE(H91:H96)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="I97" s="6">
-        <f t="shared" ref="I97" si="14">AVERAGE(I91:I96)</f>
-        <v>70.333333333333329</v>
-      </c>
+      <c r="A97" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="5">
+        <f>AVERAGE(D93:D98)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" ref="E99" si="10">AVERAGE(E93:E98)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" ref="F99" si="11">AVERAGE(F93:F98)</f>
+        <v>7</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" ref="G99" si="12">AVERAGE(G93:G98)</f>
+        <v>13</v>
+      </c>
+      <c r="H99" s="5">
+        <f t="shared" ref="H99" si="13">AVERAGE(H93:H98)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" ref="I99" si="14">AVERAGE(I93:I98)</f>
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I99" s="4" t="s">
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>1</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" s="3">
-        <v>29</v>
-      </c>
-      <c r="E100" s="3">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3">
-        <v>9</v>
-      </c>
-      <c r="G100" s="3">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3">
-        <v>7</v>
-      </c>
-      <c r="I100" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <f>A100+1</f>
-        <v>2</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D101" s="3">
-        <v>28</v>
-      </c>
-      <c r="E101" s="3">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3">
-        <v>9</v>
-      </c>
-      <c r="G101" s="3">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3">
-        <v>7</v>
-      </c>
-      <c r="I101" s="4">
-        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <f t="shared" ref="A102:A104" si="15">A101+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E102" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G102" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H102" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I102" s="4">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
+        <f>A102+1</f>
+        <v>2</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="3">
+        <v>28</v>
+      </c>
+      <c r="E103" s="3">
+        <v>16</v>
+      </c>
+      <c r="F103" s="3">
+        <v>9</v>
+      </c>
+      <c r="G103" s="3">
+        <v>16</v>
+      </c>
+      <c r="H103" s="3">
+        <v>7</v>
+      </c>
+      <c r="I103" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <f t="shared" ref="A104:A106" si="15">A103+1</f>
+        <v>3</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="3">
+        <v>27</v>
+      </c>
+      <c r="E104" s="3">
+        <v>15</v>
+      </c>
+      <c r="F104" s="3">
+        <v>7</v>
+      </c>
+      <c r="G104" s="3">
+        <v>10</v>
+      </c>
+      <c r="H104" s="3">
+        <v>6</v>
+      </c>
+      <c r="I104" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D105" s="3">
         <v>21</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E105" s="3">
         <v>15</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F105" s="3">
         <v>4</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G105" s="3">
         <v>9</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H105" s="3">
         <v>3</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I105" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B108" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C108" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D106" s="9">
-        <f>AVERAGE(D100:D105)</f>
+      <c r="D108" s="9">
+        <f>AVERAGE(D102:D107)</f>
         <v>26.25</v>
       </c>
-      <c r="E106" s="9">
-        <f t="shared" ref="E106" si="16">AVERAGE(E100:E105)</f>
+      <c r="E108" s="9">
+        <f t="shared" ref="E108" si="16">AVERAGE(E102:E107)</f>
         <v>15.5</v>
       </c>
-      <c r="F106" s="9">
-        <f t="shared" ref="F106" si="17">AVERAGE(F100:F105)</f>
+      <c r="F108" s="9">
+        <f t="shared" ref="F108" si="17">AVERAGE(F102:F107)</f>
         <v>7.25</v>
       </c>
-      <c r="G106" s="9">
-        <f t="shared" ref="G106" si="18">AVERAGE(G100:G105)</f>
+      <c r="G108" s="9">
+        <f t="shared" ref="G108" si="18">AVERAGE(G102:G107)</f>
         <v>12.75</v>
       </c>
-      <c r="H106" s="9">
-        <f t="shared" ref="H106" si="19">AVERAGE(H100:H105)</f>
+      <c r="H108" s="9">
+        <f t="shared" ref="H108" si="19">AVERAGE(H102:H107)</f>
         <v>5.75</v>
       </c>
-      <c r="I106" s="10">
-        <f t="shared" ref="I106" si="20">AVERAGE(I100:I105)</f>
+      <c r="I108" s="10">
+        <f t="shared" ref="I108" si="20">AVERAGE(I102:I107)</f>
         <v>67.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I42">
-    <sortCondition descending="1" ref="I6:I42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I43">
+    <sortCondition descending="1" ref="I6:I43"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="A100:I100"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A68:I68"/>
     <mergeCell ref="B1:E3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>

--- a/Composite Score Sheet.xlsx
+++ b/Composite Score Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Desktop\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA96E5-5ED5-44F7-9098-C207977EB101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE768E5-2F06-4319-8D18-278EA1ED6A90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>KK Lightwave</t>
-  </si>
-  <si>
-    <t>Original Aspiration</t>
   </si>
   <si>
     <t>Star Grey</t>
@@ -420,7 +417,10 @@
     <t>BSUN</t>
   </si>
   <si>
-    <t>Original Aspiration V2</t>
+    <t>Original Aspiration (Release)</t>
+  </si>
+  <si>
+    <t>Original Aspiration (Sample)</t>
   </si>
 </sst>
 </file>
@@ -735,25 +735,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,6 +761,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +816,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -845,24 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:B95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,75 +1334,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="32">
+      <c r="H1" s="31">
         <v>57</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="32">
+      <c r="J1" s="31">
         <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="L4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="L4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="53"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1435,31 +1435,31 @@
       <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="62" t="s">
+      <c r="Q5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="62" t="s">
+      <c r="S5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="T5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="U5" s="12"/>
@@ -1469,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="3">
         <v>3</v>
@@ -1530,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>36</v>
@@ -1679,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="3">
         <v>3</v>
@@ -1709,10 +1709,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -1739,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="3">
         <v>2</v>
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1828,10 +1828,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="3">
         <v>15</v>
@@ -1879,7 +1879,7 @@
         <v>5.9</v>
       </c>
       <c r="T12" s="6">
-        <f>SUM(O12:S12)</f>
+        <f t="shared" ref="T12:T17" si="0">SUM(O12:S12)</f>
         <v>65.5</v>
       </c>
     </row>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>29</v>
@@ -1918,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="3">
         <v>11</v>
@@ -1939,7 +1939,7 @@
         <v>6.1</v>
       </c>
       <c r="T13" s="6">
-        <f>SUM(O13:S13)</f>
+        <f t="shared" si="0"/>
         <v>65.199999999999989</v>
       </c>
     </row>
@@ -1948,10 +1948,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
@@ -1978,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14" s="3">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>5.7</v>
       </c>
       <c r="T14" s="6">
-        <f>SUM(O14:S14)</f>
+        <f t="shared" si="0"/>
         <v>61.7</v>
       </c>
     </row>
@@ -2008,13 +2008,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>28</v>
@@ -2038,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15" s="3">
         <v>9</v>
@@ -2059,7 +2059,7 @@
         <v>5.6</v>
       </c>
       <c r="T15" s="6">
-        <f>SUM(O15:S15)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -2068,10 +2068,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>36</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N16" s="3">
         <v>3</v>
@@ -2119,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="T16" s="6">
-        <f>SUM(O16:S16)</f>
+        <f t="shared" si="0"/>
         <v>58.599999999999994</v>
       </c>
     </row>
@@ -2128,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
@@ -2158,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" s="8">
         <v>3</v>
@@ -2179,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="10">
-        <f>SUM(O17:S17)</f>
+        <f t="shared" si="0"/>
         <v>47.000000000000007</v>
       </c>
     </row>
@@ -2188,10 +2188,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -2220,10 +2220,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -2246,17 +2246,17 @@
       <c r="J19" s="4">
         <v>75</v>
       </c>
-      <c r="L19" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
+      <c r="L19" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2266,7 +2266,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>18</v>
@@ -2289,15 +2289,15 @@
       <c r="J20" s="4">
         <v>72</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -2307,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
@@ -2330,25 +2330,25 @@
       <c r="J21" s="4">
         <v>72</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>18</v>
@@ -2371,25 +2371,25 @@
       <c r="J22" s="4">
         <v>70</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>18</v>
@@ -2412,25 +2412,25 @@
       <c r="J23" s="4">
         <v>69</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -2453,25 +2453,25 @@
       <c r="J24" s="4">
         <v>68</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -2494,25 +2494,25 @@
       <c r="J25" s="4">
         <v>68</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
@@ -2535,15 +2535,15 @@
       <c r="J26" s="4">
         <v>67</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -2553,7 +2553,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>21</v>
@@ -2582,10 +2582,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
@@ -2614,13 +2614,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="3">
         <v>27</v>
@@ -2646,10 +2646,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>18</v>
@@ -2678,10 +2678,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -2710,10 +2710,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
@@ -2742,10 +2742,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>36</v>
@@ -2777,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>18</v>
@@ -2809,7 +2809,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>18</v>
@@ -2838,10 +2838,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
@@ -2870,10 +2870,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
@@ -2902,10 +2902,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>18</v>
@@ -2937,7 +2937,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -2966,10 +2966,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -3001,7 +3001,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>36</v>
@@ -3030,10 +3030,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>18</v>
@@ -3094,10 +3094,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
@@ -3126,10 +3126,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
@@ -3158,10 +3158,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
@@ -3190,10 +3190,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>18</v>
@@ -3222,10 +3222,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>21</v>
@@ -3254,10 +3254,10 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
@@ -3286,13 +3286,13 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" s="3">
         <v>22</v>
@@ -3318,10 +3318,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -3353,7 +3353,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -3382,10 +3382,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>18</v>
@@ -3417,7 +3417,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -3446,10 +3446,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -3481,7 +3481,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
@@ -3510,10 +3510,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
@@ -3542,13 +3542,13 @@
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E58" s="3">
         <v>21</v>
@@ -3577,7 +3577,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>23</v>
@@ -3609,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>18</v>
@@ -3638,10 +3638,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>18</v>
@@ -3670,13 +3670,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="3">
         <v>17</v>
@@ -3700,7 +3700,7 @@
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="3"/>
@@ -3750,18 +3750,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="31"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
@@ -3800,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>23</v>
@@ -3832,10 +3832,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
@@ -3864,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>23</v>
@@ -3896,10 +3896,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -3928,10 +3928,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>23</v>
@@ -3960,10 +3960,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -3995,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>23</v>
@@ -4024,10 +4024,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -4056,10 +4056,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>23</v>
@@ -4088,10 +4088,10 @@
         <v>10</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
@@ -4120,10 +4120,10 @@
         <v>11</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>23</v>
@@ -4152,10 +4152,10 @@
         <v>11</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>23</v>
@@ -4184,10 +4184,10 @@
         <v>13</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>23</v>
@@ -4216,10 +4216,10 @@
         <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
@@ -4248,10 +4248,10 @@
         <v>14</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>23</v>
@@ -4283,7 +4283,7 @@
         <v>24</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>23</v>
@@ -4312,10 +4312,10 @@
         <v>16</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>23</v>
@@ -4344,10 +4344,10 @@
         <v>18</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>23</v>
@@ -4376,10 +4376,10 @@
         <v>18</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>23</v>
@@ -4408,10 +4408,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>23</v>
@@ -4440,10 +4440,10 @@
         <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>23</v>
@@ -4475,7 +4475,7 @@
         <v>26</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>23</v>
@@ -4504,10 +4504,10 @@
         <v>22</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>23</v>
@@ -4536,10 +4536,10 @@
         <v>22</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>23</v>
@@ -4571,7 +4571,7 @@
         <v>37</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>23</v>
@@ -4600,10 +4600,10 @@
         <v>25</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>23</v>
@@ -4635,7 +4635,7 @@
         <v>25</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>23</v>
@@ -4664,10 +4664,10 @@
         <v>28</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>23</v>
@@ -4699,7 +4699,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>23</v>
@@ -4749,43 +4749,43 @@
         <v>30</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" ref="E97:J97" si="0">AVERAGE(E67:E96)</f>
+        <f t="shared" ref="E97:J97" si="1">AVERAGE(E67:E96)</f>
         <v>26</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.344827586206897</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6896551724137927</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.827586206896552</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7931034482758621</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.65517241379311</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="31"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="36"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>2</v>
@@ -4824,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>18</v>
@@ -4856,10 +4856,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>18</v>
@@ -4888,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>18</v>
@@ -4923,7 +4923,7 @@
         <v>34</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>18</v>
@@ -4952,10 +4952,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>18</v>
@@ -4984,10 +4984,10 @@
         <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>18</v>
@@ -5016,10 +5016,10 @@
         <v>7</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>18</v>
@@ -5051,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>18</v>
@@ -5083,7 +5083,7 @@
         <v>31</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>18</v>
@@ -5112,10 +5112,10 @@
         <v>10</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>18</v>
@@ -5147,7 +5147,7 @@
         <v>17</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>18</v>
@@ -5176,10 +5176,10 @@
         <v>12</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>18</v>
@@ -5208,10 +5208,10 @@
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>18</v>
@@ -5243,7 +5243,7 @@
         <v>27</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>18</v>
@@ -5272,10 +5272,10 @@
         <v>15</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>18</v>
@@ -5325,43 +5325,43 @@
         <v>30</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" ref="E116:J116" si="1">AVERAGE(E100:E115)</f>
+        <f t="shared" ref="E116:J116" si="2">AVERAGE(E100:E115)</f>
         <v>25.666666666666668</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.933333333333334</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.666666666666667</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.733333333333333</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0666666666666664</v>
       </c>
       <c r="J116" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.066666666666663</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="31"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="36"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>2</v>
@@ -5400,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>36</v>
@@ -5432,10 +5432,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>36</v>
@@ -5464,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>36</v>
@@ -5499,7 +5499,7 @@
         <v>35</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>36</v>
@@ -5567,39 +5567,39 @@
         <v>26</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" ref="F125" si="2">AVERAGE(F119:F124)</f>
+        <f t="shared" ref="F125" si="3">AVERAGE(F119:F124)</f>
         <v>19</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" ref="G125" si="3">AVERAGE(G119:G124)</f>
+        <f t="shared" ref="G125" si="4">AVERAGE(G119:G124)</f>
         <v>7</v>
       </c>
       <c r="H125" s="5">
-        <f t="shared" ref="H125" si="4">AVERAGE(H119:H124)</f>
+        <f t="shared" ref="H125" si="5">AVERAGE(H119:H124)</f>
         <v>12.5</v>
       </c>
       <c r="I125" s="5">
-        <f t="shared" ref="I125" si="5">AVERAGE(I119:I124)</f>
+        <f t="shared" ref="I125" si="6">AVERAGE(I119:I124)</f>
         <v>6.25</v>
       </c>
       <c r="J125" s="6">
-        <f t="shared" ref="J125" si="6">AVERAGE(J119:J124)</f>
+        <f t="shared" ref="J125" si="7">AVERAGE(J119:J124)</f>
         <v>70.75</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="30"/>
-      <c r="J126" s="31"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="36"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>2</v>
@@ -5641,7 +5641,7 @@
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>21</v>
@@ -5674,7 +5674,7 @@
         <v>33</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>21</v>
@@ -5700,14 +5700,14 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <f t="shared" ref="A130:A132" si="7">A129+1</f>
+        <f t="shared" ref="A130:A132" si="8">A129+1</f>
         <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>21</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B131" s="3"/>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B132" s="3"/>
@@ -5791,39 +5791,39 @@
         <v>25.333333333333332</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" ref="F134" si="8">AVERAGE(F128:F133)</f>
+        <f t="shared" ref="F134" si="9">AVERAGE(F128:F133)</f>
         <v>18.333333333333332</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" ref="G134" si="9">AVERAGE(G128:G133)</f>
+        <f t="shared" ref="G134" si="10">AVERAGE(G128:G133)</f>
         <v>7</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" ref="H134" si="10">AVERAGE(H128:H133)</f>
+        <f t="shared" ref="H134" si="11">AVERAGE(H128:H133)</f>
         <v>13</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" ref="I134" si="11">AVERAGE(I128:I133)</f>
+        <f t="shared" ref="I134" si="12">AVERAGE(I128:I133)</f>
         <v>6.666666666666667</v>
       </c>
       <c r="J134" s="6">
-        <f t="shared" ref="J134" si="12">AVERAGE(J128:J133)</f>
+        <f t="shared" ref="J134" si="13">AVERAGE(J128:J133)</f>
         <v>70.333333333333329</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="30"/>
-      <c r="J135" s="31"/>
+      <c r="A135" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="36"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>2</v>
@@ -5862,13 +5862,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E137" s="3">
         <v>29</v>
@@ -5894,13 +5894,13 @@
         <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E138" s="3">
         <v>28</v>
@@ -5926,13 +5926,13 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E139" s="3">
         <v>27</v>
@@ -5958,13 +5958,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140" s="3">
         <v>22</v>
@@ -5990,13 +5990,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E141" s="3">
         <v>21</v>
@@ -6022,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E142" s="3">
         <v>17</v>
@@ -6079,15 +6079,15 @@
         <v>24</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" ref="F144" si="13">AVERAGE(F137:F143)</f>
+        <f t="shared" ref="F144" si="14">AVERAGE(F137:F143)</f>
         <v>14.833333333333334</v>
       </c>
       <c r="G144" s="9">
-        <f t="shared" ref="G144" si="14">AVERAGE(G137:G143)</f>
+        <f t="shared" ref="G144" si="15">AVERAGE(G137:G143)</f>
         <v>6</v>
       </c>
       <c r="H144" s="9">
-        <f t="shared" ref="H144" si="15">AVERAGE(H137:H143)</f>
+        <f t="shared" ref="H144" si="16">AVERAGE(H137:H143)</f>
         <v>11.5</v>
       </c>
       <c r="I144" s="9">
@@ -6095,7 +6095,7 @@
         <v>5.5</v>
       </c>
       <c r="J144" s="10">
-        <f t="shared" ref="J144" si="16">AVERAGE(J137:J143)</f>
+        <f t="shared" ref="J144" si="17">AVERAGE(J137:J143)</f>
         <v>61.833333333333336</v>
       </c>
     </row>
@@ -6104,6 +6104,11 @@
     <sortCondition descending="1" ref="J67:J95"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="L19:T26"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="A135:J135"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A65:J65"/>
@@ -6113,11 +6118,6 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="L19:T26"/>
-    <mergeCell ref="A117:J117"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A135:J135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6129,8 +6129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598AF137-30E9-4909-9AB7-30B467CB99AB}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6150,61 +6150,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="32">
+      <c r="H1" s="31">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="J4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="J4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -6231,25 +6231,25 @@
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="67" t="s">
+      <c r="O5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6258,10 +6258,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -6276,14 +6276,14 @@
         <v>9</v>
       </c>
       <c r="H6" s="4">
-        <f>SUM(E6:G6)</f>
+        <f t="shared" ref="H6:H37" si="0">SUM(E6:G6)</f>
         <v>63</v>
       </c>
       <c r="J6" s="16">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="3">
         <v>3</v>
@@ -6298,7 +6298,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="P6" s="18">
-        <f>SUM(M6:O6)</f>
+        <f t="shared" ref="P6:P17" si="1">SUM(M6:O6)</f>
         <v>61.3</v>
       </c>
     </row>
@@ -6307,10 +6307,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -6325,14 +6325,14 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>SUM(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="J7" s="16">
         <v>2</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="17">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>8</v>
       </c>
       <c r="P7" s="18">
-        <f>SUM(M7:O7)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
@@ -6374,14 +6374,14 @@
         <v>9</v>
       </c>
       <c r="H8" s="4">
-        <f>SUM(E8:G8)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="J8" s="16">
         <v>3</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="17">
         <v>2</v>
@@ -6396,7 +6396,7 @@
         <v>6.5</v>
       </c>
       <c r="P8" s="18">
-        <f>SUM(M8:O8)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
@@ -6405,10 +6405,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>36</v>
@@ -6423,14 +6423,14 @@
         <v>9</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(E9:G9)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="J9" s="16">
         <v>4</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="17">
         <v>3</v>
@@ -6445,7 +6445,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="18">
-        <f>SUM(M9:O9)</f>
+        <f t="shared" si="1"/>
         <v>50.7</v>
       </c>
     </row>
@@ -6454,10 +6454,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -6472,14 +6472,14 @@
         <v>8</v>
       </c>
       <c r="H10" s="4">
-        <f>SUM(E10:G10)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="J10" s="16">
         <v>5</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="17">
         <v>1</v>
@@ -6494,7 +6494,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="18">
-        <f>SUM(M10:O10)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -6503,10 +6503,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -6521,14 +6521,14 @@
         <v>8</v>
       </c>
       <c r="H11" s="4">
-        <f>SUM(E11:G11)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="J11" s="16">
         <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
@@ -6543,7 +6543,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="18">
-        <f>SUM(M11:O11)</f>
+        <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
     </row>
@@ -6552,10 +6552,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -6570,14 +6570,14 @@
         <v>6</v>
       </c>
       <c r="H12" s="4">
-        <f>SUM(E12:G12)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="J12" s="16">
         <v>7</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="3">
         <v>15</v>
@@ -6592,7 +6592,7 @@
         <v>5.9</v>
       </c>
       <c r="P12" s="18">
-        <f>SUM(M12:O12)</f>
+        <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
     </row>
@@ -6601,10 +6601,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -6619,14 +6619,14 @@
         <v>7</v>
       </c>
       <c r="H13" s="4">
-        <f>SUM(E13:G13)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="J13" s="16">
         <v>8</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="17">
         <v>11</v>
@@ -6641,7 +6641,7 @@
         <v>6.3</v>
       </c>
       <c r="P13" s="18">
-        <f>SUM(M13:O13)</f>
+        <f t="shared" si="1"/>
         <v>46.599999999999994</v>
       </c>
     </row>
@@ -6650,10 +6650,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
@@ -6668,14 +6668,14 @@
         <v>8</v>
       </c>
       <c r="H14" s="4">
-        <f>SUM(E14:G14)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="J14" s="16">
         <v>9</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="17">
         <v>3</v>
@@ -6690,7 +6690,7 @@
         <v>5.7</v>
       </c>
       <c r="P14" s="18">
-        <f>SUM(M14:O14)</f>
+        <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
@@ -6699,10 +6699,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -6717,14 +6717,14 @@
         <v>7</v>
       </c>
       <c r="H15" s="4">
-        <f>SUM(E15:G15)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="J15" s="16">
         <v>10</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="17">
         <v>9</v>
@@ -6739,7 +6739,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="18">
-        <f>SUM(M15:O15)</f>
+        <f t="shared" si="1"/>
         <v>44.3</v>
       </c>
     </row>
@@ -6748,10 +6748,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -6766,14 +6766,14 @@
         <v>7</v>
       </c>
       <c r="H16" s="4">
-        <f>SUM(E16:G16)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="J16" s="16">
         <v>11</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" s="17">
         <v>3</v>
@@ -6788,7 +6788,7 @@
         <v>5</v>
       </c>
       <c r="P16" s="18">
-        <f>SUM(M16:O16)</f>
+        <f t="shared" si="1"/>
         <v>41.3</v>
       </c>
     </row>
@@ -6797,10 +6797,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
@@ -6815,14 +6815,14 @@
         <v>6</v>
       </c>
       <c r="H17" s="4">
-        <f>SUM(E17:G17)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="J17" s="19">
         <v>12</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="20">
         <v>3</v>
@@ -6837,7 +6837,7 @@
         <v>3.6</v>
       </c>
       <c r="P17" s="21">
-        <f>SUM(M17:O17)</f>
+        <f t="shared" si="1"/>
         <v>36.300000000000004</v>
       </c>
     </row>
@@ -6846,13 +6846,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3">
         <v>29</v>
@@ -6864,7 +6864,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="4">
-        <f>SUM(E18:G18)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -6873,13 +6873,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3">
         <v>28</v>
@@ -6891,18 +6891,18 @@
         <v>9</v>
       </c>
       <c r="H19" s="4">
-        <f>SUM(E19:G19)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="J19" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
+      <c r="J19" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -6912,7 +6912,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>18</v>
@@ -6927,26 +6927,26 @@
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <f>SUM(E20:G20)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>18</v>
@@ -6961,26 +6961,26 @@
         <v>7</v>
       </c>
       <c r="H21" s="4">
-        <f>SUM(E21:G21)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -6995,16 +6995,16 @@
         <v>6</v>
       </c>
       <c r="H22" s="4">
-        <f>SUM(E22:G22)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -7014,7 +7014,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
@@ -7029,26 +7029,26 @@
         <v>8</v>
       </c>
       <c r="H23" s="4">
-        <f>SUM(E23:G23)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="61"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -7063,29 +7063,29 @@
         <v>4</v>
       </c>
       <c r="H24" s="4">
-        <f>SUM(E24:G24)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="3">
         <v>27</v>
@@ -7097,26 +7097,26 @@
         <v>7</v>
       </c>
       <c r="H25" s="4">
-        <f>SUM(E25:G25)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="64"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
@@ -7131,7 +7131,7 @@
         <v>6</v>
       </c>
       <c r="H26" s="4">
-        <f>SUM(E26:G26)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -7140,10 +7140,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>36</v>
@@ -7158,7 +7158,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="4">
-        <f>SUM(E27:G27)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
@@ -7185,7 +7185,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="4">
-        <f>SUM(E28:G28)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7194,10 +7194,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
@@ -7212,7 +7212,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="4">
-        <f>SUM(E29:G29)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7221,10 +7221,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
@@ -7239,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="4">
-        <f>SUM(E30:G30)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7248,10 +7248,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -7266,7 +7266,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="4">
-        <f>SUM(E31:G31)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>18</v>
@@ -7293,7 +7293,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="4">
-        <f>SUM(E32:G32)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7302,10 +7302,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
@@ -7320,7 +7320,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="4">
-        <f>SUM(E33:G33)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -7332,7 +7332,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>18</v>
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="4">
-        <f>SUM(E34:G34)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -7356,10 +7356,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
@@ -7374,7 +7374,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="4">
-        <f>SUM(E35:G35)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -7383,10 +7383,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
@@ -7401,7 +7401,7 @@
         <v>6</v>
       </c>
       <c r="H36" s="4">
-        <f>SUM(E36:G36)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -7410,10 +7410,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>18</v>
@@ -7428,7 +7428,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="4">
-        <f>SUM(E37:G37)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>18</v>
@@ -7455,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="4">
-        <f>SUM(E38:G38)</f>
+        <f t="shared" ref="H38:H69" si="2">SUM(E38:G38)</f>
         <v>45</v>
       </c>
     </row>
@@ -7464,10 +7464,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -7482,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="4">
-        <f>SUM(E39:G39)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -7509,7 +7509,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="4">
-        <f>SUM(E40:G40)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
@@ -7518,10 +7518,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
@@ -7536,7 +7536,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="4">
-        <f>SUM(E41:G41)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
@@ -7545,10 +7545,10 @@
         <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>18</v>
@@ -7563,7 +7563,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="4">
-        <f>SUM(E42:G42)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>36</v>
@@ -7590,7 +7590,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f>SUM(E43:G43)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -7599,10 +7599,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>18</v>
@@ -7617,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="4">
-        <f>SUM(E44:G44)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -7626,10 +7626,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
@@ -7644,7 +7644,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="4">
-        <f>SUM(E45:G45)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>23</v>
@@ -7671,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="4">
-        <f>SUM(E46:G46)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -7680,10 +7680,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>18</v>
@@ -7698,7 +7698,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="4">
-        <f>SUM(E47:G47)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -7707,10 +7707,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>21</v>
@@ -7725,7 +7725,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="4">
-        <f>SUM(E48:G48)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -7734,10 +7734,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
@@ -7752,7 +7752,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="4">
-        <f>SUM(E49:G49)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -7779,7 +7779,7 @@
         <v>6</v>
       </c>
       <c r="H50" s="4">
-        <f>SUM(E50:G50)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -7788,10 +7788,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -7806,7 +7806,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="4">
-        <f>SUM(E51:G51)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7815,10 +7815,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -7833,7 +7833,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="4">
-        <f>SUM(E52:G52)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7842,10 +7842,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="4">
-        <f>SUM(E53:G53)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7869,10 +7869,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -7887,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="4">
-        <f>SUM(E54:G54)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7896,10 +7896,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -7914,7 +7914,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="4">
-        <f>SUM(E55:G55)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7923,13 +7923,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E56" s="3">
         <v>21</v>
@@ -7941,7 +7941,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="4">
-        <f>SUM(E56:G56)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -7950,13 +7950,13 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" s="3">
         <v>22</v>
@@ -7968,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="4">
-        <f>SUM(E57:G57)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>23</v>
@@ -7995,7 +7995,7 @@
         <v>5</v>
       </c>
       <c r="H58" s="4">
-        <f>SUM(E58:G58)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>23</v>
@@ -8022,7 +8022,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="4">
-        <f>SUM(E59:G59)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
@@ -8031,10 +8031,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>18</v>
@@ -8049,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="4">
-        <f>SUM(E60:G60)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -8058,13 +8058,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" s="3">
         <v>17</v>
@@ -8076,7 +8076,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="4">
-        <f>SUM(E61:G61)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>18</v>
@@ -8103,14 +8103,14 @@
         <v>6</v>
       </c>
       <c r="H62" s="4">
-        <f>SUM(E62:G62)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="3"/>
@@ -8137,11 +8137,11 @@
         <v>25.666666666666668</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" ref="F64:G64" si="0">AVERAGE(F6:F63)</f>
+        <f t="shared" ref="F64:G64" si="3">AVERAGE(F6:F63)</f>
         <v>15.859649122807017</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8771929824561404</v>
       </c>
       <c r="H64" s="6">
@@ -8150,16 +8150,16 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
@@ -8192,10 +8192,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>23</v>
@@ -8219,10 +8219,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
@@ -8246,10 +8246,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>23</v>
@@ -8273,10 +8273,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -8300,10 +8300,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>23</v>
@@ -8326,10 +8326,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -8344,7 +8344,7 @@
         <v>7</v>
       </c>
       <c r="H72" s="4">
-        <f>SUM(E72:G72)</f>
+        <f t="shared" ref="H72:H92" si="4">SUM(E72:G72)</f>
         <v>55</v>
       </c>
     </row>
@@ -8353,10 +8353,10 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>23</v>
@@ -8371,7 +8371,7 @@
         <v>6</v>
       </c>
       <c r="H73" s="4">
-        <f>SUM(E73:G73)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -8380,10 +8380,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -8398,7 +8398,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="4">
-        <f>SUM(E74:G74)</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
     </row>
@@ -8410,7 +8410,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>23</v>
@@ -8425,7 +8425,7 @@
         <v>6</v>
       </c>
       <c r="H75" s="4">
-        <f>SUM(E75:G75)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -8434,10 +8434,10 @@
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
@@ -8452,7 +8452,7 @@
         <v>6</v>
       </c>
       <c r="H76" s="4">
-        <f>SUM(E76:G76)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -8461,10 +8461,10 @@
         <v>9</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>23</v>
@@ -8479,7 +8479,7 @@
         <v>7</v>
       </c>
       <c r="H77" s="4">
-        <f>SUM(E77:G77)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -8488,10 +8488,10 @@
         <v>9</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>23</v>
@@ -8506,7 +8506,7 @@
         <v>7</v>
       </c>
       <c r="H78" s="4">
-        <f>SUM(E78:G78)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -8515,10 +8515,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>23</v>
@@ -8533,7 +8533,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="4">
-        <f>SUM(E79:G79)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -8542,10 +8542,10 @@
         <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
@@ -8560,7 +8560,7 @@
         <v>6</v>
       </c>
       <c r="H80" s="4">
-        <f>SUM(E80:G80)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
@@ -8569,10 +8569,10 @@
         <v>14</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>23</v>
@@ -8587,7 +8587,7 @@
         <v>6</v>
       </c>
       <c r="H81" s="4">
-        <f>SUM(E81:G81)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
@@ -8596,10 +8596,10 @@
         <v>16</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>23</v>
@@ -8614,7 +8614,7 @@
         <v>5</v>
       </c>
       <c r="H82" s="4">
-        <f>SUM(E82:G82)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v>37</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>23</v>
@@ -8641,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="H83" s="4">
-        <f>SUM(E83:G83)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
@@ -8650,10 +8650,10 @@
         <v>17</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>23</v>
@@ -8668,7 +8668,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="4">
-        <f>SUM(E84:G84)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>23</v>
@@ -8695,7 +8695,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="4">
-        <f>SUM(E85:G85)</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
@@ -8704,10 +8704,10 @@
         <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>23</v>
@@ -8722,7 +8722,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="4">
-        <f>SUM(E86:G86)</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
@@ -8731,10 +8731,10 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>23</v>
@@ -8749,7 +8749,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="4">
-        <f>SUM(E87:G87)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
         <v>26</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>23</v>
@@ -8776,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="H88" s="4">
-        <f>SUM(E88:G88)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
@@ -8785,10 +8785,10 @@
         <v>23</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>23</v>
@@ -8803,7 +8803,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="4">
-        <f>SUM(E89:G89)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>23</v>
@@ -8830,7 +8830,7 @@
         <v>5</v>
       </c>
       <c r="H90" s="4">
-        <f>SUM(E90:G90)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -8839,10 +8839,10 @@
         <v>23</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>23</v>
@@ -8857,7 +8857,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4">
-        <f>SUM(E91:G91)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -8866,10 +8866,10 @@
         <v>23</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>23</v>
@@ -8884,7 +8884,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="4">
-        <f>SUM(E92:G92)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -8893,10 +8893,10 @@
         <v>23</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>23</v>
@@ -8922,7 +8922,7 @@
         <v>25</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>23</v>
@@ -8949,7 +8949,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>23</v>
@@ -9009,16 +9009,16 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="31"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="36"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>2</v>
@@ -9051,10 +9051,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>18</v>
@@ -9069,7 +9069,7 @@
         <v>8</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H107" si="1">SUM(E100:G100)</f>
+        <f t="shared" ref="H100:H107" si="5">SUM(E100:G100)</f>
         <v>63</v>
       </c>
     </row>
@@ -9078,10 +9078,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>18</v>
@@ -9096,7 +9096,7 @@
         <v>8</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
     </row>
@@ -9105,10 +9105,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>18</v>
@@ -9123,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
         <v>34</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>18</v>
@@ -9150,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
@@ -9159,10 +9159,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>18</v>
@@ -9177,7 +9177,7 @@
         <v>7</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
@@ -9186,10 +9186,10 @@
         <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>18</v>
@@ -9204,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
         <v>31</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>18</v>
@@ -9231,7 +9231,7 @@
         <v>7</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
         <v>19</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>18</v>
@@ -9258,7 +9258,7 @@
         <v>7</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
@@ -9267,10 +9267,10 @@
         <v>9</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>18</v>
@@ -9296,7 +9296,7 @@
         <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>18</v>
@@ -9311,7 +9311,7 @@
         <v>5</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" ref="H109:H114" si="2">SUM(E109:G109)</f>
+        <f t="shared" ref="H109:H114" si="6">SUM(E109:G109)</f>
         <v>45</v>
       </c>
     </row>
@@ -9320,10 +9320,10 @@
         <v>11</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>18</v>
@@ -9338,7 +9338,7 @@
         <v>6</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
@@ -9347,10 +9347,10 @@
         <v>12</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>18</v>
@@ -9365,7 +9365,7 @@
         <v>4</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -9374,10 +9374,10 @@
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>18</v>
@@ -9392,7 +9392,7 @@
         <v>3</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
@@ -9401,10 +9401,10 @@
         <v>14</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>18</v>
@@ -9419,7 +9419,7 @@
         <v>3</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
         <v>27</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>18</v>
@@ -9446,7 +9446,7 @@
         <v>6</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -9491,16 +9491,16 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="31"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="36"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>2</v>
@@ -9533,10 +9533,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>36</v>
@@ -9560,10 +9560,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>36</v>
@@ -9587,10 +9587,10 @@
         <v>3</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>36</v>
@@ -9617,7 +9617,7 @@
         <v>35</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>36</v>
@@ -9676,29 +9676,29 @@
         <v>26</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" ref="F125:H125" si="3">AVERAGE(F119:F124)</f>
+        <f t="shared" ref="F125:H125" si="7">AVERAGE(F119:F124)</f>
         <v>19</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="31"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="36"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>2</v>
@@ -9734,7 +9734,7 @@
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>21</v>
@@ -9762,7 +9762,7 @@
         <v>33</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>21</v>
@@ -9777,20 +9777,20 @@
         <v>8</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" ref="H129:H130" si="4">SUM(E129:G129)</f>
+        <f t="shared" ref="H129:H130" si="8">SUM(E129:G129)</f>
         <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <f t="shared" ref="A130:A132" si="5">A129+1</f>
+        <f t="shared" ref="A130:A132" si="9">A129+1</f>
         <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>21</v>
@@ -9805,13 +9805,13 @@
         <v>4</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B131" s="3"/>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B132" s="3"/>
@@ -9863,29 +9863,29 @@
         <v>25.333333333333332</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" ref="F134:H134" si="6">AVERAGE(F128:F133)</f>
+        <f t="shared" ref="F134:H134" si="10">AVERAGE(F128:F133)</f>
         <v>18.333333333333332</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>50.666666666666664</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="31"/>
+      <c r="A135" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="36"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>2</v>
@@ -9918,13 +9918,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E137" s="3">
         <v>29</v>
@@ -9936,7 +9936,7 @@
         <v>9</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" ref="H137:H142" si="7">SUM(E137:G137)</f>
+        <f t="shared" ref="H137:H142" si="11">SUM(E137:G137)</f>
         <v>54</v>
       </c>
     </row>
@@ -9945,13 +9945,13 @@
         <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E138" s="3">
         <v>28</v>
@@ -9963,7 +9963,7 @@
         <v>9</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
     </row>
@@ -9972,13 +9972,13 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E139" s="3">
         <v>27</v>
@@ -9990,7 +9990,7 @@
         <v>7</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
     </row>
@@ -9999,13 +9999,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E140" s="3">
         <v>21</v>
@@ -10017,7 +10017,7 @@
         <v>4</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
     </row>
@@ -10026,13 +10026,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E141" s="3">
         <v>22</v>
@@ -10044,7 +10044,7 @@
         <v>4</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
     </row>
@@ -10053,13 +10053,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E142" s="3">
         <v>17</v>
@@ -10071,7 +10071,7 @@
         <v>3</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
     </row>
@@ -10103,15 +10103,15 @@
         <v>24</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" ref="F144:H144" si="8">AVERAGE(F137:F143)</f>
+        <f t="shared" ref="F144:H144" si="12">AVERAGE(F137:F143)</f>
         <v>14.833333333333334</v>
       </c>
       <c r="G144" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H144" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44.833333333333336</v>
       </c>
     </row>
@@ -10120,6 +10120,11 @@
     <sortCondition descending="1" ref="H67:H95"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="J19:P25"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A98:H98"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:F3"/>
     <mergeCell ref="G1:G3"/>
@@ -10127,11 +10132,6 @@
     <mergeCell ref="A135:H135"/>
     <mergeCell ref="A117:H117"/>
     <mergeCell ref="A126:H126"/>
-    <mergeCell ref="J19:P25"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A98:H98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10143,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCE763-F0AB-480A-A4FA-EA2416D60EF6}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10163,56 +10163,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="I4" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="I4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -10236,22 +10236,22 @@
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="12"/>
@@ -10261,10 +10261,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -10276,14 +10276,14 @@
         <v>8</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(E6:F6)</f>
+        <f t="shared" ref="G6:G37" si="0">SUM(E6:F6)</f>
         <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3">
         <v>3</v>
@@ -10295,7 +10295,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="N6" s="6">
-        <f>SUM(L6:M6)</f>
+        <f t="shared" ref="N6:N17" si="1">SUM(L6:M6)</f>
         <v>23.3</v>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -10319,14 +10319,14 @@
         <v>9</v>
       </c>
       <c r="G7" s="4">
-        <f>SUM(E7:F7)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -10338,7 +10338,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="6">
-        <f>SUM(L7:M7)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -10350,7 +10350,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -10362,14 +10362,14 @@
         <v>8</v>
       </c>
       <c r="G8" s="4">
-        <f>SUM(E8:F8)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="3">
         <v>2</v>
@@ -10381,7 +10381,7 @@
         <v>6.5</v>
       </c>
       <c r="N8" s="6">
-        <f>SUM(L8:M8)</f>
+        <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
     </row>
@@ -10390,10 +10390,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -10405,14 +10405,14 @@
         <v>9</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(E9:F9)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I9" s="2">
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="3">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="6">
-        <f>SUM(L9:M9)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -10433,10 +10433,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -10448,14 +10448,14 @@
         <v>8</v>
       </c>
       <c r="G10" s="4">
-        <f>SUM(E10:F10)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="3">
         <v>3</v>
@@ -10467,7 +10467,7 @@
         <v>5.7</v>
       </c>
       <c r="N10" s="6">
-        <f>SUM(L10:M10)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -10476,13 +10476,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <v>16</v>
@@ -10491,14 +10491,14 @@
         <v>7</v>
       </c>
       <c r="G11" s="4">
-        <f>SUM(E11:F11)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I11" s="2">
         <v>6</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="3">
         <v>11</v>
@@ -10510,7 +10510,7 @@
         <v>6.1</v>
       </c>
       <c r="N11" s="6">
-        <f>SUM(L11:M11)</f>
+        <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -10519,13 +10519,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -10534,14 +10534,14 @@
         <v>7</v>
       </c>
       <c r="G12" s="4">
-        <f>SUM(E12:F12)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I12" s="2">
         <v>7</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="6">
-        <f>SUM(L12:M12)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -10562,10 +10562,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -10577,14 +10577,14 @@
         <v>8</v>
       </c>
       <c r="G13" s="4">
-        <f>SUM(E13:F13)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I13" s="2">
         <v>8</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K13" s="3">
         <v>15</v>
@@ -10596,7 +10596,7 @@
         <v>5.9</v>
       </c>
       <c r="N13" s="6">
-        <f>SUM(L13:M13)</f>
+        <f t="shared" si="1"/>
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -10605,10 +10605,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
@@ -10620,14 +10620,14 @@
         <v>8</v>
       </c>
       <c r="G14" s="4">
-        <f>SUM(E14:F14)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I14" s="2">
         <v>9</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="3">
         <v>3</v>
@@ -10639,7 +10639,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="6">
-        <f>SUM(L14:M14)</f>
+        <f t="shared" si="1"/>
         <v>17.3</v>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
@@ -10663,14 +10663,14 @@
         <v>8</v>
       </c>
       <c r="G15" s="4">
-        <f>SUM(E15:F15)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="3">
         <v>9</v>
@@ -10682,7 +10682,7 @@
         <v>5.6</v>
       </c>
       <c r="N15" s="6">
-        <f>SUM(L15:M15)</f>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
     </row>
@@ -10691,10 +10691,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
@@ -10706,14 +10706,14 @@
         <v>7</v>
       </c>
       <c r="G16" s="4">
-        <f>SUM(E16:F16)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I16" s="2">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="3">
         <v>3</v>
@@ -10725,7 +10725,7 @@
         <v>5.7</v>
       </c>
       <c r="N16" s="6">
-        <f>SUM(L16:M16)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -10734,10 +10734,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
@@ -10749,14 +10749,14 @@
         <v>7</v>
       </c>
       <c r="G17" s="4">
-        <f>SUM(E17:F17)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I17" s="7">
         <v>12</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="8">
         <v>3</v>
@@ -10768,7 +10768,7 @@
         <v>4</v>
       </c>
       <c r="N17" s="10">
-        <f>SUM(L17:M17)</f>
+        <f t="shared" si="1"/>
         <v>10.7</v>
       </c>
       <c r="O17" s="12"/>
@@ -10779,10 +10779,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -10794,7 +10794,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="4">
-        <f>SUM(E18:F18)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="O18" s="22"/>
@@ -10805,10 +10805,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
@@ -10820,17 +10820,17 @@
         <v>7</v>
       </c>
       <c r="G19" s="4">
-        <f>SUM(E19:F19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="I19" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="22"/>
       <c r="P19" s="12"/>
     </row>
@@ -10839,10 +10839,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>18</v>
@@ -10854,15 +10854,15 @@
         <v>7</v>
       </c>
       <c r="G20" s="4">
-        <f>SUM(E20:F20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
       <c r="O20" s="22"/>
       <c r="P20" s="12"/>
     </row>
@@ -10871,10 +10871,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
@@ -10886,15 +10886,15 @@
         <v>6</v>
       </c>
       <c r="G21" s="4">
-        <f>SUM(E21:F21)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
       <c r="O21" s="22"/>
       <c r="P21" s="12"/>
     </row>
@@ -10903,10 +10903,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -10918,15 +10918,15 @@
         <v>7</v>
       </c>
       <c r="G22" s="4">
-        <f>SUM(E22:F22)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="22"/>
       <c r="P22" s="12"/>
     </row>
@@ -10935,10 +10935,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
@@ -10950,15 +10950,15 @@
         <v>7</v>
       </c>
       <c r="G23" s="4">
-        <f>SUM(E23:F23)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="22"/>
       <c r="P23" s="12"/>
     </row>
@@ -10967,10 +10967,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -10982,15 +10982,15 @@
         <v>7</v>
       </c>
       <c r="G24" s="4">
-        <f>SUM(E24:F24)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="22"/>
       <c r="P24" s="12"/>
     </row>
@@ -10999,10 +10999,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>36</v>
@@ -11014,15 +11014,15 @@
         <v>7</v>
       </c>
       <c r="G25" s="4">
-        <f>SUM(E25:F25)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
@@ -11031,10 +11031,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
@@ -11046,7 +11046,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="4">
-        <f>SUM(E26:F26)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -11055,10 +11055,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
@@ -11070,7 +11070,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="4">
-        <f>SUM(E27:F27)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -11079,10 +11079,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>18</v>
@@ -11094,7 +11094,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="4">
-        <f>SUM(E28:F28)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11106,7 +11106,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
@@ -11118,7 +11118,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="4">
-        <f>SUM(E29:F29)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
@@ -11142,7 +11142,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="4">
-        <f>SUM(E30:F30)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11151,10 +11151,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -11166,7 +11166,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="4">
-        <f>SUM(E31:F31)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11175,13 +11175,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="3">
         <v>12</v>
@@ -11190,7 +11190,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="4">
-        <f>SUM(E32:F32)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11199,10 +11199,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
@@ -11214,7 +11214,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="4">
-        <f>SUM(E33:F33)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11223,10 +11223,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
@@ -11238,7 +11238,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="4">
-        <f>SUM(E34:F34)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11250,7 +11250,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>18</v>
@@ -11262,7 +11262,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="4">
-        <f>SUM(E35:F35)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11271,10 +11271,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
@@ -11286,7 +11286,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="4">
-        <f>SUM(E36:F36)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>36</v>
@@ -11310,7 +11310,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="4">
-        <f>SUM(E37:F37)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11319,10 +11319,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>21</v>
@@ -11334,7 +11334,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="4">
-        <f>SUM(E38:F38)</f>
+        <f t="shared" ref="G38:G69" si="2">SUM(E38:F38)</f>
         <v>17</v>
       </c>
     </row>
@@ -11343,10 +11343,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -11358,7 +11358,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="4">
-        <f>SUM(E39:F39)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -11367,10 +11367,10 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -11382,7 +11382,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="4">
-        <f>SUM(E40:F40)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -11391,10 +11391,10 @@
         <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
@@ -11406,7 +11406,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="4">
-        <f>SUM(E41:F41)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -11415,13 +11415,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="3">
         <v>10</v>
@@ -11430,7 +11430,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="4">
-        <f>SUM(E42:F42)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11439,10 +11439,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>36</v>
@@ -11454,7 +11454,7 @@
         <v>6</v>
       </c>
       <c r="G43" s="4">
-        <f>SUM(E43:F43)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11463,10 +11463,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>18</v>
@@ -11478,7 +11478,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="4">
-        <f>SUM(E44:F44)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
@@ -11502,7 +11502,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="4">
-        <f>SUM(E45:F45)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11511,10 +11511,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>18</v>
@@ -11526,7 +11526,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="4">
-        <f>SUM(E46:F46)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11535,10 +11535,10 @@
         <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>18</v>
@@ -11550,7 +11550,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="4">
-        <f>SUM(E47:F47)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11559,10 +11559,10 @@
         <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -11574,7 +11574,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="4">
-        <f>SUM(E48:F48)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>18</v>
@@ -11598,7 +11598,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="4">
-        <f>SUM(E49:F49)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -11607,10 +11607,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>23</v>
@@ -11622,7 +11622,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="4">
-        <f>SUM(E50:F50)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>18</v>
@@ -11646,7 +11646,7 @@
         <v>6</v>
       </c>
       <c r="G51" s="4">
-        <f>SUM(E51:F51)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -11655,10 +11655,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -11670,7 +11670,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="4">
-        <f>SUM(E52:F52)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>23</v>
@@ -11694,7 +11694,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="4">
-        <f>SUM(E53:F53)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -11703,10 +11703,10 @@
         <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -11718,7 +11718,7 @@
         <v>5</v>
       </c>
       <c r="G54" s="4">
-        <f>SUM(E54:F54)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -11727,10 +11727,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>23</v>
@@ -11742,7 +11742,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="4">
-        <f>SUM(E55:F55)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -11754,7 +11754,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>18</v>
@@ -11766,19 +11766,19 @@
         <v>4</v>
       </c>
       <c r="G56" s="4">
-        <f>SUM(E56:F56)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
@@ -11790,7 +11790,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="4">
-        <f>SUM(E57:F57)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -11799,13 +11799,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E58" s="3">
         <v>9</v>
@@ -11814,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="4">
-        <f>SUM(E58:F58)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>23</v>
@@ -11838,7 +11838,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="4">
-        <f>SUM(E59:F59)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -11847,10 +11847,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
@@ -11862,7 +11862,7 @@
         <v>4</v>
       </c>
       <c r="G60" s="4">
-        <f>SUM(E60:F60)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -11871,10 +11871,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>18</v>
@@ -11886,7 +11886,7 @@
         <v>4</v>
       </c>
       <c r="G61" s="4">
-        <f>SUM(E61:F61)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -11895,13 +11895,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="3">
         <v>6</v>
@@ -11910,14 +11910,14 @@
         <v>4</v>
       </c>
       <c r="G62" s="4">
-        <f>SUM(E62:F62)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="3"/>
@@ -11939,11 +11939,11 @@
         <v>30</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" ref="E64:F64" si="0">AVERAGE(E6:E63)</f>
+        <f t="shared" ref="E64:F64" si="3">AVERAGE(E6:E63)</f>
         <v>11.87719298245614</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.9122807017543861</v>
       </c>
       <c r="G64" s="6">
@@ -11952,15 +11952,15 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
@@ -11990,10 +11990,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>23</v>
@@ -12005,7 +12005,7 @@
         <v>8</v>
       </c>
       <c r="G67" s="4">
-        <f>SUM(E67:F67)</f>
+        <f t="shared" ref="G67:G74" si="4">SUM(E67:F67)</f>
         <v>24</v>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>23</v>
@@ -12029,7 +12029,7 @@
         <v>8</v>
       </c>
       <c r="G68" s="4">
-        <f>SUM(E68:F68)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
@@ -12038,10 +12038,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>23</v>
@@ -12053,7 +12053,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="4">
-        <f>SUM(E69:F69)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -12062,10 +12062,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -12077,7 +12077,7 @@
         <v>6</v>
       </c>
       <c r="G70" s="4">
-        <f>SUM(E70:F70)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
     </row>
@@ -12086,10 +12086,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>23</v>
@@ -12101,7 +12101,7 @@
         <v>7</v>
       </c>
       <c r="G71" s="4">
-        <f>SUM(E71:F71)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -12110,10 +12110,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -12125,7 +12125,7 @@
         <v>6</v>
       </c>
       <c r="G72" s="4">
-        <f>SUM(E72:F72)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -12134,10 +12134,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>23</v>
@@ -12149,7 +12149,7 @@
         <v>7</v>
       </c>
       <c r="G73" s="4">
-        <f>SUM(E73:F73)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -12158,10 +12158,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -12173,7 +12173,7 @@
         <v>7</v>
       </c>
       <c r="G74" s="4">
-        <f>SUM(E74:F74)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -12182,10 +12182,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>23</v>
@@ -12205,10 +12205,10 @@
         <v>10</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
@@ -12229,10 +12229,10 @@
         <v>10</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>23</v>
@@ -12255,7 +12255,7 @@
         <v>24</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>23</v>
@@ -12267,7 +12267,7 @@
         <v>6</v>
       </c>
       <c r="G78" s="4">
-        <f>SUM(E78:F78)</f>
+        <f t="shared" ref="G78:G95" si="5">SUM(E78:F78)</f>
         <v>18</v>
       </c>
     </row>
@@ -12276,10 +12276,10 @@
         <v>12</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>23</v>
@@ -12291,7 +12291,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="4">
-        <f>SUM(E79:F79)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -12300,10 +12300,10 @@
         <v>12</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
@@ -12315,7 +12315,7 @@
         <v>5</v>
       </c>
       <c r="G80" s="4">
-        <f>SUM(E80:F80)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -12324,10 +12324,10 @@
         <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>23</v>
@@ -12339,7 +12339,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="4">
-        <f>SUM(E81:F81)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -12348,10 +12348,10 @@
         <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>23</v>
@@ -12363,7 +12363,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="4">
-        <f>SUM(E82:F82)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -12372,10 +12372,10 @@
         <v>15</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>23</v>
@@ -12387,7 +12387,7 @@
         <v>5</v>
       </c>
       <c r="G83" s="4">
-        <f>SUM(E83:F83)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -12396,10 +12396,10 @@
         <v>15</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>23</v>
@@ -12411,7 +12411,7 @@
         <v>5</v>
       </c>
       <c r="G84" s="4">
-        <f>SUM(E84:F84)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -12420,10 +12420,10 @@
         <v>15</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>23</v>
@@ -12435,7 +12435,7 @@
         <v>5</v>
       </c>
       <c r="G85" s="4">
-        <f>SUM(E85:F85)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -12447,7 +12447,7 @@
         <v>26</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>23</v>
@@ -12459,7 +12459,7 @@
         <v>6</v>
       </c>
       <c r="G86" s="4">
-        <f>SUM(E86:F86)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -12468,10 +12468,10 @@
         <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>23</v>
@@ -12483,7 +12483,7 @@
         <v>4</v>
       </c>
       <c r="G87" s="4">
-        <f>SUM(E87:F87)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -12492,10 +12492,10 @@
         <v>22</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>23</v>
@@ -12507,7 +12507,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="4">
-        <f>SUM(E88:F88)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -12516,10 +12516,10 @@
         <v>22</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>23</v>
@@ -12531,7 +12531,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="4">
-        <f>SUM(E89:F89)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
         <v>25</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>23</v>
@@ -12555,7 +12555,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="4">
-        <f>SUM(E90:F90)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -12564,10 +12564,10 @@
         <v>22</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>23</v>
@@ -12579,7 +12579,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="4">
-        <f>SUM(E91:F91)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -12588,10 +12588,10 @@
         <v>26</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>23</v>
@@ -12603,7 +12603,7 @@
         <v>4</v>
       </c>
       <c r="G92" s="4">
-        <f>SUM(E92:F92)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
         <v>37</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>23</v>
@@ -12627,7 +12627,7 @@
         <v>5</v>
       </c>
       <c r="G93" s="4">
-        <f>SUM(E93:F93)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
         <v>38</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>23</v>
@@ -12651,7 +12651,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="4">
-        <f>SUM(E94:F94)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -12660,10 +12660,10 @@
         <v>29</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>23</v>
@@ -12675,7 +12675,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="4">
-        <f>SUM(E95:F95)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -12715,15 +12715,15 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="31"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="36"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>2</v>
@@ -12753,10 +12753,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>18</v>
@@ -12768,7 +12768,7 @@
         <v>8</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" ref="G100:G114" si="1">SUM(E100:F100)</f>
+        <f t="shared" ref="G100:G114" si="6">SUM(E100:F100)</f>
         <v>23</v>
       </c>
     </row>
@@ -12777,10 +12777,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>18</v>
@@ -12792,7 +12792,7 @@
         <v>8</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
@@ -12804,7 +12804,7 @@
         <v>34</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>18</v>
@@ -12816,7 +12816,7 @@
         <v>8</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -12825,10 +12825,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>18</v>
@@ -12840,7 +12840,7 @@
         <v>7</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -12849,10 +12849,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>18</v>
@@ -12864,7 +12864,7 @@
         <v>7</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -12873,10 +12873,10 @@
         <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>18</v>
@@ -12888,7 +12888,7 @@
         <v>7</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -12897,10 +12897,10 @@
         <v>7</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>18</v>
@@ -12912,7 +12912,7 @@
         <v>7</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -12924,7 +12924,7 @@
         <v>19</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>18</v>
@@ -12936,7 +12936,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -12945,10 +12945,10 @@
         <v>9</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>18</v>
@@ -12960,7 +12960,7 @@
         <v>6</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -12969,10 +12969,10 @@
         <v>9</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>18</v>
@@ -12984,7 +12984,7 @@
         <v>5</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -12993,10 +12993,10 @@
         <v>9</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>18</v>
@@ -13008,7 +13008,7 @@
         <v>5</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
         <v>17</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>18</v>
@@ -13032,7 +13032,7 @@
         <v>6</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -13044,7 +13044,7 @@
         <v>31</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>18</v>
@@ -13056,7 +13056,7 @@
         <v>4</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -13068,7 +13068,7 @@
         <v>27</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>18</v>
@@ -13080,7 +13080,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -13089,10 +13089,10 @@
         <v>15</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>18</v>
@@ -13104,7 +13104,7 @@
         <v>4</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -13144,15 +13144,15 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="31"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="36"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>2</v>
@@ -13182,10 +13182,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>36</v>
@@ -13206,10 +13206,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>36</v>
@@ -13233,7 +13233,7 @@
         <v>35</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>36</v>
@@ -13254,10 +13254,10 @@
         <v>4</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>36</v>
@@ -13307,28 +13307,28 @@
         <v>30</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" ref="E125:G125" si="2">AVERAGE(E119:E124)</f>
+        <f t="shared" ref="E125:G125" si="7">AVERAGE(E119:E124)</f>
         <v>12.5</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="31"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="36"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>2</v>
@@ -13361,7 +13361,7 @@
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>21</v>
@@ -13386,7 +13386,7 @@
         <v>33</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>21</v>
@@ -13398,20 +13398,20 @@
         <v>5</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" ref="G129:G130" si="3">SUM(E129:F129)</f>
+        <f t="shared" ref="G129:G130" si="8">SUM(E129:F129)</f>
         <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <f t="shared" ref="A130:A132" si="4">A129+1</f>
+        <f t="shared" ref="A130:A132" si="9">A129+1</f>
         <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>21</v>
@@ -13423,13 +13423,13 @@
         <v>6</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B131" s="3"/>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B132" s="3"/>
@@ -13474,28 +13474,28 @@
         <v>30</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" ref="E134:G134" si="5">AVERAGE(E128:E133)</f>
+        <f t="shared" ref="E134:G134" si="10">AVERAGE(E128:E133)</f>
         <v>13</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.666666666666667</v>
       </c>
       <c r="G134" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>19.666666666666668</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="31"/>
+      <c r="A135" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="36"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>2</v>
@@ -13525,13 +13525,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E137" s="3">
         <v>16</v>
@@ -13540,7 +13540,7 @@
         <v>7</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" ref="G137:G142" si="6">SUM(E137:F137)</f>
+        <f t="shared" ref="G137:G142" si="11">SUM(E137:F137)</f>
         <v>23</v>
       </c>
     </row>
@@ -13549,13 +13549,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E138" s="3">
         <v>16</v>
@@ -13564,7 +13564,7 @@
         <v>7</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
     </row>
@@ -13573,13 +13573,13 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E139" s="3">
         <v>12</v>
@@ -13588,7 +13588,7 @@
         <v>6</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
@@ -13597,13 +13597,13 @@
         <v>4</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140" s="3">
         <v>10</v>
@@ -13612,7 +13612,7 @@
         <v>6</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
@@ -13621,13 +13621,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E141" s="3">
         <v>9</v>
@@ -13636,7 +13636,7 @@
         <v>3</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -13645,13 +13645,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E142" s="3">
         <v>6</v>
@@ -13660,7 +13660,7 @@
         <v>4</v>
       </c>
       <c r="G142" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
@@ -13687,15 +13687,15 @@
         <v>30</v>
       </c>
       <c r="E144" s="9">
-        <f t="shared" ref="E144:G144" si="7">AVERAGE(E137:E143)</f>
+        <f t="shared" ref="E144:G144" si="12">AVERAGE(E137:E143)</f>
         <v>11.5</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.5</v>
       </c>
       <c r="G144" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
     </row>
